--- a/Screenshots/etfs.xlsx
+++ b/Screenshots/etfs.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="18780" windowHeight="11895" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="18780" windowHeight="11895" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="5" r:id="rId4"/>
-    <sheet name="Hoja5" sheetId="6" r:id="rId5"/>
+    <sheet name="Hoja5" sheetId="7" r:id="rId5"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7478" uniqueCount="1996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7465" uniqueCount="1992">
   <si>
     <t>https://es.investing.com/etfs/amundi-cac-40-de</t>
   </si>
@@ -5990,29 +5991,119 @@
     <t>USA</t>
   </si>
   <si>
-    <t>https://es.investing.com/etfs/deka-dax-ex-financials-30-tg?cid=998476</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009418</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ishares-s-p-500-usd-energy?cid=1024484</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ishares-s-p-500-usd-financials?cid=1024483</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ishares-s-p-500-usd-info-tech?cid=1024485</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/robo-stox-global-robotics?cid=1052316</t>
+    <t xml:space="preserve">select * from
+(
+ select mercado, bolsa, indice, ticker, count(1) as num_dias, min(fecha) as fecha_ini, max(fecha) fecha_fin
+ from public.mercados_investing_equity_etf
+ where 
+ (
+  ticker like '%aero%'
+  or ticker like '%auto%'
+  or ticker like '%banking%'
+  or ticker like '%banks%'
+  or ticker like '%basic%'
+  or ticker like '%bever%'
+  or ticker like '%biot%'
+  or ticker like '%broker%'
+  or ticker like '%builder%'
+  or ticker like '%canada%'
+  or ticker like '%capital%'
+  or ticker like '%chemic%'
+  or ticker like '%china%'
+  or ticker like '%clean%'
+  or ticker like '%construc%'
+  or ticker like '%consum%'
+  or ticker like '%defen%'
+  or ticker like '%denmark%'
+  or ticker like '%energy%'
+  or ticker like '%estate%'
+  or ticker like '%financ%'
+  or ticker like '%finland%'
+  or ticker like '%food%'
+  or ticker like '%gold%'
+  or ticker like '%goods%'
+  or ticker like '%health%'
+  or ticker like '%home%'
+  or ticker like '%india%'
+  or ticker like '%indus%'
+  or ticker like '%infr%'
+  or ticker like '%insuran%'
+  or ticker like '%japan%'
+  or ticker like '%leis%'
+  or ticker like '%material%'
+  or ticker like '%media%'
+  or ticker like '%medic%'
+  or ticker like '%metal%'
+  or ticker like '%miner%'
+  or ticker like '%minin%'
+  or ticker like '%norway%'
+  or ticker like '%pharma%'
+  or ticker like '%reit%'
+  or ticker like '%resourc%'
+  or ticker like '%retail%'
+  or ticker like '%robot%'
+  or ticker like '%russia%'
+  or ticker like '%semicond%'
+  or ticker like '%softw%'
+  or ticker like '%solar%'
+  or ticker like '%sweden%'
+  or ticker like '%tech%'
+  or ticker like '%telecom%'
+  or ticker like '%transport%'
+  or ticker like '%travel%'
+  or ticker like '%trvl%'
+  or ticker like '%utilit%'
+  or ticker like '%water%'
+  or ticker like '%wind%' 
+ )
+ and ticker not like '%2x%'
+ and ticker not like '%3x%'
+ and ticker not like '%4x%'
+ and ticker not like '%5x%'
+ and ticker not like '%agri%'
+ and ticker not like '%bear%'
+ and ticker not like '%boost%'
+ and ticker not like '%brent%'
+ and ticker not like '%bull%'
+ and ticker not like '%cattle%'
+ and ticker not like '%cocoa%'
+ and ticker not like '%coffee%'
+ and ticker not like '%commod%'
+ and ticker not like '%corn%'
+ and ticker not like '%cotton%'
+ and ticker not like '%crude%'
+ and ticker not like '%double%'
+ and ticker not like '%gasoline%'
+ and ticker not like '%grains%'
+ and ticker not like '%heating%'
+ and ticker not like '%inverse%'
+ and ticker not like '%lean-hogs%'
+ and ticker not like '%lever%'
+ and ticker not like '%long%'
+ and ticker not like '%natural-gas%'
+ and ticker not like '%short%'
+ and ticker not like '%softs%'
+ and ticker not like '%soybean%'
+ and ticker not like '%sugar%'
+ and ticker not like '%ultra%'
+ and ticker not like '%wheat%'
+ and ticker not like '%wti%'
+ group by mercado, bolsa, indice, ticker
+) 
+as t0
+where t0.fecha_ini &lt; '2014-01-01'
+order by t0.mercado, t0.bolsa, t0.indice, t0.ticker;
+</t>
+  </si>
+  <si>
+    <t>Query para Hoja6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6029,6 +6120,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -6087,7 +6184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6097,6 +6194,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -41886,7 +41986,36 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D252"/>
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="154.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:D219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41899,25 +42028,17 @@
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
         <v>1988</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>1989</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>727</v>
@@ -41925,1671 +42046,1566 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>732</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>734</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>735</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>739</v>
+        <v>837</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>743</v>
+        <v>838</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>746</v>
+        <v>839</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>752</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>767</v>
+        <v>852</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>768</v>
+        <v>854</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>769</v>
+        <v>863</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>779</v>
+        <v>864</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>796</v>
+        <v>865</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>837</v>
+        <v>866</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>838</v>
+        <v>867</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>839</v>
+        <v>868</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>854</v>
+        <v>871</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>863</v>
+        <v>875</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>865</v>
+        <v>920</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>866</v>
+        <v>922</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>867</v>
+        <v>925</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>868</v>
+        <v>926</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>869</v>
+        <v>938</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>870</v>
+        <v>940</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>871</v>
+        <v>942</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>875</v>
+        <v>944</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>878</v>
+        <v>946</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>195</v>
+        <v>116</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>898</v>
+        <v>948</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>219</v>
+        <v>117</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>901</v>
+        <v>950</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>903</v>
+        <v>951</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>904</v>
+        <v>954</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>905</v>
+        <v>962</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>1990</v>
+        <v>141</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>920</v>
+        <v>963</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>922</v>
+        <v>965</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>940</v>
+        <v>968</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>942</v>
+        <v>974</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
-        <v>291</v>
+        <v>158</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>944</v>
+        <v>976</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
-        <v>1991</v>
+        <v>159</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>948</v>
+        <v>989</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
-        <v>334</v>
+        <v>180</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>950</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
-        <v>336</v>
+        <v>194</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>954</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
-        <v>337</v>
+        <v>195</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>962</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
-        <v>338</v>
+        <v>206</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>963</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
-        <v>339</v>
+        <v>208</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>965</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
-        <v>340</v>
+        <v>209</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>966</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
-        <v>341</v>
+        <v>211</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>968</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
-        <v>342</v>
+        <v>212</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>974</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>976</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>989</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B55" s="6" t="s">
-        <v>357</v>
+        <v>259</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>1016</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>1018</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1019</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1020</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1021</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
-        <v>363</v>
+        <v>287</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1022</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
-        <v>364</v>
+        <v>291</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>1024</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>1026</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
-        <v>366</v>
+        <v>308</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>1033</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
-        <v>369</v>
+        <v>322</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>1043</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>1046</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>1049</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>1054</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>1062</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B69" s="6" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1065</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" s="6" t="s">
-        <v>417</v>
+        <v>340</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>1066</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
-        <v>430</v>
+        <v>341</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>1067</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" s="6" t="s">
-        <v>1992</v>
+        <v>342</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>1068</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
-        <v>1993</v>
+        <v>343</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>1069</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
-        <v>437</v>
+        <v>345</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>1070</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
-        <v>1994</v>
+        <v>346</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>1071</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
-        <v>441</v>
+        <v>358</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>1072</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
-        <v>442</v>
+        <v>360</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>1073</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
-        <v>449</v>
+        <v>361</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>1077</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>1080</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
-        <v>458</v>
+        <v>363</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>1081</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
-        <v>474</v>
+        <v>364</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>1092</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="6" t="s">
-        <v>477</v>
+        <v>365</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>1095</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
-        <v>492</v>
+        <v>369</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>1101</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="6" t="s">
-        <v>499</v>
+        <v>370</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>1102</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="6" t="s">
-        <v>502</v>
+        <v>371</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>1107</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="6" t="s">
-        <v>503</v>
+        <v>373</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>1108</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="6" t="s">
-        <v>504</v>
+        <v>376</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>1117</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="6" t="s">
-        <v>505</v>
+        <v>381</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>1165</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="6" t="s">
-        <v>506</v>
+        <v>406</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>1166</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="6" t="s">
-        <v>507</v>
+        <v>407</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>1168</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="6" t="s">
-        <v>508</v>
+        <v>408</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>1169</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="6" t="s">
-        <v>509</v>
+        <v>409</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>1170</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="6" t="s">
-        <v>510</v>
+        <v>413</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>1171</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="6" t="s">
-        <v>511</v>
+        <v>430</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>1172</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="6" t="s">
-        <v>514</v>
+        <v>441</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>1173</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
-        <v>522</v>
+        <v>442</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>1174</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
-        <v>526</v>
+        <v>449</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>1175</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
-        <v>527</v>
+        <v>452</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>1176</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="6" t="s">
-        <v>528</v>
+        <v>458</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>1177</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="6" t="s">
-        <v>529</v>
+        <v>472</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>1178</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="6" t="s">
-        <v>530</v>
+        <v>474</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>1179</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="6" t="s">
-        <v>531</v>
+        <v>483</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>1180</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="6" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>1182</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="6" t="s">
-        <v>534</v>
+        <v>487</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>1183</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="6" t="s">
-        <v>535</v>
+        <v>492</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>1184</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="6" t="s">
-        <v>536</v>
+        <v>494</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>1185</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="6" t="s">
-        <v>538</v>
+        <v>499</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>1187</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="6" t="s">
-        <v>539</v>
+        <v>502</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>1191</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="6" t="s">
-        <v>540</v>
+        <v>503</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>1192</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
-        <v>541</v>
+        <v>504</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1193</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="6" t="s">
-        <v>546</v>
+        <v>505</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>1194</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>1195</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="6" t="s">
-        <v>578</v>
+        <v>507</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>1196</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="6" t="s">
-        <v>1995</v>
+        <v>508</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>1205</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="6" t="s">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1213</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="6" t="s">
-        <v>582</v>
+        <v>510</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>1214</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="6" t="s">
-        <v>603</v>
+        <v>511</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>1215</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="6" t="s">
-        <v>604</v>
+        <v>514</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>1265</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="6" t="s">
-        <v>605</v>
+        <v>517</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>1266</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="6" t="s">
-        <v>606</v>
+        <v>522</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>1310</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="6" t="s">
-        <v>607</v>
+        <v>526</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>1338</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="6" t="s">
-        <v>608</v>
+        <v>527</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>1341</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="6" t="s">
-        <v>609</v>
+        <v>528</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1342</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="6" t="s">
-        <v>610</v>
+        <v>529</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>1343</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125" s="6" t="s">
-        <v>612</v>
+        <v>530</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>1344</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="6" t="s">
-        <v>613</v>
+        <v>531</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>1345</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="6" t="s">
-        <v>629</v>
+        <v>533</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>1346</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="6" t="s">
-        <v>630</v>
+        <v>534</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>1347</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B129" s="6" t="s">
-        <v>631</v>
+        <v>535</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1348</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B130" s="6" t="s">
-        <v>634</v>
+        <v>536</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>1350</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131" s="6" t="s">
-        <v>636</v>
+        <v>538</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1365</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
-        <v>638</v>
+        <v>539</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>1375</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B133" s="6" t="s">
-        <v>639</v>
+        <v>540</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>1376</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B134" s="6" t="s">
-        <v>640</v>
+        <v>541</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>1377</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B135" s="6" t="s">
-        <v>641</v>
+        <v>546</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>1379</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B136" s="6" t="s">
-        <v>642</v>
+        <v>547</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>1380</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B137" s="6" t="s">
-        <v>643</v>
+        <v>553</v>
       </c>
       <c r="D137" s="6" t="s">
-        <v>1381</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B138" s="6" t="s">
-        <v>644</v>
+        <v>554</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>1383</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B139" s="6" t="s">
-        <v>646</v>
+        <v>576</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>1386</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B140" s="6" t="s">
-        <v>647</v>
+        <v>603</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1387</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B141" s="6" t="s">
-        <v>648</v>
+        <v>604</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>1421</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B142" s="6" t="s">
-        <v>653</v>
+        <v>605</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>1426</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B143" s="6" t="s">
-        <v>655</v>
+        <v>606</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>1428</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B144" s="6" t="s">
-        <v>657</v>
+        <v>607</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>1432</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B145" s="6" t="s">
-        <v>658</v>
+        <v>608</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>1434</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B146" s="6" t="s">
-        <v>661</v>
+        <v>609</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>1440</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B147" s="6" t="s">
-        <v>678</v>
+        <v>610</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>1444</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B148" s="6" t="s">
+        <v>612</v>
+      </c>
       <c r="D148" s="6" t="s">
-        <v>1462</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B149" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="D149" s="6" t="s">
-        <v>1465</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B150" s="6" t="s">
+        <v>638</v>
+      </c>
       <c r="D150" s="6" t="s">
-        <v>1466</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B151" s="6" t="s">
+        <v>639</v>
+      </c>
       <c r="D151" s="6" t="s">
-        <v>1475</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B152" s="6" t="s">
+        <v>640</v>
+      </c>
       <c r="D152" s="6" t="s">
-        <v>1506</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B153" s="6" t="s">
+        <v>641</v>
+      </c>
       <c r="D153" s="6" t="s">
-        <v>1507</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B154" s="6" t="s">
+        <v>642</v>
+      </c>
       <c r="D154" s="6" t="s">
-        <v>1508</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B155" s="6" t="s">
+        <v>643</v>
+      </c>
       <c r="D155" s="6" t="s">
-        <v>1509</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B156" s="6" t="s">
+        <v>644</v>
+      </c>
       <c r="D156" s="6" t="s">
-        <v>1510</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B157" s="6" t="s">
+        <v>646</v>
+      </c>
       <c r="D157" s="6" t="s">
-        <v>1511</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B158" s="6" t="s">
+        <v>647</v>
+      </c>
       <c r="D158" s="6" t="s">
-        <v>1512</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B159" s="6" t="s">
+        <v>648</v>
+      </c>
       <c r="D159" s="6" t="s">
-        <v>1514</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B160" s="6" t="s">
+        <v>653</v>
+      </c>
       <c r="D160" s="6" t="s">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B161" s="6" t="s">
+        <v>655</v>
+      </c>
       <c r="D161" s="6" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B162" s="6" t="s">
+        <v>657</v>
+      </c>
       <c r="D162" s="6" t="s">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B163" s="6" t="s">
+        <v>658</v>
+      </c>
       <c r="D163" s="6" t="s">
-        <v>1524</v>
-      </c>
-    </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B164" s="6" t="s">
+        <v>668</v>
+      </c>
       <c r="D164" s="6" t="s">
-        <v>1525</v>
-      </c>
-    </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B165" s="6" t="s">
+        <v>673</v>
+      </c>
       <c r="D165" s="6" t="s">
-        <v>1526</v>
-      </c>
-    </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B166" s="6" t="s">
+        <v>674</v>
+      </c>
       <c r="D166" s="6" t="s">
-        <v>1527</v>
-      </c>
-    </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B167" s="6" t="s">
+        <v>687</v>
+      </c>
       <c r="D167" s="6" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D168" s="6" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D169" s="6" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D170" s="6" t="s">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D171" s="6" t="s">
-        <v>1538</v>
-      </c>
-    </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D172" s="6" t="s">
-        <v>1539</v>
-      </c>
-    </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D173" s="6" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D174" s="6" t="s">
-        <v>1544</v>
-      </c>
-    </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D175" s="6" t="s">
-        <v>1545</v>
-      </c>
-    </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.2">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D176" s="6" t="s">
-        <v>1548</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="177" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D177" s="6" t="s">
-        <v>1549</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="178" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D178" s="6" t="s">
-        <v>1550</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="179" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D179" s="6" t="s">
-        <v>1551</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="180" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D180" s="6" t="s">
-        <v>1559</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="181" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D181" s="6" t="s">
-        <v>1560</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="182" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D182" s="6" t="s">
-        <v>1582</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="183" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D183" s="6" t="s">
-        <v>1584</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="184" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D184" s="6" t="s">
-        <v>1585</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="185" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D185" s="6" t="s">
-        <v>1596</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="186" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D186" s="6" t="s">
-        <v>1613</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="187" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D187" s="6" t="s">
-        <v>1623</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="188" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D188" s="6" t="s">
-        <v>1624</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="189" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D189" s="6" t="s">
-        <v>1625</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="190" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D190" s="6" t="s">
-        <v>1626</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="191" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D191" s="6" t="s">
-        <v>1636</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="192" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D192" s="6" t="s">
-        <v>1645</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="193" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D193" s="6" t="s">
-        <v>1646</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="194" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D194" s="6" t="s">
-        <v>1647</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="195" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D195" s="6" t="s">
-        <v>1651</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="196" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D196" s="6" t="s">
-        <v>1656</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="197" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D197" s="6" t="s">
-        <v>1672</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="198" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D198" s="6" t="s">
-        <v>1673</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="199" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D199" s="6" t="s">
-        <v>1674</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="200" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D200" s="6" t="s">
-        <v>1675</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="201" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D201" s="6" t="s">
-        <v>1676</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="202" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D202" s="6" t="s">
-        <v>1677</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="203" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D203" s="6" t="s">
-        <v>1678</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="204" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D204" s="6" t="s">
-        <v>1686</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="205" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D205" s="6" t="s">
-        <v>1689</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="206" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D206" s="6" t="s">
-        <v>1709</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="207" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D207" s="6" t="s">
-        <v>1710</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="208" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D208" s="6" t="s">
-        <v>1711</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="209" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D209" s="6" t="s">
-        <v>1712</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="210" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D210" s="6" t="s">
-        <v>1716</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="211" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D211" s="6" t="s">
-        <v>1720</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="212" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D212" s="6" t="s">
-        <v>1722</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="213" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D213" s="6" t="s">
-        <v>1725</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="214" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D214" s="6" t="s">
-        <v>1726</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="215" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D215" s="6" t="s">
-        <v>1727</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="216" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D216" s="6" t="s">
-        <v>1729</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="217" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D217" s="6" t="s">
-        <v>1734</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="218" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D218" s="6" t="s">
-        <v>1767</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="219" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D219" s="6" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D220" s="6" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D221" s="6" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D222" s="6" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D223" s="6" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D224" s="6" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D225" s="6" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D226" s="6" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D227" s="6" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D228" s="6" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D229" s="6" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D230" s="6" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D231" s="6" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D232" s="6" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D233" s="6" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D234" s="6" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D235" s="6" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D236" s="6" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D237" s="6" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D238" s="6" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D239" s="6" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D240" s="6" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D241" s="6" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D242" s="6" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D243" s="6" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D244" s="6" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D245" s="6" t="s">
-        <v>1877</v>
-      </c>
-    </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D246" s="6" t="s">
-        <v>1881</v>
-      </c>
-    </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D247" s="6" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D248" s="6" t="s">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D249" s="6" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D250" s="6" t="s">
-        <v>1958</v>
-      </c>
-    </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D251" s="6" t="s">
-        <v>1960</v>
-      </c>
-    </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D252" s="6" t="s">
-        <v>1961</v>
+        <v>1963</v>
       </c>
     </row>
   </sheetData>

--- a/Screenshots/etfs.xlsx
+++ b/Screenshots/etfs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7465" uniqueCount="1992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7464" uniqueCount="1992">
   <si>
     <t>https://es.investing.com/etfs/amundi-cac-40-de</t>
   </si>
@@ -43341,9 +43341,6 @@
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B167" s="6" t="s">
-        <v>687</v>
-      </c>
       <c r="D167" s="6" t="s">
         <v>1675</v>
       </c>

--- a/Screenshots/etfs.xlsx
+++ b/Screenshots/etfs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8025" uniqueCount="2510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8582" uniqueCount="2581">
   <si>
     <t>https://es.investing.com/etfs/amundi-cac-40-de</t>
   </si>
@@ -7653,6 +7653,219 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/amundi-msci-world-financials---eur</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/db-x-trackers-msci-ac-world-index?cid=1024490</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055038</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055040</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055039</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055036</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055035</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009167</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009205</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009166</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056533</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056531</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056529</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056532</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056527</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056528</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/hsbc-eco-scale-worldwide-eq-ucits</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/hsbc-multifactor-worldwide-eq-ucits</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/hsbc-multifactor-worldwide-eq-ucits?cid=1080070</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/icbc-crsuiss-wtre-sp-china-500-b-de?cid=1024748</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/icbc-crsuiss-wtre-sp-china-500-b-de?cid=1024747</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009419</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009457</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009418</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009435</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ishares-core-msci-em-imi?cid=1024491</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ishares-digitalisation-acc?cid=1080073</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009078</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009080</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009059</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009079</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/lyxor-msci-world-energy-tr?cid=996756</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/robo-stox-global-robotics?cid=1052316</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024716</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024717</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024715</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024711</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024712</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024714</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024713</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/affinity-world-leaders-equity</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/dtec-alps-disruptive-tech</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/amplify-transform-data-sharing</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/arrow-dogs-of-the-world</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/dwcr-arrow-dwa-country-rotation</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/davis-select-international</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/direxiondrobartfclintlautobull3shrs</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/eaton-vance-stock-nextshares</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/evolve-marijuana?cid=1075596</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/fidelity-international-high-div</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/fidelity-international-value-factor</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/fieldstone-merlin-dyn-large-cap</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/fieldstone-uva-unconst-medterm</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/first-trust-indx-innvtv-trnsctnprc</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/first-trust-inst-pref-secs-and-inc</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/firsttrustnasdaqartfclintlrobotics</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/global-robotics-and-automation</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/global-x-auto-electric-vehicles</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/graniteshares-gold-trust</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/innovation-shares-nextgen-protocol</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/innovation-shares-nextgen-vhclstch</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/janus-organics</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/kraneshares-elctrcvhcls-fturemblty</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/kraneshares-msci-china-hlth-cr-indx</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/portfolioplus-developed-markets</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/portfolioplus-emerging-markets</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/principal-millennials</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/reality-shares-nasdaq-nexgen-econ</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/rex-bkcm</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/vanguard-ftse-all-world?cid=1065342</t>
+  </si>
+  <si>
+    <t>https://es.investing.com/etfs/vident-international-equity?cid=1072337</t>
   </si>
 </sst>
 </file>
@@ -45236,1548 +45449,1376 @@
       <c r="B3" s="11" t="s">
         <v>2361</v>
       </c>
-      <c r="C3" s="12" t="str">
-        <f>GetURL(B3)</f>
-        <v>https://es.investing.com/etfs/amundi-etf-msci-emerging-markets?cid=45949</v>
+      <c r="C3" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>2288</v>
       </c>
-      <c r="C4" s="12" t="str">
-        <f t="shared" ref="C4:C67" si="0">GetURL(B4)</f>
-        <v>https://es.investing.com/etfs/amundi-etf-msci-world-energy---eur?cid=45995</v>
+      <c r="C4" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>2310</v>
       </c>
-      <c r="C5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/amundi-etf-msci-world-x-emu?cid=45985</v>
+      <c r="C5" s="12" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>2302</v>
       </c>
-      <c r="C6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/amundi-msci-world-x-europe---eur?cid=46114</v>
+      <c r="C6" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>2265</v>
       </c>
-      <c r="C7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/amundi-msci-world-financials---eur</v>
+      <c r="C7" s="12" t="s">
+        <v>2510</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>2268</v>
       </c>
-      <c r="C8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/amundi-msci-china-de</v>
+      <c r="C8" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>2305</v>
       </c>
-      <c r="C9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/amundi-msci-world-de</v>
+      <c r="C9" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>2300</v>
       </c>
-      <c r="C10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/comstage-alpha-dividende-plus</v>
+      <c r="C10" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>2279</v>
       </c>
-      <c r="C11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/comstage-ftse-china-a50?cid=1024667</v>
+      <c r="C11" s="12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>2321</v>
       </c>
-      <c r="C12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/comstage-hscei</v>
+      <c r="C12" s="12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>2346</v>
       </c>
-      <c r="C13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/comstage-msci-emerging-markets-trn</v>
+      <c r="C13" s="12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>2358</v>
       </c>
-      <c r="C14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/comstage-msci-world-trn</v>
+      <c r="C14" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>2295</v>
       </c>
-      <c r="C15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/comstage-s-p-smit-40-trn?cid=1024623</v>
+      <c r="C15" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>2323</v>
       </c>
-      <c r="C16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-csi-300-index?cid=46094</v>
+      <c r="C16" s="12" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>2296</v>
       </c>
-      <c r="C17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-xtrackers-ftse-xinhua-china-25?cid=45808</v>
+      <c r="C17" s="12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>2259</v>
       </c>
-      <c r="C18" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-harvest-csi300</v>
+      <c r="C18" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>2259</v>
       </c>
-      <c r="C19" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-harvest-csi300?cid=1024696</v>
+      <c r="C19" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>2275</v>
       </c>
-      <c r="C20" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-msci-ac-world-index</v>
+      <c r="C20" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>2275</v>
       </c>
-      <c r="C21" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-msci-ac-world-index?cid=1024490</v>
+      <c r="C21" s="12" t="s">
+        <v>2511</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>2337</v>
       </c>
-      <c r="C22" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-xtrackers-msci-china-trn-uk?cid=46543</v>
+      <c r="C22" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>2291</v>
       </c>
-      <c r="C23" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-msci-em-emea-trn</v>
+      <c r="C23" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>2317</v>
       </c>
-      <c r="C24" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-msci-em-trn-idx-etf?cid=45821</v>
+      <c r="C24" s="12" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>2359</v>
       </c>
-      <c r="C25" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-msci-wrd-hlth-care-de</v>
+      <c r="C25" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>2303</v>
       </c>
-      <c r="C26" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrck-msci-world-4c</v>
+      <c r="C26" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>2345</v>
       </c>
-      <c r="C27" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-xtrack-msci-wrld-cons-disc-1c?cid=1024387</v>
+      <c r="C27" s="12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>2273</v>
       </c>
-      <c r="C28" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055038</v>
+      <c r="C28" s="12" t="s">
+        <v>2512</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>2273</v>
       </c>
-      <c r="C29" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c</v>
+      <c r="C29" s="12" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>2273</v>
       </c>
-      <c r="C30" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055040</v>
+      <c r="C30" s="12" t="s">
+        <v>2513</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>2273</v>
       </c>
-      <c r="C31" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055039</v>
+      <c r="C31" s="12" t="s">
+        <v>2514</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>2273</v>
       </c>
-      <c r="C32" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055036</v>
+      <c r="C32" s="12" t="s">
+        <v>2515</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>2273</v>
       </c>
-      <c r="C33" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055035</v>
+      <c r="C33" s="12" t="s">
+        <v>2516</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>2278</v>
       </c>
-      <c r="C34" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-world-dr-1d</v>
+      <c r="C34" s="12" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>2251</v>
       </c>
-      <c r="C35" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-world-energy-dr-1c</v>
+      <c r="C35" s="12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>2331</v>
       </c>
-      <c r="C36" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-world-finls-dr-1c</v>
+      <c r="C36" s="12" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>2254</v>
       </c>
-      <c r="C37" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-world-indust-dr-1c</v>
+      <c r="C37" s="12" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>2283</v>
       </c>
-      <c r="C38" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009153</v>
+      <c r="C38" s="12" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
         <v>2283</v>
       </c>
-      <c r="C39" s="12" t="str">
-        <f>GetURL(B39)</f>
-        <v>https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009167</v>
+      <c r="C39" s="12" t="s">
+        <v>2517</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
         <v>2283</v>
       </c>
-      <c r="C40" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009205</v>
+      <c r="C40" s="12" t="s">
+        <v>2518</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
         <v>2283</v>
       </c>
-      <c r="C41" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009166</v>
+      <c r="C41" s="12" t="s">
+        <v>2519</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
         <v>2253</v>
       </c>
-      <c r="C42" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-world-mats-dr-1c</v>
+      <c r="C42" s="12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
         <v>2280</v>
       </c>
-      <c r="C43" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-world-minvol-dr-1c</v>
+      <c r="C43" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
         <v>2277</v>
       </c>
-      <c r="C44" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrck-msci-world-mom-fact-dr1c</v>
+      <c r="C44" s="12" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
         <v>2252</v>
       </c>
-      <c r="C45" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-world-qlt-fct-dr-1c</v>
+      <c r="C45" s="12" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
         <v>2246</v>
       </c>
-      <c r="C46" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-wrld-tlcom-srvc-dr-1c</v>
+      <c r="C46" s="12" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
         <v>2344</v>
       </c>
-      <c r="C47" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-xtrackers-msci-world-trn-uk?cid=46409</v>
+      <c r="C47" s="12" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
         <v>2250</v>
       </c>
-      <c r="C48" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-world-util-dr-1c</v>
+      <c r="C48" s="12" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
         <v>2249</v>
       </c>
-      <c r="C49" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dbxtrack-msci-world-val-fct-dr-1c</v>
+      <c r="C49" s="12" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
         <v>2271</v>
       </c>
-      <c r="C50" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056533</v>
+      <c r="C50" s="12" t="s">
+        <v>2520</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
         <v>2271</v>
       </c>
-      <c r="C51" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056531</v>
+      <c r="C51" s="12" t="s">
+        <v>2521</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
         <v>2271</v>
       </c>
-      <c r="C52" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056529</v>
+      <c r="C52" s="12" t="s">
+        <v>2522</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
         <v>2271</v>
       </c>
-      <c r="C53" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056532</v>
+      <c r="C53" s="12" t="s">
+        <v>2523</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
         <v>2271</v>
       </c>
-      <c r="C54" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056527</v>
+      <c r="C54" s="12" t="s">
+        <v>2524</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
         <v>2271</v>
       </c>
-      <c r="C55" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056528</v>
+      <c r="C55" s="12" t="s">
+        <v>2525</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
         <v>2271</v>
       </c>
-      <c r="C56" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056526</v>
+      <c r="C56" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
         <v>2313</v>
       </c>
-      <c r="C57" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-xtrackers-s-p-global-infr.-uk?cid=38694</v>
+      <c r="C57" s="12" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
         <v>2325</v>
       </c>
-      <c r="C58" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-xtrackers-s-p-select-frontier</v>
+      <c r="C58" s="12" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="11" t="s">
         <v>2339</v>
       </c>
-      <c r="C59" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-xtrackers-stoxx-glbl-div-100?cid=46096</v>
+      <c r="C59" s="12" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="11" t="s">
         <v>2353</v>
       </c>
-      <c r="C60" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/etflab-msci-china</v>
+      <c r="C60" s="12" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" s="11" t="s">
         <v>2343</v>
       </c>
-      <c r="C61" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/etflab-msci-emerging-markets</v>
+      <c r="C61" s="12" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" s="11" t="s">
         <v>2309</v>
       </c>
-      <c r="C62" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/etfx-daxglobal-gold-mining-fund</v>
+      <c r="C62" s="12" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" s="11" t="s">
         <v>2367</v>
       </c>
-      <c r="C63" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/etfs-ise-cyber-sec-go-accum</v>
+      <c r="C63" s="12" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" s="11" t="s">
         <v>2366</v>
       </c>
-      <c r="C64" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/fundlogic-alter-plc-ms-scibeta-glbl</v>
+      <c r="C64" s="12" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="11" t="s">
         <v>2368</v>
       </c>
-      <c r="C65" s="12" t="str">
-        <f>GetURL(B65)</f>
-        <v>https://es.investing.com/etfs/hang-seng-h-share?cid=1010571</v>
+      <c r="C65" s="12" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="11" t="s">
         <v>2270</v>
       </c>
-      <c r="C66" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/hsbc-eco-scale-worldwide-eq-ucits</v>
+      <c r="C66" s="12" t="s">
+        <v>2526</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
         <v>2365</v>
       </c>
-      <c r="C67" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/hsbc-msci-world</v>
+      <c r="C67" s="12" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="11" t="s">
         <v>2257</v>
       </c>
-      <c r="C68" s="12" t="str">
-        <f t="shared" ref="C68:C91" si="1">GetURL(B68)</f>
-        <v>https://es.investing.com/etfs/hsbc-multifactor-worldwide-eq-ucits</v>
+      <c r="C68" s="12" t="s">
+        <v>2527</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="11" t="s">
         <v>2257</v>
       </c>
-      <c r="C69" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/hsbc-multifactor-worldwide-eq-ucits?cid=1080070</v>
+      <c r="C69" s="12" t="s">
+        <v>2528</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="11" t="s">
         <v>2255</v>
       </c>
-      <c r="C70" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/icbc-crsuiss-wtre-sp-china-500-b-de</v>
+      <c r="C70" s="12" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="11" t="s">
         <v>2255</v>
       </c>
-      <c r="C71" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/icbc-crsuiss-wtre-sp-china-500-b-de?cid=1024748</v>
+      <c r="C71" s="12" t="s">
+        <v>2529</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="11" t="s">
         <v>2255</v>
       </c>
-      <c r="C72" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/icbc-crsuiss-wtre-sp-china-500-b-de?cid=1024747</v>
+      <c r="C72" s="12" t="s">
+        <v>2530</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="11" t="s">
         <v>2256</v>
       </c>
-      <c r="C73" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-ageing-population-acc?cid=1037050</v>
+      <c r="C73" s="12" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="11" t="s">
         <v>2330</v>
       </c>
-      <c r="C74" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009408</v>
+      <c r="C74" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="11" t="s">
         <v>2330</v>
       </c>
-      <c r="C75" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009419</v>
+      <c r="C75" s="12" t="s">
+        <v>2531</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="11" t="s">
         <v>2330</v>
       </c>
-      <c r="C76" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009457</v>
+      <c r="C76" s="12" t="s">
+        <v>2532</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="11" t="s">
         <v>2330</v>
       </c>
-      <c r="C77" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009418</v>
+      <c r="C77" s="12" t="s">
+        <v>2533</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="11" t="s">
         <v>2330</v>
       </c>
-      <c r="C78" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009435</v>
+      <c r="C78" s="12" t="s">
+        <v>2534</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="11" t="s">
         <v>2307</v>
       </c>
-      <c r="C79" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-ftse-birc-50---ie?cid=38607</v>
+      <c r="C79" s="12" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="11" t="s">
         <v>2290</v>
       </c>
-      <c r="C80" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-ftse-xinhua-china25?cid=45780</v>
+      <c r="C80" s="12" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="11" t="s">
         <v>2276</v>
       </c>
-      <c r="C81" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-core-msci-em-imi?cid=994133</v>
+      <c r="C81" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="11" t="s">
         <v>2276</v>
       </c>
-      <c r="C82" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-core-msci-em-imi?cid=1024491</v>
+      <c r="C82" s="12" t="s">
+        <v>2535</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="11" t="s">
         <v>2357</v>
       </c>
-      <c r="C83" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-msci-world---acc?cid=45873</v>
+      <c r="C83" s="12" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
         <v>2348</v>
       </c>
-      <c r="C84" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-ftse-nareit-dev.-markets?cid=38605</v>
+      <c r="C84" s="12" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="11" t="s">
         <v>2355</v>
       </c>
-      <c r="C85" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-digitalisation-acc?cid=1080073</v>
+      <c r="C85" s="12" t="s">
+        <v>2536</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="11" t="s">
         <v>2320</v>
       </c>
-      <c r="C86" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-dj-china-offshore-50---de</v>
+      <c r="C86" s="12" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="11" t="s">
         <v>2306</v>
       </c>
-      <c r="C87" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-dj-global-sust-screened-uk?cid=38617</v>
+      <c r="C87" s="12" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="11" t="s">
         <v>2327</v>
       </c>
-      <c r="C88" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-dj-global-titans-50</v>
+      <c r="C88" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="11" t="s">
         <v>2243</v>
       </c>
-      <c r="C89" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-edge-msci-world-mf-gbp?cid=994123</v>
+      <c r="C89" s="12" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="11" t="s">
         <v>2319</v>
       </c>
-      <c r="C90" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishares-edge-msci-world-min-vol</v>
+      <c r="C90" s="12" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="11" t="s">
         <v>2248</v>
       </c>
-      <c r="C91" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ishrs-edge-msci-wrld-minvol-hdg-acc</v>
+      <c r="C91" s="12" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="11" t="s">
         <v>2247</v>
       </c>
-      <c r="C92" s="12" t="str">
-        <f>GetURL(B92)</f>
-        <v>https://es.investing.com/etfs/ishares-edge-msci-wrld-multihdg-acc</v>
+      <c r="C92" s="12" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="11" t="s">
         <v>2338</v>
       </c>
-      <c r="C93" s="12" t="str">
-        <f t="shared" ref="C93:C113" si="2">GetURL(B93)</f>
-        <v>https://es.investing.com/etfs/ishares-dj-em-select-dividend-%C2%A3?cid=46600</v>
+      <c r="C93" s="12" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="11" t="s">
         <v>2262</v>
       </c>
-      <c r="C94" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-emerging-mkts-infr.?cid=46608</v>
+      <c r="C94" s="12" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="11" t="s">
         <v>2364</v>
       </c>
-      <c r="C95" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-exponential-tech-mu</v>
+      <c r="C95" s="12" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="11" t="s">
         <v>2287</v>
       </c>
-      <c r="C96" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-global-clean-energy?cid=45836</v>
+      <c r="C96" s="12" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="11" t="s">
         <v>2258</v>
       </c>
-      <c r="C97" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-macquarie-global-inf.-100?cid=38611</v>
+      <c r="C97" s="12" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="11" t="s">
         <v>2318</v>
       </c>
-      <c r="C98" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-glbl-water?cid=46491</v>
+      <c r="C98" s="12" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="11" t="s">
         <v>2274</v>
       </c>
-      <c r="C99" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009026</v>
+      <c r="C99" s="12" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="11" t="s">
         <v>2274</v>
       </c>
-      <c r="C100" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009078</v>
+      <c r="C100" s="12" t="s">
+        <v>2537</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="11" t="s">
         <v>2274</v>
       </c>
-      <c r="C101" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009080</v>
+      <c r="C101" s="12" t="s">
+        <v>2538</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="11" t="s">
         <v>2274</v>
       </c>
-      <c r="C102" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009059</v>
+      <c r="C102" s="12" t="s">
+        <v>2539</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="11" t="s">
         <v>2274</v>
       </c>
-      <c r="C103" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009079</v>
+      <c r="C103" s="12" t="s">
+        <v>2540</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="11" t="s">
         <v>2297</v>
       </c>
-      <c r="C104" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-listed-private-eqty?cid=46492</v>
+      <c r="C104" s="12" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="11" t="s">
         <v>2314</v>
       </c>
-      <c r="C105" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-v-msci-acwi?cid=46483</v>
+      <c r="C105" s="12" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="11" t="s">
         <v>2301</v>
       </c>
-      <c r="C106" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-msci-china-a-ucits-usd?cid=994116</v>
+      <c r="C106" s="12" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" s="11" t="s">
         <v>2242</v>
       </c>
-      <c r="C107" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-msci-em-consumer-growth</v>
+      <c r="C107" s="12" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="11" t="s">
         <v>2298</v>
       </c>
-      <c r="C108" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-msci-em-minimum-volatility?cid=994135</v>
+      <c r="C108" s="12" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" s="11" t="s">
         <v>2311</v>
       </c>
-      <c r="C109" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-msci-em-smlcap-$?cid=46606</v>
+      <c r="C109" s="12" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" s="11" t="s">
         <v>2324</v>
       </c>
-      <c r="C110" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-msci-emerging-mrkt---acc?cid=46604</v>
+      <c r="C110" s="12" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="11" t="s">
         <v>2336</v>
       </c>
-      <c r="C111" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-msci-emerging-market?cid=46607</v>
+      <c r="C111" s="12" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" s="11" t="s">
         <v>2282</v>
       </c>
-      <c r="C112" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/cs-etf(ie)on-cs-gbl-altrn.engy</v>
+      <c r="C112" s="12" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="11" t="s">
         <v>2363</v>
       </c>
-      <c r="C113" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-msci-global-gold-miners-be</v>
+      <c r="C113" s="12" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="11" t="s">
         <v>2360</v>
       </c>
-      <c r="C114" s="12" t="str">
-        <f>GetURL(B114)</f>
-        <v>https://es.investing.com/etfs/ishares-msci-world-mon.-hedged?cid=46487</v>
+      <c r="C114" s="12" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" s="11" t="s">
         <v>2347</v>
       </c>
-      <c r="C115" s="12" t="str">
-        <f t="shared" ref="C115:C136" si="3">GetURL(B115)</f>
-        <v>https://es.investing.com/etfs/ishares-msci-world-momentum-factor</v>
+      <c r="C115" s="12" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="11" t="s">
         <v>2354</v>
       </c>
-      <c r="C116" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-wrld-quality-factor</v>
+      <c r="C116" s="12" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" s="11" t="s">
         <v>2351</v>
       </c>
-      <c r="C117" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-wrld-size-factor</v>
+      <c r="C117" s="12" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="11" t="s">
         <v>2350</v>
       </c>
-      <c r="C118" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-world---gbp?cid=38614</v>
+      <c r="C118" s="12" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" s="11" t="s">
         <v>2352</v>
       </c>
-      <c r="C119" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-wrld-value-factor</v>
+      <c r="C119" s="12" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" s="11" t="s">
         <v>2299</v>
       </c>
-      <c r="C120" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-comm.-prod.-oil-gas</v>
+      <c r="C120" s="12" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" s="11" t="s">
         <v>2341</v>
       </c>
-      <c r="C121" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-commodity-prod.-gold</v>
+      <c r="C121" s="12" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" s="11" t="s">
         <v>2349</v>
       </c>
-      <c r="C122" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-stoxx-global-sel-div.-100</v>
+      <c r="C122" s="12" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" s="11" t="s">
         <v>2340</v>
       </c>
-      <c r="C123" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-sust-msci-em-sri</v>
+      <c r="C123" s="12" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" s="11" t="s">
         <v>2284</v>
       </c>
-      <c r="C124" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/lyxor-msci-world-consumer-disc.-tr?cid=46122</v>
+      <c r="C124" s="12" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" s="11" t="s">
         <v>2294</v>
       </c>
-      <c r="C125" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/lyxor-msci-world-cons.-st.-tr?cid=45990</v>
+      <c r="C125" s="12" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" s="11" t="s">
         <v>2308</v>
       </c>
-      <c r="C126" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/lyxor-msci-world-info-tech-tr?cid=46225</v>
+      <c r="C126" s="12" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" s="11" t="s">
         <v>2304</v>
       </c>
-      <c r="C127" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/lyxor-china-enterprise-(hscei)?cid=45807</v>
+      <c r="C127" s="12" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" s="11" t="s">
         <v>2263</v>
       </c>
-      <c r="C128" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/lyxor-msci-world-real-estate?cid=46031</v>
+      <c r="C128" s="12" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="11" t="s">
         <v>2329</v>
       </c>
-      <c r="C129" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/lyxor-msci-all-country-world-de</v>
+      <c r="C129" s="12" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="11" t="s">
         <v>2335</v>
       </c>
-      <c r="C130" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/lyxor-msci-emerging-markets?cid=46020</v>
+      <c r="C130" s="12" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="11" t="s">
         <v>2328</v>
       </c>
-      <c r="C131" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/lyxor-msci-world?cid=46273</v>
+      <c r="C131" s="12" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="11" t="s">
         <v>2244</v>
       </c>
-      <c r="C132" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/lyxor-msci-world-energy-tr?cid=996756</v>
+      <c r="C132" s="12" t="s">
+        <v>2541</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="11" t="s">
         <v>2244</v>
       </c>
-      <c r="C133" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/lyxor-msci-world-energy-tr?cid=46033</v>
+      <c r="C133" s="12" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="11" t="s">
         <v>2286</v>
       </c>
-      <c r="C134" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/lyxor-msci-world-financials-tr?cid=46006</v>
+      <c r="C134" s="12" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="11" t="s">
         <v>2292</v>
       </c>
-      <c r="C135" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/lyxor-msci-world-health-care-tr?cid=46008</v>
+      <c r="C135" s="12" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="11" t="s">
         <v>2285</v>
       </c>
-      <c r="C136" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/lyxor-msci-world-industrials-tr?cid=46010</v>
+      <c r="C136" s="12" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="11" t="s">
         <v>2289</v>
       </c>
-      <c r="C137" s="12" t="str">
-        <f>GetURL(B137)</f>
-        <v>https://es.investing.com/etfs/lyxor-msci-world-materials-tr?cid=46025</v>
+      <c r="C137" s="12" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" s="11" t="s">
         <v>2264</v>
       </c>
-      <c r="C138" s="12" t="str">
-        <f t="shared" ref="C138:C174" si="4">GetURL(B138)</f>
-        <v>https://es.investing.com/etfs/lyxor-msci-world-telecom-ser.-tr?cid=46041</v>
+      <c r="C138" s="12" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="11" t="s">
         <v>2235</v>
       </c>
-      <c r="C139" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/lyxor-msci-world-utilities-tr?cid=46272</v>
+      <c r="C139" s="12" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="11" t="s">
         <v>2322</v>
       </c>
-      <c r="C140" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/lyxor-new-energy?cid=46168</v>
+      <c r="C140" s="12" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="11" t="s">
         <v>2269</v>
       </c>
-      <c r="C141" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/lyxor-privex?cid=46192</v>
+      <c r="C141" s="12" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="11" t="s">
         <v>2334</v>
       </c>
-      <c r="C142" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/lyxor-world-water?cid=46017</v>
+      <c r="C142" s="12" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="11" t="s">
         <v>2261</v>
       </c>
-      <c r="C143" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/rbs-market-access-dax-global-birc</v>
+      <c r="C143" s="12" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" s="11" t="s">
         <v>2266</v>
       </c>
-      <c r="C144" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ossiam-em-min-variance-nr-(eur)-de</v>
+      <c r="C144" s="12" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" s="11" t="s">
         <v>2267</v>
       </c>
-      <c r="C145" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-dynamic-europe-fund?cid=45898</v>
+      <c r="C145" s="12" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" s="11" t="s">
         <v>2342</v>
       </c>
-      <c r="C146" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/robo-stox-global-robotics</v>
+      <c r="C146" s="12" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" s="11" t="s">
         <v>2342</v>
       </c>
-      <c r="C147" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/robo-stox-global-robotics?cid=1052316</v>
+      <c r="C147" s="12" t="s">
+        <v>2542</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" s="11" t="s">
         <v>2260</v>
       </c>
-      <c r="C148" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/msci-emerging-mrktssource-de</v>
+      <c r="C148" s="12" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" s="11" t="s">
         <v>2315</v>
       </c>
-      <c r="C149" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/msci-world-source?cid=46070</v>
+      <c r="C149" s="12" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" s="11" t="s">
         <v>2019</v>
       </c>
-      <c r="C150" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-msci-acwi-imi-de</v>
+      <c r="C150" s="12" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" s="11" t="s">
         <v>2326</v>
       </c>
-      <c r="C151" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-msci-world-small-cap?cid=1024392</v>
+      <c r="C151" s="12" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" s="11" t="s">
         <v>2281</v>
       </c>
-      <c r="C152" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-s-p-global-dividend-aristocrat?cid=1024489</v>
+      <c r="C152" s="12" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" s="11" t="s">
         <v>2332</v>
       </c>
-      <c r="C153" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-msci-acwi?cid=46046</v>
+      <c r="C153" s="12" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" s="11" t="s">
         <v>2239</v>
       </c>
-      <c r="C154" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-msci-em-smlcap?cid=45851</v>
+      <c r="C154" s="12" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" s="11" t="s">
         <v>2238</v>
       </c>
-      <c r="C155" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-msci-emerging-markets?cid=45850</v>
+      <c r="C155" s="12" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" s="11" t="s">
         <v>2245</v>
       </c>
-      <c r="C156" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-s-p-emerging-mrktsdividend-uk?cid=45833</v>
+      <c r="C156" s="12" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" s="11" t="s">
         <v>2312</v>
       </c>
-      <c r="C157" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-(irl)-dj-global-select-dividend?cid=949270</v>
+      <c r="C157" s="12" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" s="11" t="s">
         <v>2293</v>
       </c>
-      <c r="C158" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-plc-msci-world-(usd)-a-de</v>
+      <c r="C158" s="12" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="11" t="s">
         <v>2333</v>
       </c>
-      <c r="C159" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-msci-world-socially-resp.-a-de</v>
+      <c r="C159" s="12" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" s="11" t="s">
         <v>2272</v>
       </c>
-      <c r="C160" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-etf-msci-world-a</v>
+      <c r="C160" s="12" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" s="11" t="s">
         <v>2272</v>
       </c>
-      <c r="C161" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024716</v>
+      <c r="C161" s="12" t="s">
+        <v>2543</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" s="11" t="s">
         <v>2272</v>
       </c>
-      <c r="C162" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024717</v>
+      <c r="C162" s="12" t="s">
+        <v>2544</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163" s="11" t="s">
         <v>2272</v>
       </c>
-      <c r="C163" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024715</v>
+      <c r="C163" s="12" t="s">
+        <v>2545</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" s="11" t="s">
         <v>2272</v>
       </c>
-      <c r="C164" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024711</v>
+      <c r="C164" s="12" t="s">
+        <v>2546</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" s="11" t="s">
         <v>2272</v>
       </c>
-      <c r="C165" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024712</v>
+      <c r="C165" s="12" t="s">
+        <v>2547</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" s="11" t="s">
         <v>2272</v>
       </c>
-      <c r="C166" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024714</v>
+      <c r="C166" s="12" t="s">
+        <v>2548</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" s="11" t="s">
         <v>2272</v>
       </c>
-      <c r="C167" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024713</v>
+      <c r="C167" s="12" t="s">
+        <v>2549</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" s="11" t="s">
         <v>2237</v>
       </c>
-      <c r="C168" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-irl-plc-solactive-glbl-oil-adis?cid=1024391</v>
+      <c r="C168" s="12" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169" s="11" t="s">
         <v>2236</v>
       </c>
-      <c r="C169" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-irl-plc-sol-glbl-gold-min-adis?cid=1024390</v>
+      <c r="C169" s="12" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170" s="11" t="s">
         <v>2356</v>
       </c>
-      <c r="C170" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-msci-em-socially-resp-adis</v>
+      <c r="C170" s="12" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" s="11" t="s">
         <v>2316</v>
       </c>
-      <c r="C171" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/ubs-etf-msci-emerging-markets-a</v>
+      <c r="C171" s="12" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172" s="11" t="s">
         <v>2241</v>
       </c>
-      <c r="C172" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/wisdomtree-em-equity-income-de</v>
+      <c r="C172" s="12" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" s="11" t="s">
         <v>2240</v>
       </c>
-      <c r="C173" s="12" t="str">
-        <f>GetURL(B173)</f>
-        <v>https://es.investing.com/etfs/wisdomtree-em-smallcap-de</v>
+      <c r="C173" s="12" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174" s="11" t="s">
         <v>2362</v>
       </c>
-      <c r="C174" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/wisdomtree-em-equity-incacc</v>
+      <c r="C174" s="12" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
@@ -47018,3465 +47059,3080 @@
       <c r="B3" s="11" t="s">
         <v>2506</v>
       </c>
-      <c r="C3" s="12" t="str">
-        <f>GetURL(B3)</f>
-        <v>https://es.investing.com/etfs/aam-sp-em-sector-high-dividend</v>
+      <c r="C3" s="12" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>2418</v>
       </c>
-      <c r="C4" s="12" t="str">
-        <f t="shared" ref="C4:C67" si="0">GetURL(B4)</f>
-        <v>https://es.investing.com/etfs/advisorshrs-new-tech-media</v>
+      <c r="C4" s="12" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>2467</v>
       </c>
-      <c r="C5" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/affinity-world-leaders-equity</v>
+      <c r="C5" s="12" t="s">
+        <v>2550</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>2136</v>
       </c>
-      <c r="C6" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/alpha-architect-value-mom-trend</v>
+      <c r="C6" s="12" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>2476</v>
       </c>
-      <c r="C7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/alphaclone-international</v>
+      <c r="C7" s="12" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>2426</v>
       </c>
-      <c r="C8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dtec-alps-disruptive-tech</v>
+      <c r="C8" s="12" t="s">
+        <v>2551</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>2088</v>
       </c>
-      <c r="C9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/alps-emerging-sector-dividend-dogs</v>
+      <c r="C9" s="12" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>2391</v>
       </c>
-      <c r="C10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/amplify-online-retail</v>
+      <c r="C10" s="12" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>2405</v>
       </c>
-      <c r="C11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/amplify-transform-data-sharing</v>
+      <c r="C11" s="12" t="s">
+        <v>2552</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>2445</v>
       </c>
-      <c r="C12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/anfield-capital-divers-alter</v>
+      <c r="C12" s="12" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>2505</v>
       </c>
-      <c r="C13" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/arrow-dogs-of-the-world</v>
+      <c r="C13" s="12" t="s">
+        <v>2553</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>2483</v>
       </c>
-      <c r="C14" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/dwcr-arrow-dwa-country-rotation</v>
+      <c r="C14" s="12" t="s">
+        <v>2554</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>1997</v>
       </c>
-      <c r="C15" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/barclays-bank-fi-enhanced-global</v>
+      <c r="C15" s="12" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>1996</v>
       </c>
-      <c r="C16" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/barclays-bank-ipath-sp-mlp</v>
+      <c r="C16" s="12" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>2168</v>
       </c>
-      <c r="C17" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/barclays-etn-plus-select-mlp</v>
+      <c r="C17" s="12" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>2003</v>
       </c>
-      <c r="C18" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/barclays-women-in-leadership</v>
+      <c r="C18" s="12" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>2502</v>
       </c>
-      <c r="C19" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/bernstein-global-research-fund</v>
+      <c r="C19" s="12" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>2406</v>
       </c>
-      <c r="C20" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/pshares-bldrs-dm-100-adr</v>
+      <c r="C20" s="12" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>2412</v>
       </c>
-      <c r="C21" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/powershares-bldrs-em-50-adr</v>
+      <c r="C21" s="12" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>2454</v>
       </c>
-      <c r="C22" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/cambria-emerg-shareholder-yield</v>
+      <c r="C22" s="12" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>2051</v>
       </c>
-      <c r="C23" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/beyond-bircs</v>
+      <c r="C23" s="12" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>2166</v>
       </c>
-      <c r="C24" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/egshares-emerging-markets-consumer</v>
+      <c r="C24" s="12" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>2056</v>
       </c>
-      <c r="C25" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/egshares-em-core-ex-china</v>
+      <c r="C25" s="12" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>2016</v>
       </c>
-      <c r="C26" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/egshares-low-volatility-em-div.</v>
+      <c r="C26" s="12" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
         <v>2033</v>
       </c>
-      <c r="C27" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/columbia-sust-glbl-equity-inc</v>
+      <c r="C27" s="12" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
         <v>2066</v>
       </c>
-      <c r="C28" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/columbia-sust-int-eqty-income</v>
+      <c r="C28" s="12" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
         <v>1994</v>
       </c>
-      <c r="C29" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/credit-suisse-x-links-multi-asset</v>
+      <c r="C29" s="12" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>1993</v>
       </c>
-      <c r="C30" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/csop-china-csi-300-a-h-dynamic</v>
+      <c r="C30" s="12" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>2129</v>
       </c>
-      <c r="C31" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/csop-ftse-china-a50-us</v>
+      <c r="C31" s="12" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>2005</v>
       </c>
-      <c r="C32" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/csop-msci-china-a-intl-hedged</v>
+      <c r="C32" s="12" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>2039</v>
       </c>
-      <c r="C33" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/cwa-income</v>
+      <c r="C33" s="12" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
         <v>2409</v>
       </c>
-      <c r="C34" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/davis-select-international</v>
+      <c r="C34" s="12" t="s">
+        <v>2555</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
         <v>2415</v>
       </c>
-      <c r="C35" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/davis-select-worldwide</v>
+      <c r="C35" s="12" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
         <v>2040</v>
       </c>
-      <c r="C36" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/deutsche-x-trackers-ftse-developed</v>
+      <c r="C36" s="12" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
         <v>2006</v>
       </c>
-      <c r="C37" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/deutsche-x-trackers-msci-eafe-sc</v>
+      <c r="C37" s="12" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
         <v>1992</v>
       </c>
-      <c r="C38" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/deutsche-xtrackers-csi-300-china-a</v>
+      <c r="C38" s="12" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
         <v>2049</v>
       </c>
-      <c r="C39" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/de-xtrack-ftse-emerging-comp-k</v>
+      <c r="C39" s="12" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
         <v>2209</v>
       </c>
-      <c r="C40" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-trackers-harvest-china</v>
+      <c r="C40" s="12" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
         <v>2107</v>
       </c>
-      <c r="C41" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/deutsche-x-trackers-harvest-csi-500</v>
+      <c r="C41" s="12" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
         <v>2226</v>
       </c>
-      <c r="C42" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/deutsche-x-track-hgh-yld-corp</v>
+      <c r="C42" s="12" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
         <v>2087</v>
       </c>
-      <c r="C43" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/deutsche-xtrackers-msci-all-china</v>
+      <c r="C43" s="12" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
         <v>2147</v>
       </c>
-      <c r="C44" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/xtrackers-msci-all-world</v>
+      <c r="C44" s="12" t="s">
+        <v>1982</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
         <v>2054</v>
       </c>
-      <c r="C45" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/xtrackers-msci-all-world-high-div</v>
+      <c r="C45" s="12" t="s">
+        <v>1983</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
         <v>2214</v>
       </c>
-      <c r="C46" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-msci-eafe-currency-hedged-eq</v>
+      <c r="C46" s="12" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
         <v>2117</v>
       </c>
-      <c r="C47" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/deutsche-xtrackers-msci-eafe-high</v>
+      <c r="C47" s="12" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
         <v>2015</v>
       </c>
-      <c r="C48" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/db-x-msci-em-currency-hedged-eq</v>
+      <c r="C48" s="12" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
         <v>2092</v>
       </c>
-      <c r="C49" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/direxion-daily-csi-300-china</v>
+      <c r="C49" s="12" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
         <v>2165</v>
       </c>
-      <c r="C50" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/direxion-daily-csi-300-china-a-shar</v>
+      <c r="C50" s="12" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
         <v>2452</v>
       </c>
-      <c r="C51" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/direxiondrobartfclintlautobull3shrs</v>
+      <c r="C51" s="12" t="s">
+        <v>2556</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
         <v>2497</v>
       </c>
-      <c r="C52" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/eaton-vance-stock-nextshares</v>
+      <c r="C52" s="12" t="s">
+        <v>2557</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
         <v>2190</v>
       </c>
-      <c r="C53" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/emqq-em-internet-and-ecommerce</v>
+      <c r="C53" s="12" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
         <v>2500</v>
       </c>
-      <c r="C54" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/etfis-virtus-wmc-global-factor-opp</v>
+      <c r="C54" s="12" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
         <v>2495</v>
       </c>
-      <c r="C55" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/evolve-marijuana?cid=1075596</v>
+      <c r="C55" s="12" t="s">
+        <v>2558</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
         <v>2437</v>
       </c>
-      <c r="C56" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/fidelity-international-high-div</v>
+      <c r="C56" s="12" t="s">
+        <v>2559</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
         <v>2457</v>
       </c>
-      <c r="C57" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/fidelity-international-value-factor</v>
+      <c r="C57" s="12" t="s">
+        <v>2560</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
         <v>2482</v>
       </c>
-      <c r="C58" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/fieldstone-merlin-dyn-large-cap</v>
+      <c r="C58" s="12" t="s">
+        <v>2561</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="11" t="s">
         <v>2488</v>
       </c>
-      <c r="C59" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/fieldstone-uva-unconst-medterm</v>
+      <c r="C59" s="12" t="s">
+        <v>2562</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="11" t="s">
         <v>2456</v>
       </c>
-      <c r="C60" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/first-trust-alter-abso-rtrn-strtg</v>
+      <c r="C60" s="12" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" s="11" t="s">
         <v>2459</v>
       </c>
-      <c r="C61" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/first-trust-bick</v>
+      <c r="C61" s="12" t="s">
+        <v>877</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" s="11" t="s">
         <v>2374</v>
       </c>
-      <c r="C62" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/firsttrust-china-alphadex-fund</v>
+      <c r="C62" s="12" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" s="11" t="s">
         <v>2448</v>
       </c>
-      <c r="C63" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/first-trust-developed-intl</v>
+      <c r="C63" s="12" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" s="11" t="s">
         <v>2392</v>
       </c>
-      <c r="C64" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/firsttrust-dm-x-us-alphadex-fund</v>
+      <c r="C64" s="12" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="11" t="s">
         <v>2491</v>
       </c>
-      <c r="C65" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/firsttrust-dm-x-us-smlcap-alphadex</v>
+      <c r="C65" s="12" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="11" t="s">
         <v>2386</v>
       </c>
-      <c r="C66" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/first-trust-dorsey-wright-internati</v>
+      <c r="C66" s="12" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
         <v>2126</v>
       </c>
-      <c r="C67" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>https://es.investing.com/etfs/firsttrust-dj-global-select-div.</v>
+      <c r="C67" s="12" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="11" t="s">
         <v>2390</v>
       </c>
-      <c r="C68" s="12" t="str">
-        <f t="shared" ref="C68:C131" si="1">GetURL(B68)</f>
-        <v>https://es.investing.com/etfs/firsttrust-emerging-mrkt-alphadex</v>
+      <c r="C68" s="12" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="11" t="s">
         <v>2463</v>
       </c>
-      <c r="C69" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/first-trust-emerging-markets</v>
+      <c r="C69" s="12" t="s">
+        <v>884</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="11" t="s">
         <v>2400</v>
       </c>
-      <c r="C70" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/firsttrust-em-small-cap-alphadex</v>
+      <c r="C70" s="12" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="11" t="s">
         <v>2504</v>
       </c>
-      <c r="C71" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ise-global-platinum</v>
+      <c r="C71" s="12" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="11" t="s">
         <v>2503</v>
       </c>
-      <c r="C72" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ise-global-copper</v>
+      <c r="C72" s="12" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="11" t="s">
         <v>2481</v>
       </c>
-      <c r="C73" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/first-trust-heitman-glbl-prime-re</v>
+      <c r="C73" s="12" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="11" t="s">
         <v>2061</v>
       </c>
-      <c r="C74" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/first-trust-horizon-mng-vol-dm</v>
+      <c r="C74" s="12" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="11" t="s">
         <v>2416</v>
       </c>
-      <c r="C75" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/first-trust-indx-innvtv-trnsctnprc</v>
+      <c r="C75" s="12" t="s">
+        <v>2563</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="11" t="s">
         <v>2402</v>
       </c>
-      <c r="C76" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/first-trust-inst-pref-secs-and-inc</v>
+      <c r="C76" s="12" t="s">
+        <v>2564</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="11" t="s">
         <v>2480</v>
       </c>
-      <c r="C77" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/first-trust-international-ipo</v>
+      <c r="C77" s="12" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="11" t="s">
         <v>2110</v>
       </c>
-      <c r="C78" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/firsttrust-ise-chindia</v>
+      <c r="C78" s="12" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="11" t="s">
         <v>2383</v>
       </c>
-      <c r="C79" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/ise-cloud-computing</v>
+      <c r="C79" s="12" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="11" t="s">
         <v>2024</v>
       </c>
-      <c r="C80" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/firsttrust-ise-glb-engnrg---const</v>
+      <c r="C80" s="12" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="11" t="s">
         <v>2155</v>
       </c>
-      <c r="C81" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/firsttrust-ise-global-wind-energy</v>
+      <c r="C81" s="12" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="11" t="s">
         <v>2106</v>
       </c>
-      <c r="C82" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/firsttrust-ise-water</v>
+      <c r="C82" s="12" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="11" t="s">
         <v>2427</v>
       </c>
-      <c r="C83" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/firsttrustnasdaqartfclintlrobotics</v>
+      <c r="C83" s="12" t="s">
+        <v>2565</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
         <v>2462</v>
       </c>
-      <c r="C84" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/firsttrust-nasdaq-global-auto</v>
+      <c r="C84" s="12" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="11" t="s">
         <v>2395</v>
       </c>
-      <c r="C85" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/firsttrust-nq-technology-dividend</v>
+      <c r="C85" s="12" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="11" t="s">
         <v>2420</v>
       </c>
-      <c r="C86" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/first-trust-riverfront-dynamic-dm</v>
+      <c r="C86" s="12" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="11" t="s">
         <v>2407</v>
       </c>
-      <c r="C87" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/first-trust-riverfront-dynamic-em</v>
+      <c r="C87" s="12" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="11" t="s">
         <v>2384</v>
       </c>
-      <c r="C88" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/first-trust-ssi-strtgconvert-sec</v>
+      <c r="C88" s="12" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="11" t="s">
         <v>2058</v>
       </c>
-      <c r="C89" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/flexshares-core-select</v>
+      <c r="C89" s="12" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="11" t="s">
         <v>2037</v>
       </c>
-      <c r="C90" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/flexshares-currhdgd-morng-dm-exus</v>
+      <c r="C90" s="12" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="11" t="s">
         <v>2038</v>
       </c>
-      <c r="C91" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/flexshares-currhdgd-morningstar-em</v>
+      <c r="C91" s="12" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="11" t="s">
         <v>2157</v>
       </c>
-      <c r="C92" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/morningstar-dm-x-us-factor-tilt</v>
+      <c r="C92" s="12" t="s">
+        <v>1456</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="11" t="s">
         <v>2114</v>
       </c>
-      <c r="C93" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/morningstar-em-factor-tilt</v>
+      <c r="C93" s="12" t="s">
+        <v>1457</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="11" t="s">
         <v>2191</v>
       </c>
-      <c r="C94" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/morningstar-g.-upstream-nat.-res.</v>
+      <c r="C94" s="12" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="11" t="s">
         <v>2451</v>
       </c>
-      <c r="C95" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/flexshares-real-assets-allocation</v>
+      <c r="C95" s="12" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="11" t="s">
         <v>2471</v>
       </c>
-      <c r="C96" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/flexshares-stoxx-global-esg-impact</v>
+      <c r="C96" s="12" t="s">
+        <v>990</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="11" t="s">
         <v>2372</v>
       </c>
-      <c r="C97" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/franklin-ftse-china</v>
+      <c r="C97" s="12" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="11" t="s">
         <v>2036</v>
       </c>
-      <c r="C98" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/franklin-liberty-interopp</v>
+      <c r="C98" s="12" t="s">
+        <v>1008</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="11" t="s">
         <v>2198</v>
       </c>
-      <c r="C99" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/franklin-liberty-invest-grade-corp</v>
+      <c r="C99" s="12" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="11" t="s">
         <v>2095</v>
       </c>
-      <c r="C100" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/franklin-libertyq-emerging-markets</v>
+      <c r="C100" s="12" t="s">
+        <v>1011</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="11" t="s">
         <v>2045</v>
       </c>
-      <c r="C101" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/franklin-libertyq-global-dividend</v>
+      <c r="C101" s="12" t="s">
+        <v>1012</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="11" t="s">
         <v>2042</v>
       </c>
-      <c r="C102" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/franklin-libertyq-global-equity</v>
+      <c r="C102" s="12" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="11" t="s">
         <v>2041</v>
       </c>
-      <c r="C103" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/franklin-libertyq-int-equity-hdg</v>
+      <c r="C103" s="12" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="11" t="s">
         <v>2064</v>
       </c>
-      <c r="C104" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/gavekal-knowledge-leaders-developed</v>
+      <c r="C104" s="12" t="s">
+        <v>1017</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="11" t="s">
         <v>2381</v>
       </c>
-      <c r="C105" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-robotics-and-automation</v>
+      <c r="C105" s="12" t="s">
+        <v>2566</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="11" t="s">
         <v>2443</v>
       </c>
-      <c r="C106" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-auto-electric-vehicles</v>
+      <c r="C106" s="12" t="s">
+        <v>2567</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" s="11" t="s">
         <v>2176</v>
       </c>
-      <c r="C107" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-china-consumer</v>
+      <c r="C107" s="12" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="11" t="s">
         <v>2027</v>
       </c>
-      <c r="C108" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-china-energy</v>
+      <c r="C108" s="12" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" s="11" t="s">
         <v>2130</v>
       </c>
-      <c r="C109" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-china-financials</v>
+      <c r="C109" s="12" t="s">
+        <v>1020</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" s="11" t="s">
         <v>2012</v>
       </c>
-      <c r="C110" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-china-industrials</v>
+      <c r="C110" s="12" t="s">
+        <v>1021</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="11" t="s">
         <v>2026</v>
       </c>
-      <c r="C111" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-china-materials</v>
+      <c r="C111" s="12" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" s="11" t="s">
         <v>2163</v>
       </c>
-      <c r="C112" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-copper-miners</v>
+      <c r="C112" s="12" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="11" t="s">
         <v>2096</v>
       </c>
-      <c r="C113" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-fertilizers-potash</v>
+      <c r="C113" s="12" t="s">
+        <v>1025</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="11" t="s">
         <v>2387</v>
       </c>
-      <c r="C114" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-fintech-thematic</v>
+      <c r="C114" s="12" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" s="11" t="s">
         <v>2086</v>
       </c>
-      <c r="C115" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-gold-explorers</v>
+      <c r="C115" s="12" t="s">
+        <v>1033</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="11" t="s">
         <v>2138</v>
       </c>
-      <c r="C116" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-top-guru-holdings</v>
+      <c r="C116" s="12" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" s="11" t="s">
         <v>2414</v>
       </c>
-      <c r="C117" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-internet-things-them-usd</v>
+      <c r="C117" s="12" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="11" t="s">
         <v>1995</v>
       </c>
-      <c r="C118" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-jpmorgan-efficiente</v>
+      <c r="C118" s="12" t="s">
+        <v>1037</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" s="11" t="s">
         <v>2206</v>
       </c>
-      <c r="C119" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-lithium</v>
+      <c r="C119" s="12" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" s="11" t="s">
         <v>2215</v>
       </c>
-      <c r="C120" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-mlp</v>
+      <c r="C120" s="12" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" s="11" t="s">
         <v>2453</v>
       </c>
-      <c r="C121" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-msci-superdividend-eafe</v>
+      <c r="C121" s="12" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" s="11" t="s">
         <v>2373</v>
       </c>
-      <c r="C122" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-nasdaq-china-technology</v>
+      <c r="C122" s="12" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" s="11" t="s">
         <v>2025</v>
       </c>
-      <c r="C123" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-next-emer---frontier</v>
+      <c r="C123" s="12" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" s="11" t="s">
         <v>2380</v>
       </c>
-      <c r="C124" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-robotics---ai-usd</v>
+      <c r="C124" s="12" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" s="11" t="s">
         <v>2187</v>
       </c>
-      <c r="C125" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/silver-miners</v>
+      <c r="C125" s="12" t="s">
+        <v>1709</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" s="11" t="s">
         <v>2397</v>
       </c>
-      <c r="C126" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-social-media-index</v>
+      <c r="C126" s="12" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" s="11" t="s">
         <v>2202</v>
       </c>
-      <c r="C127" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-superdividend</v>
+      <c r="C127" s="12" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" s="11" t="s">
         <v>2429</v>
       </c>
-      <c r="C128" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-superdividend-alternatives</v>
+      <c r="C128" s="12" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="11" t="s">
         <v>2100</v>
       </c>
-      <c r="C129" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-superdividend-emerging-mar</v>
+      <c r="C129" s="12" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="11" t="s">
         <v>2199</v>
       </c>
-      <c r="C130" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-uranium</v>
+      <c r="C130" s="12" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="11" t="s">
         <v>2419</v>
       </c>
-      <c r="C131" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>https://es.investing.com/etfs/global-x-yieldco</v>
+      <c r="C131" s="12" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="11" t="s">
         <v>2192</v>
       </c>
-      <c r="C132" s="12" t="str">
-        <f t="shared" ref="C132:C195" si="2">GetURL(B132)</f>
-        <v>https://es.investing.com/etfs/goldman-sachs-activebeta-em</v>
+      <c r="C132" s="12" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="11" t="s">
         <v>2184</v>
       </c>
-      <c r="C133" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/goldman-sachs-activebeta-inteqt</v>
+      <c r="C133" s="12" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="11" t="s">
         <v>2436</v>
       </c>
-      <c r="C134" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/graniteshares-gold-trust</v>
+      <c r="C134" s="12" t="s">
+        <v>2568</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="11" t="s">
         <v>2076</v>
       </c>
-      <c r="C135" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/guggenheim-birc</v>
+      <c r="C135" s="12" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="11" t="s">
         <v>2011</v>
       </c>
-      <c r="C136" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/guggenheim-china-all-cap</v>
+      <c r="C136" s="12" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="11" t="s">
         <v>2098</v>
       </c>
-      <c r="C137" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/guggenheim-china-smlcap</v>
+      <c r="C137" s="12" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" s="11" t="s">
         <v>2173</v>
       </c>
-      <c r="C138" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/guggenheim-china-technology</v>
+      <c r="C138" s="12" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="11" t="s">
         <v>2022</v>
       </c>
-      <c r="C139" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/guggenheim-intl-mul.-asset-income</v>
+      <c r="C139" s="12" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="11" t="s">
         <v>2072</v>
       </c>
-      <c r="C140" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/guggenheim-s-p-global-div.-opp.</v>
+      <c r="C140" s="12" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="11" t="s">
         <v>2133</v>
       </c>
-      <c r="C141" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/guggenheim-s-p-global-water</v>
+      <c r="C141" s="12" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="11" t="s">
         <v>2179</v>
       </c>
-      <c r="C142" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/guggenheim-global-shipping</v>
+      <c r="C142" s="12" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="11" t="s">
         <v>2013</v>
       </c>
-      <c r="C143" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/rydex-msci-em-eq-weight</v>
+      <c r="C143" s="12" t="s">
+        <v>1663</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" s="11" t="s">
         <v>2140</v>
       </c>
-      <c r="C144" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/guggenheim-global-timber</v>
+      <c r="C144" s="12" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" s="11" t="s">
         <v>2218</v>
       </c>
-      <c r="C145" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/claymore-mac-global-solar-energy-in</v>
+      <c r="C145" s="12" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" s="11" t="s">
         <v>2063</v>
       </c>
-      <c r="C146" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/guggenheim-sp-high-income-infrastr</v>
+      <c r="C146" s="12" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" s="11" t="s">
         <v>2164</v>
       </c>
-      <c r="C147" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/lattice-developed-markets-ex-us-str</v>
+      <c r="C147" s="12" t="s">
+        <v>1408</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" s="11" t="s">
         <v>2067</v>
       </c>
-      <c r="C148" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/lattice-emerging-markets-strategy</v>
+      <c r="C148" s="12" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" s="11" t="s">
         <v>2008</v>
       </c>
-      <c r="C149" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/lattice-global-small-cap-strategy</v>
+      <c r="C149" s="12" t="s">
+        <v>1410</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" s="11" t="s">
         <v>2047</v>
       </c>
-      <c r="C150" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/hartford-multi-lowvol-intern-equity</v>
+      <c r="C150" s="12" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" s="11" t="s">
         <v>2447</v>
       </c>
-      <c r="C151" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/innovation-shares-nextgen-protocol</v>
+      <c r="C151" s="12" t="s">
+        <v>2569</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" s="11" t="s">
         <v>2434</v>
       </c>
-      <c r="C152" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/innovation-shares-nextgen-vhclstch</v>
+      <c r="C152" s="12" t="s">
+        <v>2570</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" s="11" t="s">
         <v>2200</v>
       </c>
-      <c r="C153" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/innovator-ibd-50</v>
+      <c r="C153" s="12" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" s="11" t="s">
         <v>2075</v>
       </c>
-      <c r="C154" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/inspire-global-hope</v>
+      <c r="C154" s="12" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" s="11" t="s">
         <v>2001</v>
       </c>
-      <c r="C155" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/iq-50-percent-hedged-ftse-intl</v>
+      <c r="C155" s="12" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" s="11" t="s">
         <v>2021</v>
       </c>
-      <c r="C156" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/iq-global-agribusiness-small-cap</v>
+      <c r="C156" s="12" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" s="11" t="s">
         <v>2210</v>
       </c>
-      <c r="C157" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/iq-arb-global-resources-etf</v>
+      <c r="C157" s="12" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" s="11" t="s">
         <v>2156</v>
       </c>
-      <c r="C158" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/iq-arb-merger-arbitrage</v>
+      <c r="C158" s="12" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="11" t="s">
         <v>2050</v>
       </c>
-      <c r="C159" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-adapt-cur-hdg-msci-eafe</v>
+      <c r="C159" s="12" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" s="11" t="s">
         <v>2231</v>
       </c>
-      <c r="C160" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-ftse-xinhua-china-25</v>
+      <c r="C160" s="12" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" s="11" t="s">
         <v>2225</v>
       </c>
-      <c r="C161" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-core-msci-eafe</v>
+      <c r="C161" s="12" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" s="11" t="s">
         <v>2228</v>
       </c>
-      <c r="C162" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-core-msci-emerging-markets</v>
+      <c r="C162" s="12" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163" s="11" t="s">
         <v>2060</v>
       </c>
-      <c r="C163" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-core-msci-intern-dev-market</v>
+      <c r="C163" s="12" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" s="11" t="s">
         <v>2379</v>
       </c>
-      <c r="C164" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-core-msci-total-intl-stock</v>
+      <c r="C164" s="12" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" s="11" t="s">
         <v>2007</v>
       </c>
-      <c r="C165" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-currency-hedged-msci-acwi</v>
+      <c r="C165" s="12" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" s="11" t="s">
         <v>2082</v>
       </c>
-      <c r="C166" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-currency-hdg-msci-acwi</v>
+      <c r="C166" s="12" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" s="11" t="s">
         <v>2204</v>
       </c>
-      <c r="C167" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-currency-hedged-msci-eafe</v>
+      <c r="C167" s="12" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" s="11" t="s">
         <v>2002</v>
       </c>
-      <c r="C168" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-currency-hdg-msci-eafe</v>
+      <c r="C168" s="12" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169" s="11" t="s">
         <v>2171</v>
       </c>
-      <c r="C169" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-currency-hdg-msci-em</v>
+      <c r="C169" s="12" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170" s="11" t="s">
         <v>2048</v>
       </c>
-      <c r="C170" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-edge-msci-international-siz</v>
+      <c r="C170" s="12" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" s="11" t="s">
         <v>2174</v>
       </c>
-      <c r="C171" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-msci-international-develope</v>
+      <c r="C171" s="12" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172" s="11" t="s">
         <v>2111</v>
       </c>
-      <c r="C172" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-msci-intl-dev-quality</v>
+      <c r="C172" s="12" t="s">
+        <v>1273</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" s="11" t="s">
         <v>2083</v>
       </c>
-      <c r="C173" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-factorselect-msci-intl</v>
+      <c r="C173" s="12" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174" s="11" t="s">
         <v>2181</v>
       </c>
-      <c r="C174" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-msci-intl-dev-value</v>
+      <c r="C174" s="12" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175" s="11" t="s">
         <v>2196</v>
       </c>
-      <c r="C175" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-msci-eafe-min-volatility</v>
+      <c r="C175" s="12" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B176" s="11" t="s">
         <v>2031</v>
       </c>
-      <c r="C176" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-edge-msci-min-vol-eafe-cur</v>
+      <c r="C176" s="12" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177" s="11" t="s">
         <v>2183</v>
       </c>
-      <c r="C177" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-msci-em-min-volatility</v>
+      <c r="C177" s="12" t="s">
+        <v>1257</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" s="11" t="s">
         <v>2046</v>
       </c>
-      <c r="C178" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-edge-msci-min-vol-em-cur-hd</v>
+      <c r="C178" s="12" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" s="11" t="s">
         <v>2159</v>
       </c>
-      <c r="C179" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-msci-all-country-min.-vol.</v>
+      <c r="C179" s="12" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" s="11" t="s">
         <v>2149</v>
       </c>
-      <c r="C180" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-edge-msci-multifactor-emerg</v>
+      <c r="C180" s="12" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="11" t="s">
         <v>2139</v>
       </c>
-      <c r="C181" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-factorselect-msci-global</v>
+      <c r="C181" s="12" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" s="11" t="s">
         <v>2162</v>
       </c>
-      <c r="C182" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-factorselect-msci-int</v>
+      <c r="C182" s="12" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" s="11" t="s">
         <v>2470</v>
       </c>
-      <c r="C183" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/s-p-emerging-mrkt-infrastructure</v>
+      <c r="C183" s="12" t="s">
+        <v>1686</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" s="11" t="s">
         <v>2146</v>
       </c>
-      <c r="C184" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-emerging-markets-dividend</v>
+      <c r="C184" s="12" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" s="11" t="s">
         <v>2364</v>
       </c>
-      <c r="C185" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-exponential-tech-mu?cid=1043100</v>
+      <c r="C185" s="12" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186" s="11" t="s">
         <v>2125</v>
       </c>
-      <c r="C186" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-s-p---global-100</v>
+      <c r="C186" s="12" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" s="11" t="s">
         <v>2394</v>
       </c>
-      <c r="C187" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-global-clean-energy</v>
+      <c r="C187" s="12" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" s="11" t="s">
         <v>2089</v>
       </c>
-      <c r="C188" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-global-cons.discr.</v>
+      <c r="C188" s="12" t="s">
+        <v>1340</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" s="11" t="s">
         <v>2124</v>
       </c>
-      <c r="C189" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-global-con.-stap.</v>
+      <c r="C189" s="12" t="s">
+        <v>1339</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" s="11" t="s">
         <v>2194</v>
       </c>
-      <c r="C190" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-global-energy</v>
+      <c r="C190" s="12" t="s">
+        <v>1341</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" s="11" t="s">
         <v>2151</v>
       </c>
-      <c r="C191" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-global-financial</v>
+      <c r="C191" s="12" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" s="11" t="s">
         <v>2144</v>
       </c>
-      <c r="C192" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-global-healthcare</v>
+      <c r="C192" s="12" t="s">
+        <v>1343</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" s="11" t="s">
         <v>2081</v>
       </c>
-      <c r="C193" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-global-industrials</v>
+      <c r="C193" s="12" t="s">
+        <v>1344</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" s="11" t="s">
         <v>2389</v>
       </c>
-      <c r="C194" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-global-infrastructure</v>
+      <c r="C194" s="12" t="s">
+        <v>1345</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195" s="11" t="s">
         <v>2113</v>
       </c>
-      <c r="C195" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-global-materials</v>
+      <c r="C195" s="12" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196" s="11" t="s">
         <v>2180</v>
       </c>
-      <c r="C196" s="12" t="str">
-        <f t="shared" ref="C196:C259" si="3">GetURL(B196)</f>
-        <v>https://es.investing.com/etfs/ishares-s-p-global-technology</v>
+      <c r="C196" s="12" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" s="11" t="s">
         <v>2109</v>
       </c>
-      <c r="C197" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-global-telecom.</v>
+      <c r="C197" s="12" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198" s="11" t="s">
         <v>2421</v>
       </c>
-      <c r="C198" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-global-timber---for.</v>
+      <c r="C198" s="12" t="s">
+        <v>1349</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199" s="11" t="s">
         <v>2102</v>
       </c>
-      <c r="C199" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-global-utilities</v>
+      <c r="C199" s="12" t="s">
+        <v>1350</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200" s="11" t="s">
         <v>2119</v>
       </c>
-      <c r="C200" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-ibonds-dec-2026-term-corp</v>
+      <c r="C200" s="12" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201" s="11" t="s">
         <v>2062</v>
       </c>
-      <c r="C201" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-int-div-grwth</v>
+      <c r="C201" s="12" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" s="11" t="s">
         <v>2074</v>
       </c>
-      <c r="C202" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-developed-x-us-prop.</v>
+      <c r="C202" s="12" t="s">
+        <v>1336</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203" s="11" t="s">
         <v>2175</v>
       </c>
-      <c r="C203" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-s-p-intl-preferred-stock</v>
+      <c r="C203" s="12" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204" s="11" t="s">
         <v>2220</v>
       </c>
-      <c r="C204" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/dow-jones-epac-select-dividend</v>
+      <c r="C204" s="12" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205" s="11" t="s">
         <v>2376</v>
       </c>
-      <c r="C205" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-acwi-index-fund</v>
+      <c r="C205" s="12" t="s">
+        <v>1232</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206" s="11" t="s">
         <v>2382</v>
       </c>
-      <c r="C206" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-acwi-x-us</v>
+      <c r="C206" s="12" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" s="11" t="s">
         <v>2069</v>
       </c>
-      <c r="C207" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-acwi-low-carbon-target</v>
+      <c r="C207" s="12" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208" s="11" t="s">
         <v>2035</v>
       </c>
-      <c r="C208" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-argentina-glbl-exp</v>
+      <c r="C208" s="12" t="s">
+        <v>1237</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" s="11" t="s">
         <v>2128</v>
       </c>
-      <c r="C209" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-birc</v>
+      <c r="C209" s="12" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" s="11" t="s">
         <v>2369</v>
       </c>
-      <c r="C210" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-china</v>
+      <c r="C210" s="12" t="s">
+        <v>1246</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" s="11" t="s">
         <v>2099</v>
       </c>
-      <c r="C211" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-china-a</v>
+      <c r="C211" s="12" t="s">
+        <v>1247</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" s="11" t="s">
         <v>2105</v>
       </c>
-      <c r="C212" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-china-small-cap</v>
+      <c r="C212" s="12" t="s">
+        <v>1248</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" s="11" t="s">
         <v>2232</v>
       </c>
-      <c r="C213" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-eafe-index</v>
+      <c r="C213" s="12" t="s">
+        <v>1252</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" s="11" t="s">
         <v>2422</v>
       </c>
-      <c r="C214" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-eafe-esg-optimized</v>
+      <c r="C214" s="12" t="s">
+        <v>1251</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" s="11" t="s">
         <v>2186</v>
       </c>
-      <c r="C215" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-growth</v>
+      <c r="C215" s="12" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" s="11" t="s">
         <v>2378</v>
       </c>
-      <c r="C216" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-eafe-small-cap</v>
+      <c r="C216" s="12" t="s">
+        <v>1254</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217" s="11" t="s">
         <v>2227</v>
       </c>
-      <c r="C217" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-value</v>
+      <c r="C217" s="12" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B218" s="11" t="s">
         <v>2410</v>
       </c>
-      <c r="C218" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-em-esg-optimized</v>
+      <c r="C218" s="12" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B219" s="11" t="s">
         <v>2469</v>
       </c>
-      <c r="C219" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-em-ex-china</v>
+      <c r="C219" s="12" t="s">
+        <v>1256</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220" s="11" t="s">
         <v>2233</v>
       </c>
-      <c r="C220" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-emg-markets</v>
+      <c r="C220" s="12" t="s">
+        <v>1259</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B221" s="11" t="s">
         <v>2134</v>
       </c>
-      <c r="C221" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/msci-emerging-markets-smlcp-fund</v>
+      <c r="C221" s="12" t="s">
+        <v>1461</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222" s="11" t="s">
         <v>2433</v>
       </c>
-      <c r="C222" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-ft-dev.-smlcap-x-north-am.</v>
+      <c r="C222" s="12" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223" s="11" t="s">
         <v>2073</v>
       </c>
-      <c r="C223" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/msci-global-agri.-producers-fund</v>
+      <c r="C223" s="12" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B224" s="11" t="s">
         <v>2065</v>
       </c>
-      <c r="C224" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-global-energy-prod.</v>
+      <c r="C224" s="12" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B225" s="11" t="s">
         <v>2363</v>
       </c>
-      <c r="C225" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-global-gold-miners-be?cid=44703</v>
+      <c r="C225" s="12" t="s">
+        <v>1266</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226" s="11" t="s">
         <v>2468</v>
       </c>
-      <c r="C226" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-global-impact</v>
+      <c r="C226" s="12" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227" s="11" t="s">
         <v>2150</v>
       </c>
-      <c r="C227" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/msci-global-metals-mining-prod.</v>
+      <c r="C227" s="12" t="s">
+        <v>1465</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228" s="11" t="s">
         <v>2132</v>
       </c>
-      <c r="C228" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/msci-global-silver-miners-fund</v>
+      <c r="C228" s="12" t="s">
+        <v>1466</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229" s="11" t="s">
         <v>2023</v>
       </c>
-      <c r="C229" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci---kokusai</v>
+      <c r="C229" s="12" t="s">
+        <v>1231</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230" s="11" t="s">
         <v>2122</v>
       </c>
-      <c r="C230" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/ishares-msci-world</v>
+      <c r="C230" s="12" t="s">
+        <v>1309</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231" s="11" t="s">
         <v>2458</v>
       </c>
-      <c r="C231" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/janus-obesity</v>
+      <c r="C231" s="12" t="s">
+        <v>1370</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232" s="11" t="s">
         <v>2441</v>
       </c>
-      <c r="C232" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/janus-organics</v>
+      <c r="C232" s="12" t="s">
+        <v>2571</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233" s="11" t="s">
         <v>2091</v>
       </c>
-      <c r="C233" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/john-hancock-multifactor-dm</v>
+      <c r="C233" s="12" t="s">
+        <v>1378</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234" s="11" t="s">
         <v>2435</v>
       </c>
-      <c r="C234" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/jpmorgan-disciplined-high-yield</v>
+      <c r="C234" s="12" t="s">
+        <v>1389</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235" s="11" t="s">
         <v>2108</v>
       </c>
-      <c r="C235" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/jpmorgan-diversified-alternative</v>
+      <c r="C235" s="12" t="s">
+        <v>1395</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236" s="11" t="s">
         <v>2104</v>
       </c>
-      <c r="C236" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/jpmorgan-diversified-return-emergin</v>
+      <c r="C236" s="12" t="s">
+        <v>1396</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237" s="11" t="s">
         <v>2103</v>
       </c>
-      <c r="C237" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/jpmorgan-diversified-return-global</v>
+      <c r="C237" s="12" t="s">
+        <v>1397</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238" s="11" t="s">
         <v>2043</v>
       </c>
-      <c r="C238" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/jpmorgan-diverrtrn-intcurrhdgd</v>
+      <c r="C238" s="12" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239" s="11" t="s">
         <v>2158</v>
       </c>
-      <c r="C239" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/jpmorgan-diversi</v>
+      <c r="C239" s="12" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240" s="11" t="s">
         <v>2485</v>
       </c>
-      <c r="C240" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/jpmorgan-managed-futures-strategy</v>
+      <c r="C240" s="12" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B241" s="11" t="s">
         <v>2201</v>
       </c>
-      <c r="C241" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/kraneshares-bosera-msci-china-a</v>
+      <c r="C241" s="12" t="s">
+        <v>1402</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242" s="11" t="s">
         <v>2442</v>
       </c>
-      <c r="C242" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/kraneshares-elctrcvhcls-fturemblty</v>
+      <c r="C242" s="12" t="s">
+        <v>2572</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B243" s="11" t="s">
         <v>2417</v>
       </c>
-      <c r="C243" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/kraneshares-em-consumer-tech</v>
+      <c r="C243" s="12" t="s">
+        <v>1405</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B244" s="11" t="s">
         <v>2000</v>
       </c>
-      <c r="C244" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/kraneshares-ftse-emerging-markets</v>
+      <c r="C244" s="12" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B245" s="11" t="s">
         <v>2370</v>
       </c>
-      <c r="C245" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/kraneshares-msci-china-hlth-cr-indx</v>
+      <c r="C245" s="12" t="s">
+        <v>2573</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B246" s="11" t="s">
         <v>2431</v>
       </c>
-      <c r="C246" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/kraneshares-msci-one-belt-one-road</v>
+      <c r="C246" s="12" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B247" s="11" t="s">
         <v>2466</v>
       </c>
-      <c r="C247" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/legg-mason-dm-exus-diversifcore</v>
+      <c r="C247" s="12" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B248" s="11" t="s">
         <v>2474</v>
       </c>
-      <c r="C248" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/legg-mason-em-diversified-core-etf</v>
+      <c r="C248" s="12" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B249" s="11" t="s">
         <v>2473</v>
       </c>
-      <c r="C249" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/legg-mason-em-lowvol-hidiv</v>
+      <c r="C249" s="12" t="s">
+        <v>1414</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B250" s="11" t="s">
         <v>2501</v>
       </c>
-      <c r="C250" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/legg-mason-intl-lowvol-hidi</v>
+      <c r="C250" s="12" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B251" s="11" t="s">
         <v>2010</v>
       </c>
-      <c r="C251" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/advisorshares-madrona-intl</v>
+      <c r="C251" s="12" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" s="11" t="s">
         <v>2460</v>
       </c>
-      <c r="C252" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/momentumshares-intl-quant-mom</v>
+      <c r="C252" s="12" t="s">
+        <v>1454</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" s="11" t="s">
         <v>2207</v>
       </c>
-      <c r="C253" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/msci-frontier-100</v>
+      <c r="C253" s="12" t="s">
+        <v>1463</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" s="11" t="s">
         <v>2499</v>
       </c>
-      <c r="C254" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/nationwide-risk-based-intl</v>
+      <c r="C254" s="12" t="s">
+        <v>1471</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B255" s="11" t="s">
         <v>2461</v>
       </c>
-      <c r="C255" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/natixis-seeyond-intl-minvol</v>
+      <c r="C255" s="12" t="s">
+        <v>1473</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B256" s="11" t="s">
         <v>2059</v>
       </c>
-      <c r="C256" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/oshares-ftse-rusl-intl-qual-div</v>
+      <c r="C256" s="12" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257" s="11" t="s">
         <v>2487</v>
       </c>
-      <c r="C257" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/oppenheimer-global-esg-revenue</v>
+      <c r="C257" s="12" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258" s="11" t="s">
         <v>2449</v>
       </c>
-      <c r="C258" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/pimco-rafi-dyn-multifactor-em</v>
+      <c r="C258" s="12" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" s="11" t="s">
         <v>2425</v>
       </c>
-      <c r="C259" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>https://es.investing.com/etfs/pimco-rafi-dyn-multifactor-intl</v>
+      <c r="C259" s="12" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" s="11" t="s">
         <v>2507</v>
       </c>
-      <c r="C260" s="12" t="str">
-        <f t="shared" ref="C260:C323" si="4">GetURL(B260)</f>
-        <v>https://es.investing.com/etfs/portfolioplus-developed-markets</v>
+      <c r="C260" s="12" t="s">
+        <v>2574</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" s="11" t="s">
         <v>2498</v>
       </c>
-      <c r="C261" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/portfolioplus-emerging-markets</v>
+      <c r="C261" s="12" t="s">
+        <v>2575</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" s="11" t="s">
         <v>2094</v>
       </c>
-      <c r="C262" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-cleantech-portfolio</v>
+      <c r="C262" s="12" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" s="11" t="s">
         <v>2396</v>
       </c>
-      <c r="C263" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershr-dwa-em-mom</v>
+      <c r="C263" s="12" t="s">
+        <v>1606</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" s="11" t="s">
         <v>2398</v>
       </c>
-      <c r="C264" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-dwa-momlowvol-rotation</v>
+      <c r="C264" s="12" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265" s="11" t="s">
         <v>2014</v>
       </c>
-      <c r="C265" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-global-em-infr.</v>
+      <c r="C265" s="12" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266" s="11" t="s">
         <v>2465</v>
       </c>
-      <c r="C266" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-ftse-int-lowbeta-eqlwgt</v>
+      <c r="C266" s="12" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267" s="11" t="s">
         <v>2135</v>
       </c>
-      <c r="C267" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-ftse-rafi-dm-x-us</v>
+      <c r="C267" s="12" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268" s="11" t="s">
         <v>2080</v>
       </c>
-      <c r="C268" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/pshares-ftse-rafi-dm-x-us-sml-mid</v>
+      <c r="C268" s="12" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269" s="11" t="s">
         <v>2195</v>
       </c>
-      <c r="C269" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-ft-rafi-emerging-mrkt</v>
+      <c r="C269" s="12" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" s="11" t="s">
         <v>2484</v>
       </c>
-      <c r="C270" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-global-agriculture</v>
+      <c r="C270" s="12" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271" s="11" t="s">
         <v>2071</v>
       </c>
-      <c r="C271" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares---global-clean-energy</v>
+      <c r="C271" s="12" t="s">
+        <v>1518</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272" s="11" t="s">
         <v>2430</v>
       </c>
-      <c r="C272" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powersh.-global-gold---pr.-metals</v>
+      <c r="C272" s="12" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273" s="11" t="s">
         <v>2424</v>
       </c>
-      <c r="C273" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-global-water</v>
+      <c r="C273" s="12" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274" s="11" t="s">
         <v>2371</v>
       </c>
-      <c r="C274" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/golden-dragon-halter-usx-china</v>
+      <c r="C274" s="12" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275" s="11" t="s">
         <v>2408</v>
       </c>
-      <c r="C275" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-international-buyback-a</v>
+      <c r="C275" s="12" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276" s="11" t="s">
         <v>2388</v>
       </c>
-      <c r="C276" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powersh.-intl-dividend-achievers</v>
+      <c r="C276" s="12" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277" s="11" t="s">
         <v>2489</v>
       </c>
-      <c r="C277" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-purebeta-ftse-dev</v>
+      <c r="C277" s="12" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B278" s="11" t="s">
         <v>2428</v>
       </c>
-      <c r="C278" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-purebeta-ftse-em</v>
+      <c r="C278" s="12" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B279" s="11" t="s">
         <v>2044</v>
       </c>
-      <c r="C279" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-sp500-val-with-mom-port</v>
+      <c r="C279" s="12" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280" s="11" t="s">
         <v>2152</v>
       </c>
-      <c r="C280" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/s-p-emerging-markets-high-beta</v>
+      <c r="C280" s="12" t="s">
+        <v>1685</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B281" s="11" t="s">
         <v>2148</v>
       </c>
-      <c r="C281" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-s-p-em-low-volatility</v>
+      <c r="C281" s="12" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282" s="11" t="s">
         <v>2018</v>
       </c>
-      <c r="C282" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-dynamic-dev-int-opp</v>
+      <c r="C282" s="12" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B283" s="11" t="s">
         <v>2493</v>
       </c>
-      <c r="C283" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershrs-sp-intl-dvl-hidiv-lowvol</v>
+      <c r="C283" s="12" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284" s="11" t="s">
         <v>2145</v>
       </c>
-      <c r="C284" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/invesco-s-p-intl-dev-low-vol.</v>
+      <c r="C284" s="12" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285" s="11" t="s">
         <v>2055</v>
       </c>
-      <c r="C285" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-sp-smallcap-qual-port</v>
+      <c r="C285" s="12" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B286" s="11" t="s">
         <v>2399</v>
       </c>
-      <c r="C286" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powershares-varrate-invest-grade</v>
+      <c r="C286" s="12" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287" s="11" t="s">
         <v>2143</v>
       </c>
-      <c r="C287" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/powersh-wilderhill-clean-energy</v>
+      <c r="C287" s="12" t="s">
+        <v>1510</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288" s="11" t="s">
         <v>2464</v>
       </c>
-      <c r="C288" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/premise-cap-frnt-advant-divrs-tact</v>
+      <c r="C288" s="12" t="s">
+        <v>1608</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B289" s="11" t="s">
         <v>2028</v>
       </c>
-      <c r="C289" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/principal-active-global-div-inc</v>
+      <c r="C289" s="12" t="s">
+        <v>1609</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B290" s="11" t="s">
         <v>2479</v>
       </c>
-      <c r="C290" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/principal-millennials</v>
+      <c r="C290" s="12" t="s">
+        <v>2576</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B291" s="11" t="s">
         <v>1998</v>
       </c>
-      <c r="C291" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/proshares-dj-brookfield-global-infr</v>
+      <c r="C291" s="12" t="s">
+        <v>1613</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B292" s="11" t="s">
         <v>2085</v>
       </c>
-      <c r="C292" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/proshares-msci-eafe-dividend-grower</v>
+      <c r="C292" s="12" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B293" s="11" t="s">
         <v>2444</v>
       </c>
-      <c r="C293" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/proshares-msci-em-div-gr</v>
+      <c r="C293" s="12" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B294" s="11" t="s">
         <v>2112</v>
       </c>
-      <c r="C294" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/purefunds-drone-economy-strategy</v>
+      <c r="C294" s="12" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B295" s="11" t="s">
         <v>2212</v>
       </c>
-      <c r="C295" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/purefunds-ise-cyber-security</v>
+      <c r="C295" s="12" t="s">
+        <v>1633</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B296" s="11" t="s">
         <v>2141</v>
       </c>
-      <c r="C296" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/purefunds-video-game-tech</v>
+      <c r="C296" s="12" t="s">
+        <v>1636</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B297" s="11" t="s">
         <v>2413</v>
       </c>
-      <c r="C297" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/reality-shares-nasdaq-nexgen-econ</v>
+      <c r="C297" s="12" t="s">
+        <v>2577</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B298" s="11" t="s">
         <v>2439</v>
       </c>
-      <c r="C298" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/rex-bkcm</v>
+      <c r="C298" s="12" t="s">
+        <v>2578</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B299" s="11" t="s">
         <v>2205</v>
       </c>
-      <c r="C299" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/riverfront-dynamic-core-income</v>
+      <c r="C299" s="12" t="s">
+        <v>1659</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B300" s="11" t="s">
         <v>2208</v>
       </c>
-      <c r="C300" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/riverfront-dynamic-unconstr-inc</v>
+      <c r="C300" s="12" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B301" s="11" t="s">
         <v>2090</v>
       </c>
-      <c r="C301" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/saba-interest-rate-hedged-cef</v>
+      <c r="C301" s="12" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B302" s="11" t="s">
         <v>2404</v>
       </c>
-      <c r="C302" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/schwab-1000</v>
+      <c r="C302" s="12" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B303" s="11" t="s">
         <v>2213</v>
       </c>
-      <c r="C303" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/schwab-emerging-markets-equity</v>
+      <c r="C303" s="12" t="s">
+        <v>1691</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B304" s="11" t="s">
         <v>2219</v>
       </c>
-      <c r="C304" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/schwab-international-equity</v>
+      <c r="C304" s="12" t="s">
+        <v>1698</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B305" s="11" t="s">
         <v>2178</v>
       </c>
-      <c r="C305" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/schwab-intl-small-cap-equity</v>
+      <c r="C305" s="12" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B306" s="11" t="s">
         <v>2182</v>
       </c>
-      <c r="C306" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-wilshire-global-real-estate</v>
+      <c r="C306" s="12" t="s">
+        <v>1802</v>
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B307" s="11" t="s">
         <v>2217</v>
       </c>
-      <c r="C307" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-dj-wilshire-intl-real-estate</v>
+      <c r="C307" s="12" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B308" s="11" t="s">
         <v>2052</v>
       </c>
-      <c r="C308" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-dj-global-titans</v>
+      <c r="C308" s="12" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B309" s="11" t="s">
         <v>2189</v>
       </c>
-      <c r="C309" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-msci-acwi-ex-us</v>
+      <c r="C309" s="12" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B310" s="11" t="s">
         <v>2019</v>
       </c>
-      <c r="C310" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-msci-acwi-imi</v>
+      <c r="C310" s="12" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B311" s="11" t="s">
         <v>2009</v>
       </c>
-      <c r="C311" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-msci-acwi-low-carbon-target</v>
+      <c r="C311" s="12" t="s">
+        <v>1737</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B312" s="11" t="s">
         <v>2034</v>
       </c>
-      <c r="C312" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-msci-china-a-shares-imi</v>
+      <c r="C312" s="12" t="s">
+        <v>1739</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B313" s="11" t="s">
         <v>2032</v>
       </c>
-      <c r="C313" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-msci-eafe-fossil-fuel-rsrvfree</v>
+      <c r="C313" s="12" t="s">
+        <v>1740</v>
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B314" s="11" t="s">
         <v>2057</v>
       </c>
-      <c r="C314" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-msci-eafe-quality-mix</v>
+      <c r="C314" s="12" t="s">
+        <v>1741</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B315" s="11" t="s">
         <v>2475</v>
       </c>
-      <c r="C315" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-msci-em-fossil-fuel-free</v>
+      <c r="C315" s="12" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B316" s="11" t="s">
         <v>2079</v>
       </c>
-      <c r="C316" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-msci-emerging-markets-quality</v>
+      <c r="C316" s="12" t="s">
+        <v>1743</v>
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B317" s="11" t="s">
         <v>2004</v>
       </c>
-      <c r="C317" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-msci-world-quality-mix</v>
+      <c r="C317" s="12" t="s">
+        <v>1748</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B318" s="11" t="s">
         <v>2170</v>
       </c>
-      <c r="C318" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-s-p-china</v>
+      <c r="C318" s="12" t="s">
+        <v>1769</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B319" s="11" t="s">
         <v>2188</v>
       </c>
-      <c r="C319" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-s-p-emerging-markets</v>
+      <c r="C319" s="12" t="s">
+        <v>1772</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B320" s="11" t="s">
         <v>2169</v>
       </c>
-      <c r="C320" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-s-p-emerging-markets-dividend</v>
+      <c r="C320" s="12" t="s">
+        <v>1773</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B321" s="11" t="s">
         <v>2153</v>
       </c>
-      <c r="C321" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-s-p-emerging-markets-smallcap</v>
+      <c r="C321" s="12" t="s">
+        <v>1774</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B322" s="11" t="s">
         <v>2068</v>
       </c>
-      <c r="C322" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-ftse-macquarie-gi-100</v>
+      <c r="C322" s="12" t="s">
+        <v>1723</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B323" s="11" t="s">
         <v>2203</v>
       </c>
-      <c r="C323" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>https://es.investing.com/etfs/spdr-s-p-global-natural-resources</v>
+      <c r="C323" s="12" t="s">
+        <v>1776</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B324" s="11" t="s">
         <v>2193</v>
       </c>
-      <c r="C324" s="12" t="str">
-        <f t="shared" ref="C324:C387" si="5">GetURL(B324)</f>
-        <v>https://es.investing.com/etfs/spdr-s-p-intl-dividend</v>
+      <c r="C324" s="12" t="s">
+        <v>1780</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B325" s="11" t="s">
         <v>2160</v>
       </c>
-      <c r="C325" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/spdr-s-p-intl-smallcap</v>
+      <c r="C325" s="12" t="s">
+        <v>1781</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B326" s="11" t="s">
         <v>2197</v>
       </c>
-      <c r="C326" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/spdr-s-p-world-ex-us</v>
+      <c r="C326" s="12" t="s">
+        <v>1791</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B327" s="11" t="s">
         <v>2029</v>
       </c>
-      <c r="C327" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/spirited-funds-etfmg-whiskey</v>
+      <c r="C327" s="12" t="s">
+        <v>1804</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B328" s="11" t="s">
         <v>2093</v>
       </c>
-      <c r="C328" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/the-3d-printing</v>
+      <c r="C328" s="12" t="s">
+        <v>1807</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B329" s="11" t="s">
         <v>2492</v>
       </c>
-      <c r="C329" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/the-wear</v>
+      <c r="C329" s="12" t="s">
+        <v>1808</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B330" s="11" t="s">
         <v>2127</v>
       </c>
-      <c r="C330" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/ubs-ag-fi-enhanced-glbl-hgh-yld</v>
+      <c r="C330" s="12" t="s">
+        <v>1813</v>
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B331" s="11" t="s">
         <v>2438</v>
       </c>
-      <c r="C331" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/usaa-msci-em-value-mom-blend</v>
+      <c r="C331" s="12" t="s">
+        <v>1823</v>
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B332" s="11" t="s">
         <v>2446</v>
       </c>
-      <c r="C332" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/usaa-msci-intl-value-mom-blend</v>
+      <c r="C332" s="12" t="s">
+        <v>1824</v>
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B333" s="11" t="s">
         <v>2216</v>
       </c>
-      <c r="C333" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/marketvectors-agribusiness</v>
+      <c r="C333" s="12" t="s">
+        <v>1436</v>
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B334" s="11" t="s">
         <v>2053</v>
       </c>
-      <c r="C334" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/marketvectors-china</v>
+      <c r="C334" s="12" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B335" s="11" t="s">
         <v>2078</v>
       </c>
-      <c r="C335" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/market-vectors-chinaamc-sme-chinext</v>
+      <c r="C335" s="12" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B336" s="11" t="s">
         <v>2161</v>
       </c>
-      <c r="C336" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/market-vectors-coal</v>
+      <c r="C336" s="12" t="s">
+        <v>1423</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B337" s="11" t="s">
         <v>2097</v>
       </c>
-      <c r="C337" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/marketvectors-gaming</v>
+      <c r="C337" s="12" t="s">
+        <v>1439</v>
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B338" s="11" t="s">
         <v>2508</v>
       </c>
-      <c r="C338" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/vaneck-vectors-generic-drugs</v>
+      <c r="C338" s="12" t="s">
+        <v>1832</v>
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B339" s="11" t="s">
         <v>2017</v>
       </c>
-      <c r="C339" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/marketvectors-global-alt.-energy</v>
+      <c r="C339" s="12" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B340" s="11" t="s">
         <v>1999</v>
       </c>
-      <c r="C340" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/market-vectors-global-spin-off</v>
+      <c r="C340" s="12" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B341" s="11" t="s">
         <v>2230</v>
       </c>
-      <c r="C341" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/market-vectors-gold-miners</v>
+      <c r="C341" s="12" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B342" s="11" t="s">
         <v>2223</v>
       </c>
-      <c r="C342" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/market-vectors-junior-gold-miners</v>
+      <c r="C342" s="12" t="s">
+        <v>1428</v>
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B343" s="11" t="s">
         <v>2121</v>
       </c>
-      <c r="C343" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/market-vectors-morningstar-intl-moa</v>
+      <c r="C343" s="12" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B344" s="11" t="s">
         <v>2077</v>
       </c>
-      <c r="C344" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/marketvectors-hard-assets-prod.</v>
+      <c r="C344" s="12" t="s">
+        <v>1441</v>
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B345" s="11" t="s">
         <v>2131</v>
       </c>
-      <c r="C345" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/market-vectors-oil-refiners</v>
+      <c r="C345" s="12" t="s">
+        <v>1430</v>
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B346" s="11" t="s">
         <v>2142</v>
       </c>
-      <c r="C346" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/salix-pharmaceuticals-ltd.</v>
+      <c r="C346" s="12" t="s">
+        <v>1689</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B347" s="11" t="s">
         <v>2120</v>
       </c>
-      <c r="C347" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/marketvectors-unconv.-oil---gas</v>
+      <c r="C347" s="12" t="s">
+        <v>1449</v>
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B348" s="11" t="s">
         <v>2020</v>
       </c>
-      <c r="C348" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/marketvectors-nuclear-energy</v>
+      <c r="C348" s="12" t="s">
+        <v>1444</v>
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B349" s="11" t="s">
         <v>2222</v>
       </c>
-      <c r="C349" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/vanguard-ftse-all-world-x-us</v>
+      <c r="C349" s="12" t="s">
+        <v>1841</v>
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B350" s="11" t="s">
         <v>2177</v>
       </c>
-      <c r="C350" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/vanguard-ftse-all-wld-x-us-smcp</v>
+      <c r="C350" s="12" t="s">
+        <v>1840</v>
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B351" s="11" t="s">
         <v>2496</v>
       </c>
-      <c r="C351" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/vanguard-ftse-all-world?cid=1065342</v>
+      <c r="C351" s="12" t="s">
+        <v>2579</v>
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B352" s="11" t="s">
         <v>2224</v>
       </c>
-      <c r="C352" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/vanguard-europe-pacific</v>
+      <c r="C352" s="12" t="s">
+        <v>1837</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B353" s="11" t="s">
         <v>2229</v>
       </c>
-      <c r="C353" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/vanguard-ftse-emerging-markets</v>
+      <c r="C353" s="12" t="s">
+        <v>1842</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B354" s="11" t="s">
         <v>2385</v>
       </c>
-      <c r="C354" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/vanguard-global-ex-su-real-estate</v>
+      <c r="C354" s="12" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B355" s="11" t="s">
         <v>2401</v>
       </c>
-      <c r="C355" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/vanguard-int-div-appreciation</v>
+      <c r="C355" s="12" t="s">
+        <v>1849</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B356" s="11" t="s">
         <v>2393</v>
       </c>
-      <c r="C356" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/vanguard-int-high-div-yld</v>
+      <c r="C356" s="12" t="s">
+        <v>1850</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B357" s="11" t="s">
         <v>2377</v>
       </c>
-      <c r="C357" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/vanguard-total-intl-stock</v>
+      <c r="C357" s="12" t="s">
+        <v>1878</v>
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B358" s="11" t="s">
         <v>2211</v>
       </c>
-      <c r="C358" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/vanguard-total-world-stock-index</v>
+      <c r="C358" s="12" t="s">
+        <v>1880</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B359" s="11" t="s">
         <v>2403</v>
       </c>
-      <c r="C359" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/victory-cemp-international-high-div</v>
+      <c r="C359" s="12" t="s">
+        <v>1886</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B360" s="11" t="s">
         <v>2472</v>
       </c>
-      <c r="C360" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/victory-cemp-international-vol</v>
+      <c r="C360" s="12" t="s">
+        <v>1887</v>
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B361" s="11" t="s">
         <v>2440</v>
       </c>
-      <c r="C361" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/victoryshares-em-hidiv-vol-wtd</v>
+      <c r="C361" s="12" t="s">
+        <v>1896</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B362" s="11" t="s">
         <v>2411</v>
       </c>
-      <c r="C362" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/vident-international-equity</v>
+      <c r="C362" s="12" t="s">
+        <v>1899</v>
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B363" s="11" t="s">
         <v>2411</v>
       </c>
-      <c r="C363" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/vident-international-equity?cid=1072337</v>
+      <c r="C363" s="12" t="s">
+        <v>2580</v>
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B364" s="11" t="s">
         <v>2478</v>
       </c>
-      <c r="C364" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/virtus-glovista-em</v>
+      <c r="C364" s="12" t="s">
+        <v>1901</v>
       </c>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B365" s="11" t="s">
         <v>2030</v>
       </c>
-      <c r="C365" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wbi-tactical-rotation-shares</v>
+      <c r="C365" s="12" t="s">
+        <v>1911</v>
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B366" s="11" t="s">
         <v>2116</v>
       </c>
-      <c r="C366" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wcm-bny-mellon-focused-growth-adr</v>
+      <c r="C366" s="12" t="s">
+        <v>1915</v>
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B367" s="11" t="s">
         <v>2070</v>
       </c>
-      <c r="C367" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-intl-dividend-top-100</v>
+      <c r="C367" s="12" t="s">
+        <v>1950</v>
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B368" s="11" t="s">
         <v>2423</v>
       </c>
-      <c r="C368" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-dyn-currhgd-intl</v>
+      <c r="C368" s="12" t="s">
+        <v>1928</v>
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B369" s="11" t="s">
         <v>2490</v>
       </c>
-      <c r="C369" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-dyn-curr-hgd-intl-div-gr</v>
+      <c r="C369" s="12" t="s">
+        <v>1926</v>
       </c>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B370" s="11" t="s">
         <v>2477</v>
       </c>
-      <c r="C370" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wsdmtree-dyncurr-hgd-intl-smllcap</v>
+      <c r="C370" s="12" t="s">
+        <v>1980</v>
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B371" s="11" t="s">
         <v>2432</v>
       </c>
-      <c r="C371" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-em-dividend-fund</v>
+      <c r="C371" s="12" t="s">
+        <v>1932</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B372" s="11" t="s">
         <v>2450</v>
       </c>
-      <c r="C372" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-em-consumer-growth</v>
+      <c r="C372" s="12" t="s">
+        <v>1931</v>
       </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B373" s="11" t="s">
         <v>2115</v>
       </c>
-      <c r="C373" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-em-ex-state-owned-ent</v>
+      <c r="C373" s="12" t="s">
+        <v>1933</v>
       </c>
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B374" s="11" t="s">
         <v>2185</v>
       </c>
-      <c r="C374" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-eme-income-fund</v>
+      <c r="C374" s="12" t="s">
+        <v>1935</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B375" s="11" t="s">
         <v>2172</v>
       </c>
-      <c r="C375" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-emerging-mrkt-smallcap</v>
+      <c r="C375" s="12" t="s">
+        <v>1936</v>
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B376" s="11" t="s">
         <v>2221</v>
       </c>
-      <c r="C376" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-intl-hedged-equity-fund</v>
+      <c r="C376" s="12" t="s">
+        <v>1952</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B377" s="11" t="s">
         <v>2084</v>
       </c>
-      <c r="C377" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-world-ex-su-growth-fund</v>
+      <c r="C377" s="12" t="s">
+        <v>1979</v>
       </c>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B378" s="11" t="s">
         <v>2486</v>
       </c>
-      <c r="C378" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-glbl-hgd-smallcap-div</v>
+      <c r="C378" s="12" t="s">
+        <v>1943</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B379" s="11" t="s">
         <v>2494</v>
       </c>
-      <c r="C379" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-global-smallcap-div</v>
+      <c r="C379" s="12" t="s">
+        <v>1946</v>
       </c>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B380" s="11" t="s">
         <v>2375</v>
       </c>
-      <c r="C380" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-icbccs-sp-china-500</v>
+      <c r="C380" s="12" t="s">
+        <v>1948</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B381" s="11" t="s">
         <v>2154</v>
       </c>
-      <c r="C381" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-intl-largecap-dividend</v>
+      <c r="C381" s="12" t="s">
+        <v>1953</v>
       </c>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B382" s="11" t="s">
         <v>2137</v>
       </c>
-      <c r="C382" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-defa-fund</v>
+      <c r="C382" s="12" t="s">
+        <v>1922</v>
       </c>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B383" s="11" t="s">
         <v>2123</v>
       </c>
-      <c r="C383" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-intl-hdg-quality-div</v>
+      <c r="C383" s="12" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B384" s="11" t="s">
         <v>2101</v>
       </c>
-      <c r="C384" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-defa-high-yielding-eq</v>
+      <c r="C384" s="12" t="s">
+        <v>1923</v>
       </c>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B385" s="11" t="s">
         <v>2118</v>
       </c>
-      <c r="C385" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-intl-midcap-dividend</v>
+      <c r="C385" s="12" t="s">
+        <v>1954</v>
       </c>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B386" s="11" t="s">
         <v>2455</v>
       </c>
-      <c r="C386" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-intl-quality-div-gr</v>
+      <c r="C386" s="12" t="s">
+        <v>1955</v>
       </c>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B387" s="11" t="s">
         <v>2167</v>
       </c>
-      <c r="C387" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>https://es.investing.com/etfs/wisdomtree-intl-smallcap-fund</v>
+      <c r="C387" s="12" t="s">
+        <v>1956</v>
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.2">

--- a/Screenshots/etfs.xlsx
+++ b/Screenshots/etfs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8582" uniqueCount="2581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8508" uniqueCount="2546">
   <si>
     <t>https://es.investing.com/etfs/amundi-cac-40-de</t>
   </si>
@@ -7658,121 +7658,16 @@
     <t>https://es.investing.com/etfs/amundi-msci-world-financials---eur</t>
   </si>
   <si>
-    <t>https://es.investing.com/etfs/db-x-trackers-msci-ac-world-index?cid=1024490</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055038</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055040</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055039</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055036</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055035</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009167</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009205</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009166</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056533</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056531</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056529</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056532</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056527</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056528</t>
-  </si>
-  <si>
     <t>https://es.investing.com/etfs/hsbc-eco-scale-worldwide-eq-ucits</t>
   </si>
   <si>
     <t>https://es.investing.com/etfs/hsbc-multifactor-worldwide-eq-ucits</t>
   </si>
   <si>
-    <t>https://es.investing.com/etfs/hsbc-multifactor-worldwide-eq-ucits?cid=1080070</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/icbc-crsuiss-wtre-sp-china-500-b-de?cid=1024748</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/icbc-crsuiss-wtre-sp-china-500-b-de?cid=1024747</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009419</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009457</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009418</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009435</t>
-  </si>
-  <si>
     <t>https://es.investing.com/etfs/ishares-core-msci-em-imi?cid=1024491</t>
   </si>
   <si>
     <t>https://es.investing.com/etfs/ishares-digitalisation-acc?cid=1080073</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009078</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009080</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009059</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009079</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/lyxor-msci-world-energy-tr?cid=996756</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/robo-stox-global-robotics?cid=1052316</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024716</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024717</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024715</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024711</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024712</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024714</t>
-  </si>
-  <si>
-    <t>https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024713</t>
   </si>
   <si>
     <t>https://es.investing.com/etfs/affinity-world-leaders-equity</t>
@@ -45424,7 +45319,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="B1:C183"/>
+  <dimension ref="B1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45471,34 +45366,34 @@
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>2302</v>
+        <v>2268</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>2265</v>
+        <v>2305</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>2510</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>24</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
-        <v>2305</v>
+        <v>2302</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
@@ -45551,26 +45446,26 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>2323</v>
+        <v>2282</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
-        <v>2296</v>
+        <v>2323</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
-        <v>2259</v>
+        <v>2296</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
@@ -45578,7 +45473,7 @@
         <v>2259</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
@@ -45591,34 +45486,34 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
-        <v>2275</v>
+        <v>2337</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>2511</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
-        <v>2337</v>
+        <v>2291</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
-        <v>2291</v>
+        <v>2317</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>2317</v>
+        <v>2344</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
@@ -45631,1403 +45526,1070 @@
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
-        <v>2303</v>
+        <v>2271</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
-        <v>2345</v>
+        <v>2313</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
-        <v>2273</v>
+        <v>2325</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>2512</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
-        <v>2273</v>
+        <v>2339</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>2273</v>
+        <v>2278</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>2513</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>2273</v>
+        <v>2251</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>2514</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>2273</v>
+        <v>2331</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>2515</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>2273</v>
+        <v>2254</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>2516</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
-        <v>2278</v>
+        <v>2253</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>2251</v>
+        <v>2280</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>2331</v>
+        <v>2252</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
-        <v>2254</v>
+        <v>2250</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
-        <v>2283</v>
+        <v>2249</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
-        <v>2283</v>
+        <v>2345</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>2517</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
-        <v>2283</v>
+        <v>2273</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>2518</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
-        <v>2283</v>
+        <v>2246</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>2519</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
-        <v>2253</v>
+        <v>2303</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
-        <v>2277</v>
+        <v>2283</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
-        <v>2252</v>
+        <v>2353</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>2246</v>
+        <v>2343</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
-        <v>2344</v>
+        <v>2367</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>216</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
-        <v>2250</v>
+        <v>2309</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
-        <v>2249</v>
+        <v>2366</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
-        <v>2271</v>
+        <v>2368</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>2520</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>2521</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
-        <v>2271</v>
+        <v>2365</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>2522</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
-        <v>2271</v>
+        <v>2257</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>2523</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>2271</v>
+        <v>2255</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>2524</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
-        <v>2271</v>
+        <v>2256</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>2525</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
-        <v>2271</v>
+        <v>2330</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>189</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
-        <v>2313</v>
+        <v>2276</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>219</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
-        <v>2325</v>
+        <v>2355</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>220</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="11" t="s">
-        <v>2339</v>
+        <v>2320</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>222</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="11" t="s">
-        <v>2353</v>
+        <v>2338</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>270</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" s="11" t="s">
-        <v>2343</v>
+        <v>2306</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>271</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" s="11" t="s">
-        <v>2309</v>
+        <v>2327</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" s="11" t="s">
-        <v>2367</v>
+        <v>2243</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>286</v>
+        <v>351</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" s="11" t="s">
-        <v>2366</v>
+        <v>2319</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="11" t="s">
-        <v>2368</v>
+        <v>2247</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>299</v>
+        <v>353</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="11" t="s">
-        <v>2270</v>
+        <v>2364</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>2526</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
-        <v>2365</v>
+        <v>2307</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="11" t="s">
-        <v>2257</v>
+        <v>2348</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>2527</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="11" t="s">
-        <v>2257</v>
+        <v>2290</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>2528</v>
+        <v>373</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="11" t="s">
-        <v>2255</v>
+        <v>2287</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>312</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="11" t="s">
-        <v>2255</v>
+        <v>2274</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>2529</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="11" t="s">
-        <v>2255</v>
+        <v>2258</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>2530</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="11" t="s">
-        <v>2256</v>
+        <v>2301</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>314</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="11" t="s">
-        <v>2330</v>
+        <v>2242</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="11" t="s">
-        <v>2330</v>
+        <v>2336</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>2531</v>
+        <v>391</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="11" t="s">
-        <v>2330</v>
+        <v>2324</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>2532</v>
+        <v>392</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="11" t="s">
-        <v>2330</v>
+        <v>2298</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>2533</v>
+        <v>389</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="11" t="s">
-        <v>2330</v>
+        <v>2311</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>2534</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="11" t="s">
-        <v>2307</v>
+        <v>2363</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="11" t="s">
-        <v>2290</v>
+        <v>2357</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>373</v>
+        <v>422</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="11" t="s">
-        <v>2276</v>
+        <v>2350</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>317</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="11" t="s">
-        <v>2276</v>
+        <v>2347</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>2535</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="11" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
-        <v>2348</v>
+        <v>2354</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="11" t="s">
-        <v>2355</v>
+        <v>2351</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>2536</v>
+        <v>428</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="11" t="s">
-        <v>2320</v>
+        <v>2352</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>322</v>
+        <v>429</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="11" t="s">
-        <v>2306</v>
+        <v>2299</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>332</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="11" t="s">
-        <v>2327</v>
+        <v>2341</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>333</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="11" t="s">
-        <v>2243</v>
+        <v>2262</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>351</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="11" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>352</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="11" t="s">
-        <v>2248</v>
+        <v>2297</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="11" t="s">
-        <v>2247</v>
+        <v>2349</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>353</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="11" t="s">
-        <v>2338</v>
+        <v>2340</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>323</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="11" t="s">
-        <v>2262</v>
+        <v>2314</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="11" t="s">
-        <v>2364</v>
+        <v>2248</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>366</v>
+        <v>468</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="11" t="s">
-        <v>2287</v>
+        <v>2304</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>376</v>
+        <v>472</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="11" t="s">
-        <v>2258</v>
+        <v>2329</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>379</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="11" t="s">
-        <v>2318</v>
+        <v>2335</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="11" t="s">
-        <v>2274</v>
+        <v>2328</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>377</v>
+        <v>512</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="11" t="s">
-        <v>2274</v>
+        <v>2294</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>2537</v>
+        <v>501</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="11" t="s">
-        <v>2274</v>
+        <v>2284</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>2538</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="11" t="s">
-        <v>2274</v>
+        <v>2244</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>2539</v>
+        <v>503</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="11" t="s">
-        <v>2274</v>
+        <v>2286</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>2540</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="11" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="11" t="s">
-        <v>2314</v>
+        <v>2285</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>467</v>
+        <v>506</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="11" t="s">
-        <v>2301</v>
+        <v>2308</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>385</v>
+        <v>507</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" s="11" t="s">
-        <v>2242</v>
+        <v>2289</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>387</v>
+        <v>508</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="11" t="s">
-        <v>2298</v>
+        <v>2263</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>389</v>
+        <v>509</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" s="11" t="s">
-        <v>2311</v>
+        <v>2264</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>390</v>
+        <v>510</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" s="11" t="s">
-        <v>2324</v>
+        <v>2235</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>392</v>
+        <v>511</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="11" t="s">
-        <v>2336</v>
+        <v>2322</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>391</v>
+        <v>514</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" s="11" t="s">
-        <v>2282</v>
+        <v>2269</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>147</v>
+        <v>516</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="11" t="s">
-        <v>2363</v>
+        <v>2334</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>405</v>
+        <v>546</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="11" t="s">
-        <v>2360</v>
+        <v>2260</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>426</v>
+        <v>548</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" s="11" t="s">
-        <v>2347</v>
+        <v>2315</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>425</v>
+        <v>556</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="11" t="s">
-        <v>2354</v>
+        <v>2266</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>427</v>
+        <v>558</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" s="11" t="s">
-        <v>2351</v>
+        <v>2267</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>428</v>
+        <v>566</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="11" t="s">
-        <v>2350</v>
+        <v>2261</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>423</v>
+        <v>575</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" s="11" t="s">
-        <v>2352</v>
+        <v>2342</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>429</v>
+        <v>578</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" s="11" t="s">
-        <v>2299</v>
+        <v>2332</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>439</v>
+        <v>598</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" s="11" t="s">
-        <v>2341</v>
+        <v>2019</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>440</v>
+        <v>597</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" s="11" t="s">
-        <v>2349</v>
+        <v>2238</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>457</v>
+        <v>601</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" s="11" t="s">
-        <v>2340</v>
+        <v>2239</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>460</v>
+        <v>600</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" s="11" t="s">
-        <v>2284</v>
+        <v>2326</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>502</v>
+        <v>617</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" s="11" t="s">
-        <v>2294</v>
+        <v>2245</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>501</v>
+        <v>623</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" s="11" t="s">
-        <v>2308</v>
+        <v>2281</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>507</v>
+        <v>625</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" s="11" t="s">
-        <v>2304</v>
+        <v>2312</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>472</v>
+        <v>659</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" s="11" t="s">
-        <v>2263</v>
+        <v>2316</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>509</v>
+        <v>669</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="11" t="s">
-        <v>2329</v>
+        <v>2272</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>488</v>
+        <v>676</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="11" t="s">
-        <v>2335</v>
+        <v>2237</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>491</v>
+        <v>679</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="11" t="s">
-        <v>2328</v>
+        <v>2236</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>512</v>
+        <v>678</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="11" t="s">
-        <v>2244</v>
+        <v>2356</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>2541</v>
+        <v>680</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="11" t="s">
-        <v>2244</v>
+        <v>2333</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>503</v>
+        <v>683</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="11" t="s">
-        <v>2286</v>
+        <v>2293</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>504</v>
+        <v>685</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="11" t="s">
-        <v>2292</v>
+        <v>2362</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>505</v>
+        <v>693</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="11" t="s">
-        <v>2285</v>
+        <v>2241</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>506</v>
+        <v>694</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="11" t="s">
-        <v>2289</v>
+        <v>2240</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>508</v>
+        <v>695</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B138" s="11" t="s">
-        <v>2264</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>510</v>
-      </c>
+      <c r="B138" s="9"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B139" s="11" t="s">
-        <v>2235</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>511</v>
-      </c>
+      <c r="B139" s="9"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B140" s="11" t="s">
-        <v>2322</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>514</v>
-      </c>
+      <c r="B140" s="9"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B141" s="11" t="s">
-        <v>2269</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>516</v>
-      </c>
+      <c r="B141" s="9"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B142" s="11" t="s">
-        <v>2334</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>546</v>
-      </c>
+      <c r="B142" s="9"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B143" s="11" t="s">
-        <v>2261</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>575</v>
-      </c>
+      <c r="B143" s="9"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B144" s="11" t="s">
-        <v>2266</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B145" s="11" t="s">
-        <v>2267</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B146" s="11" t="s">
-        <v>2342</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B147" s="11" t="s">
-        <v>2342</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>2542</v>
-      </c>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B148" s="11" t="s">
-        <v>2260</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B149" s="11" t="s">
-        <v>2315</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B150" s="11" t="s">
-        <v>2019</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B151" s="11" t="s">
-        <v>2326</v>
-      </c>
-      <c r="C151" s="12" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B152" s="11" t="s">
-        <v>2281</v>
-      </c>
-      <c r="C152" s="12" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B153" s="11" t="s">
-        <v>2332</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B154" s="11" t="s">
-        <v>2239</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B155" s="11" t="s">
-        <v>2238</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B156" s="11" t="s">
-        <v>2245</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B157" s="11" t="s">
-        <v>2312</v>
-      </c>
-      <c r="C157" s="12" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B158" s="11" t="s">
-        <v>2293</v>
-      </c>
-      <c r="C158" s="12" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B159" s="11" t="s">
-        <v>2333</v>
-      </c>
-      <c r="C159" s="12" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B160" s="11" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B161" s="11" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>2543</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B162" s="11" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>2544</v>
-      </c>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B163" s="11" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>2545</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B164" s="11" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B165" s="11" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C165" s="12" t="s">
-        <v>2547</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B166" s="11" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C166" s="12" t="s">
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B167" s="11" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>2549</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B168" s="11" t="s">
-        <v>2237</v>
-      </c>
-      <c r="C168" s="12" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B169" s="11" t="s">
-        <v>2236</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B170" s="11" t="s">
-        <v>2356</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B171" s="11" t="s">
-        <v>2316</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B172" s="11" t="s">
-        <v>2241</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B173" s="11" t="s">
-        <v>2240</v>
-      </c>
-      <c r="C173" s="12" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B174" s="11" t="s">
-        <v>2362</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B175" s="9"/>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B176" s="9"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B177" s="9"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B178" s="9"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B179" s="9"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B180" s="9"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B181" s="9"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B182" s="9"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B183" s="9"/>
+      <c r="B144" s="9"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" s="9"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="B3:B182">
-    <sortCondition ref="B3:B182"/>
+  <sortState ref="B3:C174">
+    <sortCondition ref="C3:C174"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B60" r:id="rId1" tooltip="Deka MSCI China UCITS" display="https://es.investing.com/etfs/etflab-msci-china"/>
-    <hyperlink ref="B22" r:id="rId2" tooltip="db x-trackers MSCI China UCITS DR 1C" display="https://es.investing.com/etfs/db-xtrackers-msci-china-trn-uk?cid=46543"/>
-    <hyperlink ref="B18" r:id="rId3" tooltip="db x-trackers Harvest CSI300 UCITS DR" display="https://es.investing.com/etfs/db-x-trackers-harvest-csi300"/>
-    <hyperlink ref="B16" r:id="rId4" tooltip="db x-trackers CSI300 UCITS 1C" display="https://es.investing.com/etfs/db-x-trackers-csi-300-index?cid=46094"/>
-    <hyperlink ref="B70" r:id="rId5" tooltip="ICBC Credit Suisse WisdomTree S&amp;P China 500 UCITS Class B Inc" display="https://es.investing.com/etfs/icbc-crsuiss-wtre-sp-china-500-b-de"/>
-    <hyperlink ref="B17" r:id="rId6" tooltip="db x-trackers FTSE China 50 UCITS DR" display="https://es.investing.com/etfs/db-xtrackers-ftse-xinhua-china-25?cid=45808"/>
-    <hyperlink ref="B86" r:id="rId7" tooltip="Ishares Dow Jones China Offshore 50 UCITS" display="https://es.investing.com/etfs/ishares-dj-china-offshore-50---de"/>
+    <hyperlink ref="B45" r:id="rId1" tooltip="Deka MSCI China UCITS" display="https://es.investing.com/etfs/etflab-msci-china"/>
+    <hyperlink ref="B21" r:id="rId2" tooltip="db x-trackers MSCI China UCITS DR 1C" display="https://es.investing.com/etfs/db-xtrackers-msci-china-trn-uk?cid=46543"/>
+    <hyperlink ref="B19" r:id="rId3" tooltip="db x-trackers Harvest CSI300 UCITS DR" display="https://es.investing.com/etfs/db-x-trackers-harvest-csi300"/>
+    <hyperlink ref="B17" r:id="rId4" tooltip="db x-trackers CSI300 UCITS 1C" display="https://es.investing.com/etfs/db-x-trackers-csi-300-index?cid=46094"/>
+    <hyperlink ref="B54" r:id="rId5" tooltip="ICBC Credit Suisse WisdomTree S&amp;P China 500 UCITS Class B Inc" display="https://es.investing.com/etfs/icbc-crsuiss-wtre-sp-china-500-b-de"/>
+    <hyperlink ref="B18" r:id="rId6" tooltip="db x-trackers FTSE China 50 UCITS DR" display="https://es.investing.com/etfs/db-xtrackers-ftse-xinhua-china-25?cid=45808"/>
+    <hyperlink ref="B59" r:id="rId7" tooltip="Ishares Dow Jones China Offshore 50 UCITS" display="https://es.investing.com/etfs/ishares-dj-china-offshore-50---de"/>
     <hyperlink ref="B12" r:id="rId8" tooltip="ComStage HSCEI UCITS" display="https://es.investing.com/etfs/comstage-hscei"/>
-    <hyperlink ref="B106" r:id="rId9" tooltip="iShares MSCI China A UCITS USD" display="https://es.investing.com/etfs/ishares-msci-china-a-ucits-usd?cid=994116"/>
-    <hyperlink ref="B127" r:id="rId10" tooltip="Lyxor UCITS China Enterprise (HSCEI) C-EUR" display="https://es.investing.com/etfs/lyxor-china-enterprise-(hscei)?cid=45807"/>
-    <hyperlink ref="B80" r:id="rId11" tooltip="iShares China Large Cap UCITS" display="https://es.investing.com/etfs/ishares-ftse-xinhua-china25?cid=45780"/>
-    <hyperlink ref="B8" r:id="rId12" tooltip="Amundi MSCI China UCITS" display="https://es.investing.com/etfs/amundi-msci-china-de"/>
-    <hyperlink ref="B65" r:id="rId13" tooltip="Hang Seng H-Share" display="https://es.investing.com/etfs/hang-seng-h-share?cid=1010571"/>
-    <hyperlink ref="B71" r:id="rId14" tooltip="ICBC Credit Suisse WisdomTree S&amp;P China 500 UCITS Class B Inc" display="https://es.investing.com/etfs/icbc-crsuiss-wtre-sp-china-500-b-de?cid=1024748"/>
-    <hyperlink ref="B19" r:id="rId15" tooltip="db x-trackers Harvest CSI300 UCITS DR 1D" display="https://es.investing.com/etfs/db-x-trackers-harvest-csi300?cid=1024696"/>
-    <hyperlink ref="B11" r:id="rId16" tooltip="ComStage FTSE China A50 UCITS" display="https://es.investing.com/etfs/comstage-ftse-china-a50?cid=1024667"/>
-    <hyperlink ref="B72" r:id="rId17" tooltip="ICBC Credit Suisse WisdomTree S&amp;P China 500 UCITS Class B Inc" display="https://es.investing.com/etfs/icbc-crsuiss-wtre-sp-china-500-b-de?cid=1024747"/>
-    <hyperlink ref="B3" r:id="rId18" tooltip="Amundi ETF MSCI Emerging Markets UCITS" display="https://es.investing.com/etfs/amundi-etf-msci-emerging-markets?cid=45949"/>
-    <hyperlink ref="B74" r:id="rId19" tooltip="iShares Automation Robotics TG" display="https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009408"/>
-    <hyperlink ref="B24" r:id="rId20" tooltip="db x-trackers MSCI Emerging Markets UCITS" display="https://es.investing.com/etfs/db-x-trackers-msci-em-trn-idx-etf?cid=45821"/>
-    <hyperlink ref="B83" r:id="rId21" tooltip="iShares Core MSCI World UCITS" display="https://es.investing.com/etfs/ishares-msci-world---acc?cid=45873"/>
-    <hyperlink ref="B170" r:id="rId22" tooltip="UBS MSCI Emerging Markets Socially Responsible UCITS A-dis" display="https://es.investing.com/etfs/ubs-msci-em-socially-resp-adis"/>
-    <hyperlink ref="B118" r:id="rId23" tooltip="iShares MSCI World UCITS Dist" display="https://es.investing.com/etfs/ishares-msci-world---gbp?cid=38614"/>
-    <hyperlink ref="B89" r:id="rId24" tooltip="iShares Edge MSCI World Multifactor UCITS" display="https://es.investing.com/etfs/ishares-edge-msci-world-mf-gbp?cid=994123"/>
-    <hyperlink ref="B14" r:id="rId25" tooltip="ComStage MSCI World TRN UCITS" display="https://es.investing.com/etfs/comstage-msci-world-trn"/>
-    <hyperlink ref="B110" r:id="rId26" tooltip="iShares MSCI Emerging Markets UCITS Acc" display="https://es.investing.com/etfs/ishares-msci-emerging-mrkt---acc?cid=46604"/>
-    <hyperlink ref="B81" r:id="rId27" tooltip="iShares Core MSCI Emerging Markets IMI UCITS" display="https://es.investing.com/etfs/ishares-core-msci-em-imi?cid=994133"/>
-    <hyperlink ref="B92" r:id="rId28" tooltip="iShares Edge MSCI World Multifactor UCITS Hedged Acc" display="https://es.investing.com/etfs/ishares-edge-msci-wrld-multihdg-acc"/>
-    <hyperlink ref="B85" r:id="rId29" tooltip="iShares Digitalisation UCITS USD Acc" display="https://es.investing.com/etfs/ishares-digitalisation-acc?cid=1080073"/>
-    <hyperlink ref="B130" r:id="rId30" tooltip="Lyxor UCITS MSCI Emerging Markets C-EUR" display="https://es.investing.com/etfs/lyxor-msci-emerging-markets?cid=46020"/>
-    <hyperlink ref="B45" r:id="rId31" tooltip="db x-trackers MSCI World Quality Factor UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-qlt-fct-dr-1c"/>
-    <hyperlink ref="B122" r:id="rId32" tooltip="iShares STOXX Global Select Dividend 100 UCITS" display="https://es.investing.com/etfs/ishares-stoxx-global-sel-div.-100"/>
-    <hyperlink ref="B111" r:id="rId33" tooltip="iShares MSCI Emerging Markets UCITS Dist" display="https://es.investing.com/etfs/ishares-msci-emerging-market?cid=46607"/>
-    <hyperlink ref="B160" r:id="rId34" tooltip="UBS ETF MSCI World UCITS USD A-dis" display="https://es.investing.com/etfs/ubs-etf-msci-world-a"/>
-    <hyperlink ref="B47" r:id="rId35" tooltip="db x-trackers MSCI World UCITS 1C" display="https://es.investing.com/etfs/db-xtrackers-msci-world-trn-uk?cid=46409"/>
-    <hyperlink ref="B84" r:id="rId36" tooltip="iShares Developed Markets Property Yield UCITS" display="https://es.investing.com/etfs/ishares-ftse-nareit-dev.-markets?cid=38605"/>
-    <hyperlink ref="B123" r:id="rId37" tooltip="iShares Sustainable MSCI Emerging Markets SRI UCITS" display="https://es.investing.com/etfs/ishares-sust-msci-em-sri"/>
-    <hyperlink ref="B146" r:id="rId38" tooltip="ROBO-STOX Global Robotics and Automation GO UCITS" display="https://es.investing.com/etfs/robo-stox-global-robotics"/>
-    <hyperlink ref="B38" r:id="rId39" tooltip="dbxtrck MSCI Wrld InfoTech DR 1C TG" display="https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009153"/>
-    <hyperlink ref="B99" r:id="rId40" tooltip="iShares HC Innov Acc TG" display="https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009026"/>
-    <hyperlink ref="B28" r:id="rId41" tooltip="db x-trackers MSCI World Consumer Staples UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055038"/>
-    <hyperlink ref="B116" r:id="rId42" tooltip="iShares MSCI World Quality Factor UCITS" display="https://es.investing.com/etfs/ishares-msci-wrld-quality-factor"/>
-    <hyperlink ref="B75" r:id="rId43" tooltip="iShares Automation &amp; Robotics UCITS" display="https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009419"/>
-    <hyperlink ref="B93" r:id="rId44" tooltip="iShares Emerging Markets Dividend UCITS" display="https://es.investing.com/etfs/ishares-dj-em-select-dividend-%C2%A3?cid=46600"/>
-    <hyperlink ref="B115" r:id="rId45" tooltip="iShares MSCI World Momentum Factor UCITS" display="https://es.investing.com/etfs/ishares-msci-world-momentum-factor"/>
-    <hyperlink ref="B13" r:id="rId46" tooltip="ComStage MSCI Emerging Markets TRN UCITS" display="https://es.investing.com/etfs/comstage-msci-emerging-markets-trn"/>
-    <hyperlink ref="B26" r:id="rId47" tooltip="db x-trackers MSCI World UCITS 4C" display="https://es.investing.com/etfs/dbxtrck-msci-world-4c"/>
-    <hyperlink ref="B36" r:id="rId48" tooltip="db x-trackers MSCI World Financials UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-finls-dr-1c"/>
-    <hyperlink ref="B142" r:id="rId49" tooltip="Lyxor UCITS World Water D-EUR" display="https://es.investing.com/etfs/lyxor-world-water?cid=46017"/>
-    <hyperlink ref="B73" r:id="rId50" tooltip="iShares Ageing Population UCITS Acc" display="https://es.investing.com/etfs/ishares-ageing-population-acc?cid=1037050"/>
-    <hyperlink ref="B59" r:id="rId51" tooltip="db x-trackers STOXX Global Select Dividend 100 UCITS 1D" display="https://es.investing.com/etfs/db-xtrackers-stoxx-glbl-div-100?cid=46096"/>
-    <hyperlink ref="B114" r:id="rId52" tooltip="iShares MSCI World EUR Hedged UCITS" display="https://es.investing.com/etfs/ishares-msci-world-mon.-hedged?cid=46487"/>
-    <hyperlink ref="B171" r:id="rId53" tooltip="UBS MSCI Emerging Markets UCITS" display="https://es.investing.com/etfs/ubs-etf-msci-emerging-markets-a"/>
-    <hyperlink ref="B27" r:id="rId54" tooltip="db x-trackers MSCI World Consumer Discretionary UCITS DR 1C" display="https://es.investing.com/etfs/db-xtrack-msci-wrld-cons-disc-1c?cid=1024387"/>
-    <hyperlink ref="B119" r:id="rId55" tooltip="iShares MSCI World Value Factor UCITS" display="https://es.investing.com/etfs/ishares-msci-wrld-value-factor"/>
-    <hyperlink ref="B76" r:id="rId56" tooltip="iShares Automation Robotics TG" display="https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009457"/>
-    <hyperlink ref="B121" r:id="rId57" tooltip="iShares S&amp;P Gold Producers UCITS" display="https://es.investing.com/etfs/ishares-s-p-commodity-prod.-gold"/>
-    <hyperlink ref="B100" r:id="rId58" tooltip="iShares Healthcare Innovation UCITS Acc" display="https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009078"/>
-    <hyperlink ref="B90" r:id="rId59" tooltip="iShares Edge MSCI World Minimum Volatility UCITS" display="https://es.investing.com/etfs/ishares-edge-msci-world-min-vol"/>
-    <hyperlink ref="B129" r:id="rId60" tooltip="Lyxor UCITS MSCI All Country World C-EUR" display="https://es.investing.com/etfs/lyxor-msci-all-country-world-de"/>
-    <hyperlink ref="B98" r:id="rId61" tooltip="iShares Global Water UCITS" display="https://es.investing.com/etfs/ishares-s-p-glbl-water?cid=46491"/>
-    <hyperlink ref="B105" r:id="rId62" tooltip="iShares MSCI ACWI UCITS" display="https://es.investing.com/etfs/ishares-v-msci-acwi?cid=46483"/>
-    <hyperlink ref="B82" r:id="rId63" tooltip="iShares Core MSCI EM IMI UCITS Acc" display="https://es.investing.com/etfs/ishares-core-msci-em-imi?cid=1024491"/>
-    <hyperlink ref="B117" r:id="rId64" tooltip="iShares MSCI World Size Factor UCITS" display="https://es.investing.com/etfs/ishares-msci-wrld-size-factor"/>
-    <hyperlink ref="B88" r:id="rId65" tooltip="iShares Dow Jones Global Titans 50 UCITS" display="https://es.investing.com/etfs/ishares-dj-global-titans-50"/>
-    <hyperlink ref="B49" r:id="rId66" tooltip="db x-trackers MSCI World Value Factor UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-val-fct-dr-1c"/>
-    <hyperlink ref="B149" r:id="rId67" tooltip="Source MSCI World UCITS" display="https://es.investing.com/etfs/msci-world-source?cid=46070"/>
-    <hyperlink ref="B104" r:id="rId68" tooltip="iShares Listed Private Equity UCITS" display="https://es.investing.com/etfs/ishares-s-p-listed-private-eqty?cid=46492"/>
-    <hyperlink ref="B169" r:id="rId69" tooltip="UBS Irl plc Solactive Global Pure Gold Miners UCITS A-dis" display="https://es.investing.com/etfs/ubs-irl-plc-sol-glbl-gold-min-adis?cid=1024390"/>
-    <hyperlink ref="B101" r:id="rId70" tooltip="iShares HC Innov Acc TG" display="https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009080"/>
-    <hyperlink ref="B37" r:id="rId71" tooltip="db x-trackers MSCI World Industrials UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-indust-dr-1c"/>
-    <hyperlink ref="B35" r:id="rId72" tooltip="db x-trackers MSCI World Energy UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-energy-dr-1c"/>
-    <hyperlink ref="B20" r:id="rId73" tooltip="db x-trackers MSCI AC World UCITS DR" display="https://es.investing.com/etfs/db-x-trackers-msci-ac-world-index"/>
-    <hyperlink ref="B25" r:id="rId74" tooltip="db x-trackers MSCI World Health Care UCITS 1C" display="https://es.investing.com/etfs/db-x-trackers-msci-wrd-hlth-care-de"/>
-    <hyperlink ref="B131" r:id="rId75" tooltip="Lyxor UCITS MSCI World D-EUR" display="https://es.investing.com/etfs/lyxor-msci-world?cid=46273"/>
-    <hyperlink ref="B62" r:id="rId76" tooltip="ETFS DAXglobal Gold Mining GO UCITS" display="https://es.investing.com/etfs/etfx-daxglobal-gold-mining-fund"/>
-    <hyperlink ref="B159" r:id="rId77" tooltip="UBS ETF MSCI World Socially Responsible UCITS USD A-dis" display="https://es.investing.com/etfs/ubs-msci-world-socially-resp.-a-de"/>
-    <hyperlink ref="B46" r:id="rId78" tooltip="db x-trackers MSCI World Telecom Services UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-wrld-tlcom-srvc-dr-1c"/>
-    <hyperlink ref="B29" r:id="rId79" tooltip="db x-trackers MSCI World Consumer Staples UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c"/>
-    <hyperlink ref="B151" r:id="rId80" tooltip="SPDR MSCI World Small Cap UCITS" display="https://es.investing.com/etfs/spdr-msci-world-small-cap?cid=1024392"/>
-    <hyperlink ref="B48" r:id="rId81" tooltip="db x-trackers MSCI World Utilities UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-util-dr-1c"/>
-    <hyperlink ref="B109" r:id="rId82" tooltip="iShares MSCI Emerging Markets SmallCap UCITS" display="https://es.investing.com/etfs/ishares-msci-em-smlcap-$?cid=46606"/>
-    <hyperlink ref="B120" r:id="rId83" tooltip="iShares S&amp;P Commodity Producers Oil and Gas UCITS" display="https://es.investing.com/etfs/ishares-s-p-comm.-prod.-oil-gas"/>
-    <hyperlink ref="B153" r:id="rId84" tooltip="SSgA SPDR MSCI ACWI" display="https://es.investing.com/etfs/spdr-msci-acwi?cid=46046"/>
-    <hyperlink ref="B155" r:id="rId85" tooltip="SSgA SPDR MSCI Emerging Markets UCITS" display="https://es.investing.com/etfs/spdr-msci-emerging-markets?cid=45850"/>
-    <hyperlink ref="B96" r:id="rId86" tooltip="iShares Global Clean Energy UCITS" display="https://es.investing.com/etfs/ishares-global-clean-energy?cid=45836"/>
-    <hyperlink ref="B39" r:id="rId87" tooltip="db x-trackers MSCI World Information Technology UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009167"/>
-    <hyperlink ref="B57" r:id="rId88" tooltip="db x-trackers S&amp;P Global Infrastructure UCITS 1C" display="https://es.investing.com/etfs/db-xtrackers-s-p-global-infr.-uk?cid=38694"/>
-    <hyperlink ref="B40" r:id="rId89" tooltip="dbxtrck MSCI Wrld InfoTech DR 1C TG" display="https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009205"/>
-    <hyperlink ref="B42" r:id="rId90" tooltip="db x-trackers MSCI World Materials UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-mats-dr-1c"/>
-    <hyperlink ref="B97" r:id="rId91" tooltip="iShares Global Infrastructure UCITS" display="https://es.investing.com/etfs/ishares-macquarie-global-inf.-100?cid=38611"/>
-    <hyperlink ref="B126" r:id="rId92" tooltip="Lyxor MSCI World Information Technology TR UCITS C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-info-tech-tr?cid=46225"/>
-    <hyperlink ref="B94" r:id="rId93" tooltip="iShares Emerging Markets Infrastructure UCITS" display="https://es.investing.com/etfs/ishares-s-p-emerging-mkts-infr.?cid=46608"/>
-    <hyperlink ref="B61" r:id="rId94" tooltip="Deka MSCI Emerging Markets UCITS" display="https://es.investing.com/etfs/etflab-msci-emerging-markets"/>
-    <hyperlink ref="B135" r:id="rId95" tooltip="Lyxor UCITS MSCI World Health Care TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-health-care-tr?cid=46008"/>
-    <hyperlink ref="B58" r:id="rId96" tooltip="db x-trackers S&amp;P Select Frontier UCITS 1C" display="https://es.investing.com/etfs/db-xtrackers-s-p-select-frontier"/>
-    <hyperlink ref="B161" r:id="rId97" tooltip="UBS MSCI World UCITS A-dis" display="https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024716"/>
-    <hyperlink ref="B140" r:id="rId98" tooltip="Lyxor UCITS New Energy D-EUR" display="https://es.investing.com/etfs/lyxor-new-energy?cid=46168"/>
-    <hyperlink ref="B6" r:id="rId99" tooltip="Amundi ETF MSCI World Ex Europe UCITS" display="https://es.investing.com/etfs/amundi-msci-world-x-europe---eur?cid=46114"/>
-    <hyperlink ref="B102" r:id="rId100" tooltip="iShares HC Innov Acc TG" display="https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009059"/>
-    <hyperlink ref="B5" r:id="rId101" tooltip="Amundi ETF MSCI World Ex EMU UCITS" display="https://es.investing.com/etfs/amundi-etf-msci-world-x-emu?cid=45985"/>
-    <hyperlink ref="B77" r:id="rId102" tooltip="iShares Automation Robotics TG" display="https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009418"/>
-    <hyperlink ref="B162" r:id="rId103" tooltip="UBS MSCI World UCITS A-dis" display="https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024717"/>
-    <hyperlink ref="B50" r:id="rId104" tooltip="db x-trackers Portfolio Total Return UCITS 1C" display="https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056533"/>
-    <hyperlink ref="B124" r:id="rId105" tooltip="Lyxor MSCI World Consumer Discretionary TR UCITS C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-consumer-disc.-tr?cid=46122"/>
-    <hyperlink ref="B128" r:id="rId106" tooltip="Lyxor UCITS FTSE EPRA/NAREIT Global Developed D-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-real-estate?cid=46031"/>
-    <hyperlink ref="B154" r:id="rId107" tooltip="SSgA SPDR MSCI Emerging Markets Small Cap" display="https://es.investing.com/etfs/spdr-msci-em-smlcap?cid=45851"/>
-    <hyperlink ref="B108" r:id="rId108" tooltip="iShares Edge MSCI Emerging Markets Minimum Volatility UCITS" display="https://es.investing.com/etfs/ishares-msci-em-minimum-volatility?cid=994135"/>
-    <hyperlink ref="B136" r:id="rId109" tooltip="Lyxor UCITS MSCI World Industrials TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-industrials-tr?cid=46010"/>
-    <hyperlink ref="B87" r:id="rId110" tooltip="iShares Dow Jones Global Sustainability Screened UCITS" display="https://es.investing.com/etfs/ishares-dj-global-sust-screened-uk?cid=38617"/>
-    <hyperlink ref="B150" r:id="rId111" tooltip="SPDR MSCI ACWI IMI" display="https://es.investing.com/etfs/spdr-msci-acwi-imi-de"/>
-    <hyperlink ref="B9" r:id="rId112" tooltip="Amundi MSCI World UCITS" display="https://es.investing.com/etfs/amundi-msci-world-de"/>
-    <hyperlink ref="B41" r:id="rId113" tooltip="dbxtrck MSCI Wrld InfoTech DR 1C TG" display="https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009166"/>
-    <hyperlink ref="B4" r:id="rId114" tooltip="Amundi ETF MSCI World Energy UCITS" display="https://es.investing.com/etfs/amundi-etf-msci-world-energy---eur?cid=45995"/>
-    <hyperlink ref="B168" r:id="rId115" tooltip="UBS Irl plc Solactive Global Oil Equities UCITS A-dis" display="https://es.investing.com/etfs/ubs-irl-plc-solactive-glbl-oil-adis?cid=1024391"/>
-    <hyperlink ref="B79" r:id="rId116" tooltip="iShares BRIC 50 UCITS" display="https://es.investing.com/etfs/ishares-ftse-birc-50---ie?cid=38607"/>
-    <hyperlink ref="B10" r:id="rId117" tooltip="ComStage Alpha Dividende Plus UCITS" display="https://es.investing.com/etfs/comstage-alpha-dividende-plus"/>
-    <hyperlink ref="B139" r:id="rId118" tooltip="Lyxor UCITS MSCI World Utilities TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-utilities-tr?cid=46272"/>
-    <hyperlink ref="B103" r:id="rId119" tooltip="iShares HC Innov Acc TG" display="https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009079"/>
-    <hyperlink ref="B30" r:id="rId120" tooltip="db x-trackers MSCI World Consumer Staples UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055040"/>
-    <hyperlink ref="B78" r:id="rId121" tooltip="iShares Automation Robotics TG" display="https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009435"/>
-    <hyperlink ref="B148" r:id="rId122" tooltip="Source MSCI Emerging Markets UCITS" display="https://es.investing.com/etfs/msci-emerging-mrktssource-de"/>
-    <hyperlink ref="B63" r:id="rId123" tooltip="ETFS ISE Cyber Security GO UCITS Accumulating share" display="https://es.investing.com/etfs/etfs-ise-cyber-sec-go-accum"/>
-    <hyperlink ref="B51" r:id="rId124" tooltip="db x-trackers Portfolio Total Return UCITS 1C" display="https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056531"/>
-    <hyperlink ref="B95" r:id="rId125" tooltip="iShares Exponential Technologies" display="https://es.investing.com/etfs/ishares-exponential-tech-mu"/>
-    <hyperlink ref="B132" r:id="rId126" tooltip="Lyxor UCITS MSCI World Energy TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-energy-tr?cid=996756"/>
-    <hyperlink ref="B163" r:id="rId127" tooltip="UBS MSCI World UCITS A-dis" display="https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024715"/>
-    <hyperlink ref="B31" r:id="rId128" tooltip="db x-trackers MSCI World Consumer Staples UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055039"/>
-    <hyperlink ref="B164" r:id="rId129" tooltip="UBS MSCI World UCITS A-dis" display="https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024711"/>
-    <hyperlink ref="B147" r:id="rId130" tooltip="ROBO Global Robotics and Automation GO UCITS" display="https://es.investing.com/etfs/robo-stox-global-robotics?cid=1052316"/>
-    <hyperlink ref="B67" r:id="rId131" tooltip="HSBC MSCI World UCITS" display="https://es.investing.com/etfs/hsbc-msci-world"/>
-    <hyperlink ref="B165" r:id="rId132" tooltip="UBS MSCI World UCITS A-dis" display="https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024712"/>
-    <hyperlink ref="B32" r:id="rId133" tooltip="db x-trackers MSCI World Consumer Staples UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055036"/>
-    <hyperlink ref="B52" r:id="rId134" tooltip="db x-trackers Portfolio Total Return UCITS 1C" display="https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056529"/>
-    <hyperlink ref="B53" r:id="rId135" tooltip="db x-trackers Portfolio Total Return UCITS 1C" display="https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056532"/>
-    <hyperlink ref="B166" r:id="rId136" tooltip="UBS MSCI World UCITS A-dis" display="https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024714"/>
-    <hyperlink ref="B54" r:id="rId137" tooltip="db x-trackers Portfolio Total Return UCITS 1C" display="https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056527"/>
-    <hyperlink ref="B113" r:id="rId138" tooltip="iShares MSCI Global Gold Miners" display="https://es.investing.com/etfs/ishares-msci-global-gold-miners-be"/>
-    <hyperlink ref="B55" r:id="rId139" tooltip="db x-trackers Portfolio Total Return UCITS 1C" display="https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056528"/>
-    <hyperlink ref="B144" r:id="rId140" tooltip="Ossiam Emerging Markets Minimum Variance NR UCITS 1C" display="https://es.investing.com/etfs/ossiam-em-min-variance-nr-(eur)-de"/>
-    <hyperlink ref="B64" r:id="rId141" tooltip="FundLogic Alternatives plc MS Scientific Beta Global Equity Factors UCITS" display="https://es.investing.com/etfs/fundlogic-alter-plc-ms-scibeta-glbl"/>
-    <hyperlink ref="B174" r:id="rId142" tooltip="WisdomTree Emerging Markets Equity Income UCITS Acc" display="https://es.investing.com/etfs/wisdomtree-em-equity-incacc"/>
-    <hyperlink ref="B133" r:id="rId143" tooltip="Lyxor UCITS MSCI World Energy TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-energy-tr?cid=46033"/>
-    <hyperlink ref="B138" r:id="rId144" tooltip="Lyxor UCITS MSCI World Telecom Services TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-telecom-ser.-tr?cid=46041"/>
-    <hyperlink ref="B145" r:id="rId145" tooltip="PowerShares FTSE RAFI Emerging Markets UCITS" display="https://es.investing.com/etfs/powershares-dynamic-europe-fund?cid=45898"/>
-    <hyperlink ref="B23" r:id="rId146" tooltip="db x-trackers MSCI EM EMEA UCITS" display="https://es.investing.com/etfs/db-x-trackers-msci-em-emea-trn"/>
-    <hyperlink ref="B137" r:id="rId147" tooltip="Lyxor UCITS MSCI World Materials TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-materials-tr?cid=46025"/>
-    <hyperlink ref="B91" r:id="rId148" tooltip="iShares Edge MSCI World Minimum Volatility UCITS Hedged Acc" display="https://es.investing.com/etfs/ishrs-edge-msci-wrld-minvol-hdg-acc"/>
-    <hyperlink ref="B15" r:id="rId149" tooltip="ComStage S&amp;P SMIT 40 UCITS" display="https://es.investing.com/etfs/comstage-s-p-smit-40-trn?cid=1024623"/>
-    <hyperlink ref="B112" r:id="rId150" tooltip="iShares MSCI EMU USD Hedged UCITS" display="https://es.investing.com/etfs/cs-etf(ie)on-cs-gbl-altrn.engy"/>
-    <hyperlink ref="B107" r:id="rId151" tooltip="iShares MSCI Emerging Markets Consumer Growth UCITS" display="https://es.investing.com/etfs/ishares-msci-em-consumer-growth"/>
-    <hyperlink ref="B7" r:id="rId152" tooltip="Amundi ETF MSCI World Financials UCITS" display="https://es.investing.com/etfs/amundi-msci-world-financials---eur"/>
-    <hyperlink ref="B157" r:id="rId153" tooltip="UBS (Irl) DJ Global Select Dividend" display="https://es.investing.com/etfs/ubs-(irl)-dj-global-select-dividend?cid=949270"/>
-    <hyperlink ref="B143" r:id="rId154" tooltip="Market Access DAXGlobal BRIC UCITS" display="https://es.investing.com/etfs/rbs-market-access-dax-global-birc"/>
-    <hyperlink ref="B172" r:id="rId155" tooltip="WisdomTree Emerging Markets Equity Income UCITS" display="https://es.investing.com/etfs/wisdomtree-em-equity-income-de"/>
-    <hyperlink ref="B173" r:id="rId156" tooltip="WisdomTree Emerging Markets SmallCap Dividend UCITS" display="https://es.investing.com/etfs/wisdomtree-em-smallcap-de"/>
-    <hyperlink ref="B141" r:id="rId157" tooltip="Lyxor UCITS Privex D-EUR" display="https://es.investing.com/etfs/lyxor-privex?cid=46192"/>
-    <hyperlink ref="B158" r:id="rId158" tooltip="UBS (Irl) ETF plc - MSCI World UCITS USD A-dis" display="https://es.investing.com/etfs/ubs-plc-msci-world-(usd)-a-de"/>
-    <hyperlink ref="B68" r:id="rId159" tooltip="HSBC Multi Factor Worldwide Equity UCITS" display="https://es.investing.com/etfs/hsbc-multifactor-worldwide-eq-ucits"/>
-    <hyperlink ref="B156" r:id="rId160" tooltip="SSgA SPDR S&amp;P Emerging Markets Dividend" display="https://es.investing.com/etfs/spdr-s-p-emerging-mrktsdividend-uk?cid=45833"/>
-    <hyperlink ref="B66" r:id="rId161" tooltip="HSBC Economic Scale Worldwide Equity UCITS" display="https://es.investing.com/etfs/hsbc-eco-scale-worldwide-eq-ucits"/>
-    <hyperlink ref="B56" r:id="rId162" tooltip="db x-trackers Portfolio Total Return UCITS 1C" display="https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056526"/>
-    <hyperlink ref="B33" r:id="rId163" tooltip="db x-trackers MSCI World Consumer Staples UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c?cid=1055035"/>
-    <hyperlink ref="B69" r:id="rId164" tooltip="HSBC Multi Factor Worldwide Equity UCITS" display="https://es.investing.com/etfs/hsbc-multifactor-worldwide-eq-ucits?cid=1080070"/>
-    <hyperlink ref="B125" r:id="rId165" tooltip="Lyxor MSCI World Consumer Staples TR UCITS C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-cons.-st.-tr?cid=45990"/>
-    <hyperlink ref="B167" r:id="rId166" tooltip="UBS MSCI World UCITS A-dis" display="https://es.investing.com/etfs/ubs-etf-msci-world-a?cid=1024713"/>
-    <hyperlink ref="B34" r:id="rId167" tooltip="db x-trackers MSCI World UCITS DR 1D" display="https://es.investing.com/etfs/dbxtrack-msci-world-dr-1d"/>
-    <hyperlink ref="B152" r:id="rId168" tooltip="SPDR S&amp;P Global Dividend Aristocrats UCITS" display="https://es.investing.com/etfs/spdr-s-p-global-dividend-aristocrat?cid=1024489"/>
-    <hyperlink ref="B21" r:id="rId169" tooltip="db x-trackers MSCI AC World UCITS DR 1C" display="https://es.investing.com/etfs/db-x-trackers-msci-ac-world-index?cid=1024490"/>
-    <hyperlink ref="B134" r:id="rId170" tooltip="Lyxor UCITS MSCI World Financials TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-financials-tr?cid=46006"/>
-    <hyperlink ref="B43" r:id="rId171" tooltip="db x-trackers MSCI World Minimum Volatility UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-minvol-dr-1c"/>
-    <hyperlink ref="B44" r:id="rId172" tooltip="db x-trackers MSCI World Momentum Factor UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrck-msci-world-mom-fact-dr1c"/>
+    <hyperlink ref="B73" r:id="rId9" tooltip="iShares MSCI China A UCITS USD" display="https://es.investing.com/etfs/ishares-msci-china-a-ucits-usd?cid=994116"/>
+    <hyperlink ref="B96" r:id="rId10" tooltip="Lyxor UCITS China Enterprise (HSCEI) C-EUR" display="https://es.investing.com/etfs/lyxor-china-enterprise-(hscei)?cid=45807"/>
+    <hyperlink ref="B69" r:id="rId11" tooltip="iShares China Large Cap UCITS" display="https://es.investing.com/etfs/ishares-ftse-xinhua-china25?cid=45780"/>
+    <hyperlink ref="B6" r:id="rId12" tooltip="Amundi MSCI China UCITS" display="https://es.investing.com/etfs/amundi-msci-china-de"/>
+    <hyperlink ref="B50" r:id="rId13" tooltip="Hang Seng H-Share" display="https://es.investing.com/etfs/hang-seng-h-share?cid=1010571"/>
+    <hyperlink ref="B11" r:id="rId14" tooltip="ComStage FTSE China A50 UCITS" display="https://es.investing.com/etfs/comstage-ftse-china-a50?cid=1024667"/>
+    <hyperlink ref="B3" r:id="rId15" tooltip="Amundi ETF MSCI Emerging Markets UCITS" display="https://es.investing.com/etfs/amundi-etf-msci-emerging-markets?cid=45949"/>
+    <hyperlink ref="B56" r:id="rId16" tooltip="iShares Automation Robotics TG" display="https://es.investing.com/etfs/ishares-automation-robotics-acc?cid=1009408"/>
+    <hyperlink ref="B23" r:id="rId17" tooltip="db x-trackers MSCI Emerging Markets UCITS" display="https://es.investing.com/etfs/db-x-trackers-msci-em-trn-idx-etf?cid=45821"/>
+    <hyperlink ref="B80" r:id="rId18" tooltip="iShares Core MSCI World UCITS" display="https://es.investing.com/etfs/ishares-msci-world---acc?cid=45873"/>
+    <hyperlink ref="B132" r:id="rId19" tooltip="UBS MSCI Emerging Markets Socially Responsible UCITS A-dis" display="https://es.investing.com/etfs/ubs-msci-em-socially-resp-adis"/>
+    <hyperlink ref="B81" r:id="rId20" tooltip="iShares MSCI World UCITS Dist" display="https://es.investing.com/etfs/ishares-msci-world---gbp?cid=38614"/>
+    <hyperlink ref="B63" r:id="rId21" tooltip="iShares Edge MSCI World Multifactor UCITS" display="https://es.investing.com/etfs/ishares-edge-msci-world-mf-gbp?cid=994123"/>
+    <hyperlink ref="B14" r:id="rId22" tooltip="ComStage MSCI World TRN UCITS" display="https://es.investing.com/etfs/comstage-msci-world-trn"/>
+    <hyperlink ref="B76" r:id="rId23" tooltip="iShares MSCI Emerging Markets UCITS Acc" display="https://es.investing.com/etfs/ishares-msci-emerging-mrkt---acc?cid=46604"/>
+    <hyperlink ref="B65" r:id="rId24" tooltip="iShares Edge MSCI World Multifactor UCITS Hedged Acc" display="https://es.investing.com/etfs/ishares-edge-msci-wrld-multihdg-acc"/>
+    <hyperlink ref="B58" r:id="rId25" tooltip="iShares Digitalisation UCITS USD Acc" display="https://es.investing.com/etfs/ishares-digitalisation-acc?cid=1080073"/>
+    <hyperlink ref="B98" r:id="rId26" tooltip="Lyxor UCITS MSCI Emerging Markets C-EUR" display="https://es.investing.com/etfs/lyxor-msci-emerging-markets?cid=46020"/>
+    <hyperlink ref="B36" r:id="rId27" tooltip="db x-trackers MSCI World Quality Factor UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-qlt-fct-dr-1c"/>
+    <hyperlink ref="B92" r:id="rId28" tooltip="iShares STOXX Global Select Dividend 100 UCITS" display="https://es.investing.com/etfs/ishares-stoxx-global-sel-div.-100"/>
+    <hyperlink ref="B75" r:id="rId29" tooltip="iShares MSCI Emerging Markets UCITS Dist" display="https://es.investing.com/etfs/ishares-msci-emerging-market?cid=46607"/>
+    <hyperlink ref="B129" r:id="rId30" tooltip="UBS ETF MSCI World UCITS USD A-dis" display="https://es.investing.com/etfs/ubs-etf-msci-world-a"/>
+    <hyperlink ref="B24" r:id="rId31" tooltip="db x-trackers MSCI World UCITS 1C" display="https://es.investing.com/etfs/db-xtrackers-msci-world-trn-uk?cid=46409"/>
+    <hyperlink ref="B68" r:id="rId32" tooltip="iShares Developed Markets Property Yield UCITS" display="https://es.investing.com/etfs/ishares-ftse-nareit-dev.-markets?cid=38605"/>
+    <hyperlink ref="B93" r:id="rId33" tooltip="iShares Sustainable MSCI Emerging Markets SRI UCITS" display="https://es.investing.com/etfs/ishares-sust-msci-em-sri"/>
+    <hyperlink ref="B119" r:id="rId34" tooltip="ROBO-STOX Global Robotics and Automation GO UCITS" display="https://es.investing.com/etfs/robo-stox-global-robotics"/>
+    <hyperlink ref="B44" r:id="rId35" tooltip="dbxtrck MSCI Wrld InfoTech DR 1C TG" display="https://es.investing.com/etfs/dbxtrck-msci-wrld-infotech-dr-1c-mi?cid=1009153"/>
+    <hyperlink ref="B71" r:id="rId36" tooltip="iShares HC Innov Acc TG" display="https://es.investing.com/etfs/ishares-hc-innov-acc-mi?cid=1009026"/>
+    <hyperlink ref="B84" r:id="rId37" tooltip="iShares MSCI World Quality Factor UCITS" display="https://es.investing.com/etfs/ishares-msci-wrld-quality-factor"/>
+    <hyperlink ref="B60" r:id="rId38" tooltip="iShares Emerging Markets Dividend UCITS" display="https://es.investing.com/etfs/ishares-dj-em-select-dividend-%C2%A3?cid=46600"/>
+    <hyperlink ref="B82" r:id="rId39" tooltip="iShares MSCI World Momentum Factor UCITS" display="https://es.investing.com/etfs/ishares-msci-world-momentum-factor"/>
+    <hyperlink ref="B13" r:id="rId40" tooltip="ComStage MSCI Emerging Markets TRN UCITS" display="https://es.investing.com/etfs/comstage-msci-emerging-markets-trn"/>
+    <hyperlink ref="B42" r:id="rId41" tooltip="db x-trackers MSCI World UCITS 4C" display="https://es.investing.com/etfs/dbxtrck-msci-world-4c"/>
+    <hyperlink ref="B32" r:id="rId42" tooltip="db x-trackers MSCI World Financials UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-finls-dr-1c"/>
+    <hyperlink ref="B113" r:id="rId43" tooltip="Lyxor UCITS World Water D-EUR" display="https://es.investing.com/etfs/lyxor-world-water?cid=46017"/>
+    <hyperlink ref="B55" r:id="rId44" tooltip="iShares Ageing Population UCITS Acc" display="https://es.investing.com/etfs/ishares-ageing-population-acc?cid=1037050"/>
+    <hyperlink ref="B29" r:id="rId45" tooltip="db x-trackers STOXX Global Select Dividend 100 UCITS 1D" display="https://es.investing.com/etfs/db-xtrackers-stoxx-glbl-div-100?cid=46096"/>
+    <hyperlink ref="B83" r:id="rId46" tooltip="iShares MSCI World EUR Hedged UCITS" display="https://es.investing.com/etfs/ishares-msci-world-mon.-hedged?cid=46487"/>
+    <hyperlink ref="B128" r:id="rId47" tooltip="UBS MSCI Emerging Markets UCITS" display="https://es.investing.com/etfs/ubs-etf-msci-emerging-markets-a"/>
+    <hyperlink ref="B39" r:id="rId48" tooltip="db x-trackers MSCI World Consumer Discretionary UCITS DR 1C" display="https://es.investing.com/etfs/db-xtrack-msci-wrld-cons-disc-1c?cid=1024387"/>
+    <hyperlink ref="B86" r:id="rId49" tooltip="iShares MSCI World Value Factor UCITS" display="https://es.investing.com/etfs/ishares-msci-wrld-value-factor"/>
+    <hyperlink ref="B88" r:id="rId50" tooltip="iShares S&amp;P Gold Producers UCITS" display="https://es.investing.com/etfs/ishares-s-p-commodity-prod.-gold"/>
+    <hyperlink ref="B64" r:id="rId51" tooltip="iShares Edge MSCI World Minimum Volatility UCITS" display="https://es.investing.com/etfs/ishares-edge-msci-world-min-vol"/>
+    <hyperlink ref="B97" r:id="rId52" tooltip="Lyxor UCITS MSCI All Country World C-EUR" display="https://es.investing.com/etfs/lyxor-msci-all-country-world-de"/>
+    <hyperlink ref="B90" r:id="rId53" tooltip="iShares Global Water UCITS" display="https://es.investing.com/etfs/ishares-s-p-glbl-water?cid=46491"/>
+    <hyperlink ref="B94" r:id="rId54" tooltip="iShares MSCI ACWI UCITS" display="https://es.investing.com/etfs/ishares-v-msci-acwi?cid=46483"/>
+    <hyperlink ref="B57" r:id="rId55" tooltip="iShares Core MSCI EM IMI UCITS Acc" display="https://es.investing.com/etfs/ishares-core-msci-em-imi?cid=1024491"/>
+    <hyperlink ref="B85" r:id="rId56" tooltip="iShares MSCI World Size Factor UCITS" display="https://es.investing.com/etfs/ishares-msci-wrld-size-factor"/>
+    <hyperlink ref="B62" r:id="rId57" tooltip="iShares Dow Jones Global Titans 50 UCITS" display="https://es.investing.com/etfs/ishares-dj-global-titans-50"/>
+    <hyperlink ref="B38" r:id="rId58" tooltip="db x-trackers MSCI World Value Factor UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-val-fct-dr-1c"/>
+    <hyperlink ref="B115" r:id="rId59" tooltip="Source MSCI World UCITS" display="https://es.investing.com/etfs/msci-world-source?cid=46070"/>
+    <hyperlink ref="B91" r:id="rId60" tooltip="iShares Listed Private Equity UCITS" display="https://es.investing.com/etfs/ishares-s-p-listed-private-eqty?cid=46492"/>
+    <hyperlink ref="B131" r:id="rId61" tooltip="UBS Irl plc Solactive Global Pure Gold Miners UCITS A-dis" display="https://es.investing.com/etfs/ubs-irl-plc-sol-glbl-gold-min-adis?cid=1024390"/>
+    <hyperlink ref="B33" r:id="rId62" tooltip="db x-trackers MSCI World Industrials UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-indust-dr-1c"/>
+    <hyperlink ref="B31" r:id="rId63" tooltip="db x-trackers MSCI World Energy UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-energy-dr-1c"/>
+    <hyperlink ref="B20" r:id="rId64" tooltip="db x-trackers MSCI AC World UCITS DR" display="https://es.investing.com/etfs/db-x-trackers-msci-ac-world-index"/>
+    <hyperlink ref="B25" r:id="rId65" tooltip="db x-trackers MSCI World Health Care UCITS 1C" display="https://es.investing.com/etfs/db-x-trackers-msci-wrd-hlth-care-de"/>
+    <hyperlink ref="B99" r:id="rId66" tooltip="Lyxor UCITS MSCI World D-EUR" display="https://es.investing.com/etfs/lyxor-msci-world?cid=46273"/>
+    <hyperlink ref="B48" r:id="rId67" tooltip="ETFS DAXglobal Gold Mining GO UCITS" display="https://es.investing.com/etfs/etfx-daxglobal-gold-mining-fund"/>
+    <hyperlink ref="B133" r:id="rId68" tooltip="UBS ETF MSCI World Socially Responsible UCITS USD A-dis" display="https://es.investing.com/etfs/ubs-msci-world-socially-resp.-a-de"/>
+    <hyperlink ref="B41" r:id="rId69" tooltip="db x-trackers MSCI World Telecom Services UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-wrld-tlcom-srvc-dr-1c"/>
+    <hyperlink ref="B40" r:id="rId70" tooltip="db x-trackers MSCI World Consumer Staples UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-wrld-consstpl-dr-1c"/>
+    <hyperlink ref="B124" r:id="rId71" tooltip="SPDR MSCI World Small Cap UCITS" display="https://es.investing.com/etfs/spdr-msci-world-small-cap?cid=1024392"/>
+    <hyperlink ref="B37" r:id="rId72" tooltip="db x-trackers MSCI World Utilities UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-util-dr-1c"/>
+    <hyperlink ref="B78" r:id="rId73" tooltip="iShares MSCI Emerging Markets SmallCap UCITS" display="https://es.investing.com/etfs/ishares-msci-em-smlcap-$?cid=46606"/>
+    <hyperlink ref="B87" r:id="rId74" tooltip="iShares S&amp;P Commodity Producers Oil and Gas UCITS" display="https://es.investing.com/etfs/ishares-s-p-comm.-prod.-oil-gas"/>
+    <hyperlink ref="B120" r:id="rId75" tooltip="SSgA SPDR MSCI ACWI" display="https://es.investing.com/etfs/spdr-msci-acwi?cid=46046"/>
+    <hyperlink ref="B122" r:id="rId76" tooltip="SSgA SPDR MSCI Emerging Markets UCITS" display="https://es.investing.com/etfs/spdr-msci-emerging-markets?cid=45850"/>
+    <hyperlink ref="B70" r:id="rId77" tooltip="iShares Global Clean Energy UCITS" display="https://es.investing.com/etfs/ishares-global-clean-energy?cid=45836"/>
+    <hyperlink ref="B27" r:id="rId78" tooltip="db x-trackers S&amp;P Global Infrastructure UCITS 1C" display="https://es.investing.com/etfs/db-xtrackers-s-p-global-infr.-uk?cid=38694"/>
+    <hyperlink ref="B34" r:id="rId79" tooltip="db x-trackers MSCI World Materials UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-mats-dr-1c"/>
+    <hyperlink ref="B72" r:id="rId80" tooltip="iShares Global Infrastructure UCITS" display="https://es.investing.com/etfs/ishares-macquarie-global-inf.-100?cid=38611"/>
+    <hyperlink ref="B106" r:id="rId81" tooltip="Lyxor MSCI World Information Technology TR UCITS C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-info-tech-tr?cid=46225"/>
+    <hyperlink ref="B89" r:id="rId82" tooltip="iShares Emerging Markets Infrastructure UCITS" display="https://es.investing.com/etfs/ishares-s-p-emerging-mkts-infr.?cid=46608"/>
+    <hyperlink ref="B46" r:id="rId83" tooltip="Deka MSCI Emerging Markets UCITS" display="https://es.investing.com/etfs/etflab-msci-emerging-markets"/>
+    <hyperlink ref="B104" r:id="rId84" tooltip="Lyxor UCITS MSCI World Health Care TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-health-care-tr?cid=46008"/>
+    <hyperlink ref="B28" r:id="rId85" tooltip="db x-trackers S&amp;P Select Frontier UCITS 1C" display="https://es.investing.com/etfs/db-xtrackers-s-p-select-frontier"/>
+    <hyperlink ref="B111" r:id="rId86" tooltip="Lyxor UCITS New Energy D-EUR" display="https://es.investing.com/etfs/lyxor-new-energy?cid=46168"/>
+    <hyperlink ref="B9" r:id="rId87" tooltip="Amundi ETF MSCI World Ex Europe UCITS" display="https://es.investing.com/etfs/amundi-msci-world-x-europe---eur?cid=46114"/>
+    <hyperlink ref="B5" r:id="rId88" tooltip="Amundi ETF MSCI World Ex EMU UCITS" display="https://es.investing.com/etfs/amundi-etf-msci-world-x-emu?cid=45985"/>
+    <hyperlink ref="B101" r:id="rId89" tooltip="Lyxor MSCI World Consumer Discretionary TR UCITS C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-consumer-disc.-tr?cid=46122"/>
+    <hyperlink ref="B108" r:id="rId90" tooltip="Lyxor UCITS FTSE EPRA/NAREIT Global Developed D-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-real-estate?cid=46031"/>
+    <hyperlink ref="B123" r:id="rId91" tooltip="SSgA SPDR MSCI Emerging Markets Small Cap" display="https://es.investing.com/etfs/spdr-msci-em-smlcap?cid=45851"/>
+    <hyperlink ref="B77" r:id="rId92" tooltip="iShares Edge MSCI Emerging Markets Minimum Volatility UCITS" display="https://es.investing.com/etfs/ishares-msci-em-minimum-volatility?cid=994135"/>
+    <hyperlink ref="B105" r:id="rId93" tooltip="Lyxor UCITS MSCI World Industrials TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-industrials-tr?cid=46010"/>
+    <hyperlink ref="B61" r:id="rId94" tooltip="iShares Dow Jones Global Sustainability Screened UCITS" display="https://es.investing.com/etfs/ishares-dj-global-sust-screened-uk?cid=38617"/>
+    <hyperlink ref="B121" r:id="rId95" tooltip="SPDR MSCI ACWI IMI" display="https://es.investing.com/etfs/spdr-msci-acwi-imi-de"/>
+    <hyperlink ref="B7" r:id="rId96" tooltip="Amundi MSCI World UCITS" display="https://es.investing.com/etfs/amundi-msci-world-de"/>
+    <hyperlink ref="B4" r:id="rId97" tooltip="Amundi ETF MSCI World Energy UCITS" display="https://es.investing.com/etfs/amundi-etf-msci-world-energy---eur?cid=45995"/>
+    <hyperlink ref="B130" r:id="rId98" tooltip="UBS Irl plc Solactive Global Oil Equities UCITS A-dis" display="https://es.investing.com/etfs/ubs-irl-plc-solactive-glbl-oil-adis?cid=1024391"/>
+    <hyperlink ref="B67" r:id="rId99" tooltip="iShares BRIC 50 UCITS" display="https://es.investing.com/etfs/ishares-ftse-birc-50---ie?cid=38607"/>
+    <hyperlink ref="B10" r:id="rId100" tooltip="ComStage Alpha Dividende Plus UCITS" display="https://es.investing.com/etfs/comstage-alpha-dividende-plus"/>
+    <hyperlink ref="B110" r:id="rId101" tooltip="Lyxor UCITS MSCI World Utilities TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-utilities-tr?cid=46272"/>
+    <hyperlink ref="B114" r:id="rId102" tooltip="Source MSCI Emerging Markets UCITS" display="https://es.investing.com/etfs/msci-emerging-mrktssource-de"/>
+    <hyperlink ref="B47" r:id="rId103" tooltip="ETFS ISE Cyber Security GO UCITS Accumulating share" display="https://es.investing.com/etfs/etfs-ise-cyber-sec-go-accum"/>
+    <hyperlink ref="B66" r:id="rId104" tooltip="iShares Exponential Technologies" display="https://es.investing.com/etfs/ishares-exponential-tech-mu"/>
+    <hyperlink ref="B52" r:id="rId105" tooltip="HSBC MSCI World UCITS" display="https://es.investing.com/etfs/hsbc-msci-world"/>
+    <hyperlink ref="B79" r:id="rId106" tooltip="iShares MSCI Global Gold Miners" display="https://es.investing.com/etfs/ishares-msci-global-gold-miners-be"/>
+    <hyperlink ref="B116" r:id="rId107" tooltip="Ossiam Emerging Markets Minimum Variance NR UCITS 1C" display="https://es.investing.com/etfs/ossiam-em-min-variance-nr-(eur)-de"/>
+    <hyperlink ref="B49" r:id="rId108" tooltip="FundLogic Alternatives plc MS Scientific Beta Global Equity Factors UCITS" display="https://es.investing.com/etfs/fundlogic-alter-plc-ms-scibeta-glbl"/>
+    <hyperlink ref="B135" r:id="rId109" tooltip="WisdomTree Emerging Markets Equity Income UCITS Acc" display="https://es.investing.com/etfs/wisdomtree-em-equity-incacc"/>
+    <hyperlink ref="B102" r:id="rId110" tooltip="Lyxor UCITS MSCI World Energy TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-energy-tr?cid=46033"/>
+    <hyperlink ref="B109" r:id="rId111" tooltip="Lyxor UCITS MSCI World Telecom Services TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-telecom-ser.-tr?cid=46041"/>
+    <hyperlink ref="B117" r:id="rId112" tooltip="PowerShares FTSE RAFI Emerging Markets UCITS" display="https://es.investing.com/etfs/powershares-dynamic-europe-fund?cid=45898"/>
+    <hyperlink ref="B22" r:id="rId113" tooltip="db x-trackers MSCI EM EMEA UCITS" display="https://es.investing.com/etfs/db-x-trackers-msci-em-emea-trn"/>
+    <hyperlink ref="B107" r:id="rId114" tooltip="Lyxor UCITS MSCI World Materials TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-materials-tr?cid=46025"/>
+    <hyperlink ref="B95" r:id="rId115" tooltip="iShares Edge MSCI World Minimum Volatility UCITS Hedged Acc" display="https://es.investing.com/etfs/ishrs-edge-msci-wrld-minvol-hdg-acc"/>
+    <hyperlink ref="B15" r:id="rId116" tooltip="ComStage S&amp;P SMIT 40 UCITS" display="https://es.investing.com/etfs/comstage-s-p-smit-40-trn?cid=1024623"/>
+    <hyperlink ref="B16" r:id="rId117" tooltip="iShares MSCI EMU USD Hedged UCITS" display="https://es.investing.com/etfs/cs-etf(ie)on-cs-gbl-altrn.engy"/>
+    <hyperlink ref="B74" r:id="rId118" tooltip="iShares MSCI Emerging Markets Consumer Growth UCITS" display="https://es.investing.com/etfs/ishares-msci-em-consumer-growth"/>
+    <hyperlink ref="B8" r:id="rId119" tooltip="Amundi ETF MSCI World Financials UCITS" display="https://es.investing.com/etfs/amundi-msci-world-financials---eur"/>
+    <hyperlink ref="B127" r:id="rId120" tooltip="UBS (Irl) DJ Global Select Dividend" display="https://es.investing.com/etfs/ubs-(irl)-dj-global-select-dividend?cid=949270"/>
+    <hyperlink ref="B118" r:id="rId121" tooltip="Market Access DAXGlobal BRIC UCITS" display="https://es.investing.com/etfs/rbs-market-access-dax-global-birc"/>
+    <hyperlink ref="B136" r:id="rId122" tooltip="WisdomTree Emerging Markets Equity Income UCITS" display="https://es.investing.com/etfs/wisdomtree-em-equity-income-de"/>
+    <hyperlink ref="B137" r:id="rId123" tooltip="WisdomTree Emerging Markets SmallCap Dividend UCITS" display="https://es.investing.com/etfs/wisdomtree-em-smallcap-de"/>
+    <hyperlink ref="B112" r:id="rId124" tooltip="Lyxor UCITS Privex D-EUR" display="https://es.investing.com/etfs/lyxor-privex?cid=46192"/>
+    <hyperlink ref="B134" r:id="rId125" tooltip="UBS (Irl) ETF plc - MSCI World UCITS USD A-dis" display="https://es.investing.com/etfs/ubs-plc-msci-world-(usd)-a-de"/>
+    <hyperlink ref="B53" r:id="rId126" tooltip="HSBC Multi Factor Worldwide Equity UCITS" display="https://es.investing.com/etfs/hsbc-multifactor-worldwide-eq-ucits"/>
+    <hyperlink ref="B125" r:id="rId127" tooltip="SSgA SPDR S&amp;P Emerging Markets Dividend" display="https://es.investing.com/etfs/spdr-s-p-emerging-mrktsdividend-uk?cid=45833"/>
+    <hyperlink ref="B51" r:id="rId128" tooltip="HSBC Economic Scale Worldwide Equity UCITS" display="https://es.investing.com/etfs/hsbc-eco-scale-worldwide-eq-ucits"/>
+    <hyperlink ref="B26" r:id="rId129" tooltip="db x-trackers Portfolio Total Return UCITS 1C" display="https://es.investing.com/etfs/db-x-trackers-portfolio-tr-index?cid=1056526"/>
+    <hyperlink ref="B100" r:id="rId130" tooltip="Lyxor MSCI World Consumer Staples TR UCITS C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-cons.-st.-tr?cid=45990"/>
+    <hyperlink ref="B30" r:id="rId131" tooltip="db x-trackers MSCI World UCITS DR 1D" display="https://es.investing.com/etfs/dbxtrack-msci-world-dr-1d"/>
+    <hyperlink ref="B126" r:id="rId132" tooltip="SPDR S&amp;P Global Dividend Aristocrats UCITS" display="https://es.investing.com/etfs/spdr-s-p-global-dividend-aristocrat?cid=1024489"/>
+    <hyperlink ref="B103" r:id="rId133" tooltip="Lyxor UCITS MSCI World Financials TR C-EUR" display="https://es.investing.com/etfs/lyxor-msci-world-financials-tr?cid=46006"/>
+    <hyperlink ref="B35" r:id="rId134" tooltip="db x-trackers MSCI World Minimum Volatility UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrack-msci-world-minvol-dr-1c"/>
+    <hyperlink ref="B43" r:id="rId135" tooltip="db x-trackers MSCI World Momentum Factor UCITS DR 1C" display="https://es.investing.com/etfs/dbxtrck-msci-world-mom-fact-dr1c"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId173"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId136"/>
 </worksheet>
 </file>
 
@@ -47065,42 +46627,42 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
-        <v>2418</v>
+        <v>2010</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>2467</v>
+        <v>2418</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>2550</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
-        <v>2136</v>
+        <v>2467</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>724</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
-        <v>2476</v>
+        <v>2136</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
-        <v>2426</v>
+        <v>2476</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>2551</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
@@ -47124,7 +46686,7 @@
         <v>2405</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>2552</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
@@ -47140,407 +46702,407 @@
         <v>2505</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>2553</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
-        <v>2483</v>
+        <v>1997</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>2554</v>
+        <v>753</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>1996</v>
+        <v>2168</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
-        <v>2168</v>
+        <v>2003</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
-        <v>2003</v>
+        <v>2502</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
-        <v>2502</v>
+        <v>2051</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
-        <v>2406</v>
+        <v>2454</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>1629</v>
+        <v>772</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
-        <v>2412</v>
+        <v>2218</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>1522</v>
+        <v>779</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
-        <v>2454</v>
+        <v>2033</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
-        <v>2051</v>
+        <v>2066</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
-        <v>2166</v>
+        <v>1994</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>837</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
-        <v>2056</v>
+        <v>1993</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>836</v>
+        <v>790</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
-        <v>2016</v>
+        <v>2129</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>841</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="11" t="s">
-        <v>2033</v>
+        <v>2005</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="11" t="s">
-        <v>2066</v>
+        <v>2039</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="11" t="s">
-        <v>1994</v>
+        <v>2409</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>787</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>1993</v>
+        <v>2415</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>2129</v>
+        <v>2214</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>2039</v>
+        <v>2209</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="11" t="s">
-        <v>2409</v>
+        <v>1992</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>2555</v>
+        <v>817</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="11" t="s">
-        <v>2415</v>
+        <v>2040</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="11" t="s">
-        <v>2040</v>
+        <v>2107</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="11" t="s">
-        <v>2006</v>
+        <v>2087</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="11" t="s">
-        <v>1992</v>
+        <v>2117</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="11" t="s">
-        <v>2049</v>
+        <v>2006</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="11" t="s">
-        <v>2209</v>
+        <v>2226</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
-        <v>2107</v>
+        <v>2049</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
-        <v>2226</v>
+        <v>2092</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
-        <v>2087</v>
+        <v>2165</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
-        <v>2147</v>
+        <v>2452</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>1982</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
-        <v>2054</v>
+        <v>2220</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>1983</v>
+        <v>835</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
-        <v>2214</v>
+        <v>2426</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>798</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
-        <v>2117</v>
+        <v>2483</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>819</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
-        <v>2015</v>
+        <v>2497</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>799</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
-        <v>2092</v>
+        <v>2056</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>2452</v>
+        <v>2016</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>2556</v>
+        <v>841</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
-        <v>2497</v>
+        <v>2190</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>2557</v>
+        <v>846</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
-        <v>2190</v>
+        <v>2500</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>2500</v>
+        <v>2495</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>850</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
-        <v>2495</v>
+        <v>2437</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>2558</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
-        <v>2437</v>
+        <v>2457</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>2559</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
-        <v>2457</v>
+        <v>2482</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>2560</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
-        <v>2482</v>
+        <v>2488</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>2561</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="11" t="s">
-        <v>2488</v>
+        <v>2456</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>2562</v>
+        <v>876</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="11" t="s">
-        <v>2456</v>
+        <v>2459</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" s="11" t="s">
-        <v>2459</v>
+        <v>2374</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>877</v>
+        <v>926</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" s="11" t="s">
-        <v>2374</v>
+        <v>2448</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>926</v>
+        <v>880</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" s="11" t="s">
-        <v>2448</v>
+        <v>2126</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>880</v>
+        <v>929</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
@@ -47569,10 +47131,10 @@
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="11" t="s">
-        <v>2126</v>
+        <v>2463</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>929</v>
+        <v>884</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
@@ -47585,2434 +47147,2434 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="11" t="s">
-        <v>2463</v>
+        <v>2400</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>884</v>
+        <v>936</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="11" t="s">
-        <v>2400</v>
+        <v>2481</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>936</v>
+        <v>886</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="11" t="s">
-        <v>2504</v>
+        <v>2061</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>1130</v>
+        <v>889</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="11" t="s">
-        <v>2503</v>
+        <v>2416</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>1129</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="11" t="s">
-        <v>2481</v>
+        <v>2402</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>886</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="11" t="s">
-        <v>2061</v>
+        <v>2480</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="11" t="s">
-        <v>2416</v>
+        <v>2110</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>2563</v>
+        <v>946</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="11" t="s">
-        <v>2402</v>
+        <v>2024</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>2564</v>
+        <v>947</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="11" t="s">
-        <v>2480</v>
+        <v>2155</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>890</v>
+        <v>948</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="11" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="11" t="s">
-        <v>2383</v>
+        <v>2427</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>1128</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="11" t="s">
-        <v>2024</v>
+        <v>2462</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="11" t="s">
-        <v>2155</v>
+        <v>2395</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>948</v>
+        <v>968</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="11" t="s">
-        <v>2106</v>
+        <v>2420</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>950</v>
+        <v>908</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="11" t="s">
-        <v>2427</v>
+        <v>2407</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>2565</v>
+        <v>909</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
-        <v>2462</v>
+        <v>2384</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>962</v>
+        <v>912</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="11" t="s">
-        <v>2395</v>
+        <v>2058</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>968</v>
+        <v>979</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="11" t="s">
-        <v>2420</v>
+        <v>2037</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>908</v>
+        <v>980</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="11" t="s">
-        <v>2407</v>
+        <v>2038</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>909</v>
+        <v>981</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="11" t="s">
-        <v>2384</v>
+        <v>2451</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>912</v>
+        <v>988</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="11" t="s">
-        <v>2058</v>
+        <v>2471</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>979</v>
+        <v>990</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="11" t="s">
-        <v>2037</v>
+        <v>2372</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>980</v>
+        <v>996</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="11" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>981</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="11" t="s">
-        <v>2157</v>
+        <v>2198</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>1456</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="11" t="s">
-        <v>2114</v>
+        <v>2095</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>1457</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="11" t="s">
-        <v>2191</v>
+        <v>2045</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>1458</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="11" t="s">
-        <v>2451</v>
+        <v>2042</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>988</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="11" t="s">
-        <v>2471</v>
+        <v>2041</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>990</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B97" s="11" t="s">
-        <v>2372</v>
+        <v>2064</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>996</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B98" s="11" t="s">
-        <v>2036</v>
+        <v>2381</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>1008</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B99" s="11" t="s">
-        <v>2198</v>
+        <v>2443</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>1009</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B100" s="11" t="s">
-        <v>2095</v>
+        <v>2176</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B101" s="11" t="s">
-        <v>2045</v>
+        <v>2027</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B102" s="11" t="s">
-        <v>2042</v>
+        <v>2130</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B103" s="11" t="s">
-        <v>2041</v>
+        <v>2012</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B104" s="11" t="s">
-        <v>2064</v>
+        <v>2026</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B105" s="11" t="s">
-        <v>2381</v>
+        <v>2163</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>2566</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B106" s="11" t="s">
-        <v>2443</v>
+        <v>2096</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>2567</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B107" s="11" t="s">
-        <v>2176</v>
+        <v>2387</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B108" s="11" t="s">
-        <v>2027</v>
+        <v>2086</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>1019</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B109" s="11" t="s">
-        <v>2130</v>
+        <v>2414</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>1020</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B110" s="11" t="s">
-        <v>2012</v>
+        <v>1995</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>1021</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B111" s="11" t="s">
-        <v>2026</v>
+        <v>2206</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>1022</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B112" s="11" t="s">
-        <v>2163</v>
+        <v>2215</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="11" t="s">
-        <v>2096</v>
+        <v>2453</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>1025</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="11" t="s">
-        <v>2387</v>
+        <v>2373</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>1026</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" s="11" t="s">
-        <v>2086</v>
+        <v>2025</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>1033</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="11" t="s">
-        <v>2138</v>
+        <v>2380</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" s="11" t="s">
-        <v>2414</v>
+        <v>2397</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>1036</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="11" t="s">
-        <v>1995</v>
+        <v>2202</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>1037</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" s="11" t="s">
-        <v>2206</v>
+        <v>2429</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>1039</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" s="11" t="s">
-        <v>2215</v>
+        <v>2100</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>1042</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" s="11" t="s">
-        <v>2453</v>
+        <v>2138</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>1045</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" s="11" t="s">
-        <v>2373</v>
+        <v>2199</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>1046</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" s="11" t="s">
-        <v>2025</v>
+        <v>2419</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" s="11" t="s">
-        <v>2380</v>
+        <v>2371</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>1049</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" s="11" t="s">
-        <v>2187</v>
+        <v>2192</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>1709</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" s="11" t="s">
-        <v>2397</v>
+        <v>2184</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>1054</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" s="11" t="s">
-        <v>2202</v>
+        <v>2436</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>1056</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" s="11" t="s">
-        <v>2429</v>
+        <v>2076</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>1057</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="11" t="s">
-        <v>2100</v>
+        <v>2011</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>1058</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="11" t="s">
-        <v>2199</v>
+        <v>2098</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>1061</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="11" t="s">
-        <v>2419</v>
+        <v>2173</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>1064</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="11" t="s">
-        <v>2192</v>
+        <v>2179</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>1066</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="11" t="s">
-        <v>2184</v>
+        <v>2140</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="11" t="s">
-        <v>2436</v>
+        <v>2022</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>2568</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="11" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>1074</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="11" t="s">
-        <v>2011</v>
+        <v>2133</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>1078</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="11" t="s">
-        <v>2098</v>
+        <v>2063</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>1079</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" s="11" t="s">
-        <v>2173</v>
+        <v>2047</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>1080</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="11" t="s">
-        <v>2022</v>
+        <v>2447</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>1087</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="11" t="s">
-        <v>2072</v>
+        <v>2434</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>1091</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="11" t="s">
-        <v>2133</v>
+        <v>2200</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>1092</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="11" t="s">
-        <v>2179</v>
+        <v>2075</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>1084</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="11" t="s">
-        <v>2013</v>
+        <v>2145</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>1663</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" s="11" t="s">
-        <v>2140</v>
+        <v>2001</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>1085</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" s="11" t="s">
-        <v>2218</v>
+        <v>2210</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>779</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B146" s="11" t="s">
-        <v>2063</v>
+        <v>2156</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>1095</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B147" s="11" t="s">
-        <v>2164</v>
+        <v>2021</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>1408</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B148" s="11" t="s">
-        <v>2067</v>
+        <v>2383</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>1409</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B149" s="11" t="s">
-        <v>2008</v>
+        <v>2503</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>1410</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B150" s="11" t="s">
-        <v>2047</v>
+        <v>2504</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>1098</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B151" s="11" t="s">
-        <v>2447</v>
+        <v>2050</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>2569</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B152" s="11" t="s">
-        <v>2434</v>
+        <v>2225</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>2570</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B153" s="11" t="s">
-        <v>2200</v>
+        <v>2228</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>1109</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B154" s="11" t="s">
-        <v>2075</v>
+        <v>2060</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>1111</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B155" s="11" t="s">
-        <v>2001</v>
+        <v>2379</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>1115</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B156" s="11" t="s">
-        <v>2021</v>
+        <v>2082</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>1125</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B157" s="11" t="s">
-        <v>2210</v>
+        <v>2002</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>1117</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B158" s="11" t="s">
-        <v>2156</v>
+        <v>2171</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>1118</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B159" s="11" t="s">
-        <v>2050</v>
+        <v>2007</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>1133</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B160" s="11" t="s">
-        <v>2231</v>
+        <v>2204</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>1212</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B161" s="11" t="s">
-        <v>2225</v>
+        <v>2048</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>1140</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B162" s="11" t="s">
-        <v>2228</v>
+        <v>2031</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>1141</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B163" s="11" t="s">
-        <v>2060</v>
+        <v>2046</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>1143</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B164" s="11" t="s">
-        <v>2379</v>
+        <v>2149</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>1145</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B165" s="11" t="s">
-        <v>2007</v>
+        <v>2146</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>1157</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B166" s="11" t="s">
-        <v>2082</v>
+        <v>2364</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>1150</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B167" s="11" t="s">
-        <v>2204</v>
+        <v>2139</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>1159</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B168" s="11" t="s">
-        <v>2002</v>
+        <v>2162</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>1152</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B169" s="11" t="s">
-        <v>2171</v>
+        <v>2083</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>1153</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B170" s="11" t="s">
-        <v>2048</v>
+        <v>2433</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>1188</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B171" s="11" t="s">
-        <v>2174</v>
+        <v>2231</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>1272</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B172" s="11" t="s">
-        <v>2111</v>
+        <v>2119</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>1273</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B173" s="11" t="s">
-        <v>2083</v>
+        <v>2062</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>1208</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B174" s="11" t="s">
-        <v>2181</v>
+        <v>2376</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>1274</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B175" s="11" t="s">
-        <v>2196</v>
+        <v>2069</v>
       </c>
       <c r="C175" s="12" t="s">
-        <v>1253</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B176" s="11" t="s">
-        <v>2031</v>
+        <v>2382</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>1199</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B177" s="11" t="s">
-        <v>2183</v>
+        <v>2159</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>1257</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B178" s="11" t="s">
-        <v>2046</v>
+        <v>2035</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>1200</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B179" s="11" t="s">
-        <v>2159</v>
+        <v>2128</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>1235</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B180" s="11" t="s">
-        <v>2149</v>
+        <v>2369</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>1203</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B181" s="11" t="s">
-        <v>2139</v>
+        <v>2099</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>1206</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B182" s="11" t="s">
-        <v>2162</v>
+        <v>2105</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>1207</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B183" s="11" t="s">
-        <v>2470</v>
+        <v>2422</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>1686</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B184" s="11" t="s">
-        <v>2146</v>
+        <v>2232</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>1204</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B185" s="11" t="s">
-        <v>2364</v>
+        <v>2196</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>1205</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B186" s="11" t="s">
-        <v>2125</v>
+        <v>2378</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>1329</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B187" s="11" t="s">
-        <v>2394</v>
+        <v>2410</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>1338</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B188" s="11" t="s">
-        <v>2089</v>
+        <v>2469</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>1340</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B189" s="11" t="s">
-        <v>2124</v>
+        <v>2233</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>1339</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B190" s="11" t="s">
-        <v>2194</v>
+        <v>2183</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>1341</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B191" s="11" t="s">
-        <v>2151</v>
+        <v>2065</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>1342</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B192" s="11" t="s">
-        <v>2144</v>
+        <v>2363</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>1343</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B193" s="11" t="s">
-        <v>2081</v>
+        <v>2468</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>1344</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B194" s="11" t="s">
-        <v>2389</v>
+        <v>2186</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>1345</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B195" s="11" t="s">
-        <v>2113</v>
+        <v>2174</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>1346</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B196" s="11" t="s">
-        <v>2180</v>
+        <v>2111</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>1347</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B197" s="11" t="s">
-        <v>2109</v>
+        <v>2181</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>1348</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B198" s="11" t="s">
-        <v>2421</v>
+        <v>2023</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>1349</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B199" s="11" t="s">
-        <v>2102</v>
+        <v>2227</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>1350</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B200" s="11" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>1217</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B201" s="11" t="s">
-        <v>2062</v>
+        <v>2074</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>1218</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B202" s="11" t="s">
-        <v>2074</v>
+        <v>2125</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B203" s="11" t="s">
-        <v>2175</v>
+        <v>2394</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>1351</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B204" s="11" t="s">
-        <v>2220</v>
+        <v>2124</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>835</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B205" s="11" t="s">
-        <v>2376</v>
+        <v>2089</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>1232</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B206" s="11" t="s">
-        <v>2382</v>
+        <v>2194</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>1234</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B207" s="11" t="s">
-        <v>2069</v>
+        <v>2151</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>1233</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B208" s="11" t="s">
-        <v>2035</v>
+        <v>2144</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>1237</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" s="11" t="s">
-        <v>2128</v>
+        <v>2081</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>1242</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" s="11" t="s">
-        <v>2369</v>
+        <v>2389</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>1246</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" s="11" t="s">
-        <v>2099</v>
+        <v>2113</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>1247</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" s="11" t="s">
-        <v>2105</v>
+        <v>2180</v>
       </c>
       <c r="C212" s="12" t="s">
-        <v>1248</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" s="11" t="s">
-        <v>2232</v>
+        <v>2109</v>
       </c>
       <c r="C213" s="12" t="s">
-        <v>1252</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" s="11" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>1251</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" s="11" t="s">
-        <v>2186</v>
+        <v>2102</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>1268</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" s="11" t="s">
-        <v>2378</v>
+        <v>2175</v>
       </c>
       <c r="C216" s="12" t="s">
-        <v>1254</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B217" s="11" t="s">
-        <v>2227</v>
+        <v>2458</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>1308</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B218" s="11" t="s">
-        <v>2410</v>
+        <v>2441</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>1255</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B219" s="11" t="s">
-        <v>2469</v>
+        <v>2091</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>1256</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B220" s="11" t="s">
-        <v>2233</v>
+        <v>2435</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>1259</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B221" s="11" t="s">
-        <v>2134</v>
+        <v>2043</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>1461</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B222" s="11" t="s">
-        <v>2433</v>
+        <v>2158</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>1211</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B223" s="11" t="s">
-        <v>2073</v>
+        <v>2108</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>1464</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B224" s="11" t="s">
-        <v>2065</v>
+        <v>2104</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>1265</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B225" s="11" t="s">
-        <v>2363</v>
+        <v>2103</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>1266</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B226" s="11" t="s">
-        <v>2468</v>
+        <v>2485</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>1267</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B227" s="11" t="s">
-        <v>2150</v>
+        <v>2201</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>1465</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B228" s="11" t="s">
-        <v>2132</v>
+        <v>2442</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>1466</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B229" s="11" t="s">
-        <v>2023</v>
+        <v>2417</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>1231</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B230" s="11" t="s">
-        <v>2122</v>
+        <v>2000</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>1309</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B231" s="11" t="s">
-        <v>2458</v>
+        <v>2370</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>1370</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B232" s="11" t="s">
-        <v>2441</v>
+        <v>2431</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>2571</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B233" s="11" t="s">
-        <v>2091</v>
+        <v>2164</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>1378</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B234" s="11" t="s">
-        <v>2435</v>
+        <v>2067</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>1389</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B235" s="11" t="s">
-        <v>2108</v>
+        <v>2008</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>1395</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B236" s="11" t="s">
-        <v>2104</v>
+        <v>2466</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>1396</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237" s="11" t="s">
-        <v>2103</v>
+        <v>2474</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>1397</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238" s="11" t="s">
-        <v>2043</v>
+        <v>2473</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>1391</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239" s="11" t="s">
-        <v>2158</v>
+        <v>2501</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>1394</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240" s="11" t="s">
-        <v>2485</v>
+        <v>2216</v>
       </c>
       <c r="C240" s="12" t="s">
-        <v>1401</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B241" s="11" t="s">
-        <v>2201</v>
+        <v>2053</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>1402</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242" s="11" t="s">
-        <v>2442</v>
+        <v>2078</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>2572</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B243" s="11" t="s">
-        <v>2417</v>
+        <v>2161</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>1405</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B244" s="11" t="s">
-        <v>2000</v>
+        <v>2097</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>1406</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B245" s="11" t="s">
-        <v>2370</v>
+        <v>2017</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>2573</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B246" s="11" t="s">
-        <v>2431</v>
+        <v>1999</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>1407</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B247" s="11" t="s">
-        <v>2466</v>
+        <v>2230</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>1412</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B248" s="11" t="s">
-        <v>2474</v>
+        <v>2077</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>1413</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B249" s="11" t="s">
-        <v>2473</v>
+        <v>2223</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>1414</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B250" s="11" t="s">
-        <v>2501</v>
+        <v>2121</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>1415</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B251" s="11" t="s">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>717</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" s="11" t="s">
-        <v>2460</v>
+        <v>2131</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>1454</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" s="11" t="s">
-        <v>2207</v>
+        <v>2120</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>1463</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" s="11" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>1471</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B255" s="11" t="s">
-        <v>2461</v>
+        <v>2157</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>1473</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B256" s="11" t="s">
-        <v>2059</v>
+        <v>2114</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>1494</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B257" s="11" t="s">
-        <v>2487</v>
+        <v>2191</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>1490</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B258" s="11" t="s">
-        <v>2449</v>
+        <v>2134</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>1502</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" s="11" t="s">
-        <v>2425</v>
+        <v>2207</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>1503</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" s="11" t="s">
-        <v>2507</v>
+        <v>2073</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>2574</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" s="11" t="s">
-        <v>2498</v>
+        <v>2150</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>2575</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" s="11" t="s">
-        <v>2094</v>
+        <v>2132</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>1524</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" s="11" t="s">
-        <v>2396</v>
+        <v>2499</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>1606</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" s="11" t="s">
-        <v>2398</v>
+        <v>2461</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>1532</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B265" s="11" t="s">
-        <v>2014</v>
+        <v>2487</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>1559</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B266" s="11" t="s">
-        <v>2465</v>
+        <v>2059</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>1553</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B267" s="11" t="s">
-        <v>2135</v>
+        <v>2449</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>1554</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B268" s="11" t="s">
-        <v>2080</v>
+        <v>2425</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>1630</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269" s="11" t="s">
-        <v>2195</v>
+        <v>2507</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>1552</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" s="11" t="s">
-        <v>2484</v>
+        <v>2498</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>1558</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B271" s="11" t="s">
-        <v>2071</v>
+        <v>2430</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272" s="11" t="s">
-        <v>2430</v>
+        <v>2388</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B273" s="11" t="s">
-        <v>2424</v>
+        <v>2412</v>
       </c>
       <c r="C273" s="12" t="s">
-        <v>1560</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274" s="11" t="s">
-        <v>2371</v>
+        <v>2094</v>
       </c>
       <c r="C274" s="12" t="s">
-        <v>1065</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B275" s="11" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="C275" s="12" t="s">
-        <v>1563</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276" s="11" t="s">
-        <v>2388</v>
+        <v>2018</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>1516</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B277" s="11" t="s">
-        <v>2489</v>
+        <v>2195</v>
       </c>
       <c r="C277" s="12" t="s">
-        <v>1569</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B278" s="11" t="s">
-        <v>2428</v>
+        <v>2465</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>1570</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B279" s="11" t="s">
-        <v>2044</v>
+        <v>2135</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>1594</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280" s="11" t="s">
-        <v>2152</v>
+        <v>2484</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>1685</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B281" s="11" t="s">
-        <v>2148</v>
+        <v>2071</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>1579</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B282" s="11" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>1541</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="283" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B283" s="11" t="s">
-        <v>2493</v>
+        <v>2424</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>1607</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284" s="11" t="s">
-        <v>2145</v>
+        <v>2408</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>1112</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285" s="11" t="s">
-        <v>2055</v>
+        <v>2489</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>1592</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B286" s="11" t="s">
-        <v>2399</v>
+        <v>2428</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>1595</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287" s="11" t="s">
-        <v>2143</v>
+        <v>2044</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>1510</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="288" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B288" s="11" t="s">
-        <v>2464</v>
+        <v>2148</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>1608</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="289" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B289" s="11" t="s">
-        <v>2028</v>
+        <v>2055</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>1609</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="290" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B290" s="11" t="s">
-        <v>2479</v>
+        <v>2399</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>2576</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="291" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B291" s="11" t="s">
-        <v>1998</v>
+        <v>2396</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="292" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B292" s="11" t="s">
-        <v>2085</v>
+        <v>2493</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="293" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B293" s="11" t="s">
-        <v>2444</v>
+        <v>2143</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>1618</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="294" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B294" s="11" t="s">
-        <v>2112</v>
+        <v>2464</v>
       </c>
       <c r="C294" s="12" t="s">
-        <v>1632</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="295" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B295" s="11" t="s">
-        <v>2212</v>
+        <v>2028</v>
       </c>
       <c r="C295" s="12" t="s">
-        <v>1633</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="296" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B296" s="11" t="s">
-        <v>2141</v>
+        <v>2479</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>1636</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="297" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B297" s="11" t="s">
-        <v>2413</v>
+        <v>1998</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>2577</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="298" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B298" s="11" t="s">
-        <v>2439</v>
+        <v>2085</v>
       </c>
       <c r="C298" s="12" t="s">
-        <v>2578</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="299" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B299" s="11" t="s">
-        <v>2205</v>
+        <v>2444</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>1659</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B300" s="11" t="s">
-        <v>2208</v>
+        <v>2406</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>1660</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B301" s="11" t="s">
-        <v>2090</v>
+        <v>2080</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>1688</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B302" s="11" t="s">
-        <v>2404</v>
+        <v>2112</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>1690</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B303" s="11" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>1691</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="304" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B304" s="11" t="s">
-        <v>2219</v>
+        <v>2141</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>1698</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="305" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B305" s="11" t="s">
-        <v>2178</v>
+        <v>2413</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>1699</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="306" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B306" s="11" t="s">
-        <v>2182</v>
+        <v>2439</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>1802</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="307" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B307" s="11" t="s">
-        <v>2217</v>
+        <v>2205</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>1716</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="308" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B308" s="11" t="s">
-        <v>2052</v>
+        <v>2208</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>1714</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="309" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B309" s="11" t="s">
-        <v>2189</v>
+        <v>2013</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>1735</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="310" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B310" s="11" t="s">
-        <v>2019</v>
+        <v>2090</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>1736</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="311" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B311" s="11" t="s">
-        <v>2009</v>
+        <v>2142</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>1737</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="312" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B312" s="11" t="s">
-        <v>2034</v>
+        <v>2404</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>1739</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="313" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B313" s="11" t="s">
-        <v>2032</v>
+        <v>2213</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>1740</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="314" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B314" s="11" t="s">
-        <v>2057</v>
+        <v>2219</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>1741</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="315" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B315" s="11" t="s">
-        <v>2475</v>
+        <v>2178</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>1742</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="316" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B316" s="11" t="s">
-        <v>2079</v>
+        <v>2187</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>1743</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="317" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B317" s="11" t="s">
-        <v>2004</v>
+        <v>2052</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>1748</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="318" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B318" s="11" t="s">
-        <v>2170</v>
+        <v>2217</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>1769</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B319" s="11" t="s">
-        <v>2188</v>
+        <v>2068</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>1772</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="320" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B320" s="11" t="s">
-        <v>2169</v>
+        <v>2189</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>1773</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="321" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B321" s="11" t="s">
-        <v>2153</v>
+        <v>2019</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>1774</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="322" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B322" s="11" t="s">
-        <v>2068</v>
+        <v>2009</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>1723</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="323" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B323" s="11" t="s">
-        <v>2203</v>
+        <v>2034</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>1776</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="324" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B324" s="11" t="s">
-        <v>2193</v>
+        <v>2032</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>1780</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="325" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B325" s="11" t="s">
-        <v>2160</v>
+        <v>2057</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>1781</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="326" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B326" s="11" t="s">
-        <v>2197</v>
+        <v>2079</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>1791</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="327" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B327" s="11" t="s">
-        <v>2029</v>
+        <v>2475</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>1804</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="328" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B328" s="11" t="s">
-        <v>2093</v>
+        <v>2004</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>1807</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="329" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B329" s="11" t="s">
-        <v>2492</v>
+        <v>2170</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>1808</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="330" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B330" s="11" t="s">
-        <v>2127</v>
+        <v>2188</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>1813</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="331" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B331" s="11" t="s">
-        <v>2438</v>
+        <v>2169</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>1823</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="332" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B332" s="11" t="s">
-        <v>2446</v>
+        <v>2153</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>1824</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="333" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B333" s="11" t="s">
-        <v>2216</v>
+        <v>2203</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>1436</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="334" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B334" s="11" t="s">
-        <v>2053</v>
+        <v>2193</v>
       </c>
       <c r="C334" s="12" t="s">
-        <v>1438</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="335" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B335" s="11" t="s">
-        <v>2078</v>
+        <v>2160</v>
       </c>
       <c r="C335" s="12" t="s">
-        <v>1422</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="336" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B336" s="11" t="s">
-        <v>2161</v>
+        <v>2197</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>1423</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="337" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B337" s="11" t="s">
-        <v>2097</v>
+        <v>2182</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>1439</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="338" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B338" s="11" t="s">
-        <v>2508</v>
+        <v>2152</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>1832</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="339" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B339" s="11" t="s">
-        <v>2017</v>
+        <v>2470</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>1440</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="340" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B340" s="11" t="s">
-        <v>1999</v>
+        <v>2029</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>1425</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B341" s="11" t="s">
-        <v>2230</v>
+        <v>2093</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>1426</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B342" s="11" t="s">
-        <v>2223</v>
+        <v>2492</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>1428</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B343" s="11" t="s">
-        <v>2121</v>
+        <v>2127</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>1429</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B344" s="11" t="s">
-        <v>2077</v>
+        <v>2438</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>1441</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="345" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B345" s="11" t="s">
-        <v>2131</v>
+        <v>2446</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>1430</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="346" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B346" s="11" t="s">
-        <v>2142</v>
+        <v>2508</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>1689</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="347" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B347" s="11" t="s">
-        <v>2120</v>
+        <v>2224</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>1449</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="348" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B348" s="11" t="s">
-        <v>2020</v>
+        <v>2177</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>1444</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="349" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B349" s="11" t="s">
-        <v>2222</v>
+        <v>2496</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>1841</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="350" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B350" s="11" t="s">
-        <v>2177</v>
+        <v>2222</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="351" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B351" s="11" t="s">
-        <v>2496</v>
+        <v>2229</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>2579</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="352" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B352" s="11" t="s">
-        <v>2224</v>
+        <v>2385</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>1837</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="353" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B353" s="11" t="s">
-        <v>2229</v>
+        <v>2401</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>1842</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="354" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B354" s="11" t="s">
-        <v>2385</v>
+        <v>2393</v>
       </c>
       <c r="C354" s="12" t="s">
-        <v>1843</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="355" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B355" s="11" t="s">
-        <v>2401</v>
+        <v>2377</v>
       </c>
       <c r="C355" s="12" t="s">
-        <v>1849</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="356" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B356" s="11" t="s">
-        <v>2393</v>
+        <v>2211</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>1850</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="357" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B357" s="11" t="s">
-        <v>2377</v>
+        <v>2403</v>
       </c>
       <c r="C357" s="12" t="s">
-        <v>1878</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="358" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B358" s="11" t="s">
-        <v>2211</v>
+        <v>2472</v>
       </c>
       <c r="C358" s="12" t="s">
-        <v>1880</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="359" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B359" s="11" t="s">
-        <v>2403</v>
+        <v>2440</v>
       </c>
       <c r="C359" s="12" t="s">
-        <v>1886</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="360" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B360" s="11" t="s">
-        <v>2472</v>
+        <v>2411</v>
       </c>
       <c r="C360" s="12" t="s">
-        <v>1887</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="361" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B361" s="11" t="s">
-        <v>2440</v>
+        <v>2411</v>
       </c>
       <c r="C361" s="12" t="s">
-        <v>1896</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="362" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B362" s="11" t="s">
-        <v>2411</v>
+        <v>2478</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>1899</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="363" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B363" s="11" t="s">
-        <v>2411</v>
+        <v>2030</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>2580</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="364" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B364" s="11" t="s">
-        <v>2478</v>
+        <v>2116</v>
       </c>
       <c r="C364" s="12" t="s">
-        <v>1901</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="365" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B365" s="11" t="s">
-        <v>2030</v>
+        <v>2137</v>
       </c>
       <c r="C365" s="12" t="s">
-        <v>1911</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="366" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B366" s="11" t="s">
-        <v>2116</v>
+        <v>2101</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>1915</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="367" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B367" s="11" t="s">
-        <v>2070</v>
+        <v>2423</v>
       </c>
       <c r="C367" s="12" t="s">
-        <v>1950</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="368" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B368" s="11" t="s">
-        <v>2423</v>
+        <v>2490</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="369" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B369" s="11" t="s">
-        <v>2490</v>
+        <v>2450</v>
       </c>
       <c r="C369" s="12" t="s">
-        <v>1926</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="370" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B370" s="11" t="s">
-        <v>2477</v>
+        <v>2432</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>1980</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="371" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B371" s="11" t="s">
-        <v>2432</v>
+        <v>2185</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="372" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B372" s="11" t="s">
-        <v>2450</v>
+        <v>2172</v>
       </c>
       <c r="C372" s="12" t="s">
-        <v>1931</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="373" spans="2:3" x14ac:dyDescent="0.2">
@@ -50025,114 +49587,114 @@
     </row>
     <row r="374" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B374" s="11" t="s">
-        <v>2185</v>
+        <v>2486</v>
       </c>
       <c r="C374" s="12" t="s">
-        <v>1935</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="375" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B375" s="11" t="s">
-        <v>2172</v>
+        <v>2494</v>
       </c>
       <c r="C375" s="12" t="s">
-        <v>1936</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="376" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B376" s="11" t="s">
-        <v>2221</v>
+        <v>2375</v>
       </c>
       <c r="C376" s="12" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="377" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B377" s="11" t="s">
-        <v>2084</v>
+        <v>2070</v>
       </c>
       <c r="C377" s="12" t="s">
-        <v>1979</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="378" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B378" s="11" t="s">
-        <v>2486</v>
+        <v>2123</v>
       </c>
       <c r="C378" s="12" t="s">
-        <v>1943</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="379" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B379" s="11" t="s">
-        <v>2494</v>
+        <v>2221</v>
       </c>
       <c r="C379" s="12" t="s">
-        <v>1946</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="380" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B380" s="11" t="s">
-        <v>2375</v>
+        <v>2154</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>1948</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B381" s="11" t="s">
-        <v>2154</v>
+        <v>2118</v>
       </c>
       <c r="C381" s="12" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B382" s="11" t="s">
-        <v>2137</v>
+        <v>2455</v>
       </c>
       <c r="C382" s="12" t="s">
-        <v>1922</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B383" s="11" t="s">
-        <v>2123</v>
+        <v>2167</v>
       </c>
       <c r="C383" s="12" t="s">
-        <v>1951</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B384" s="11" t="s">
-        <v>2101</v>
+        <v>2084</v>
       </c>
       <c r="C384" s="12" t="s">
-        <v>1923</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="385" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B385" s="11" t="s">
-        <v>2118</v>
+        <v>2477</v>
       </c>
       <c r="C385" s="12" t="s">
-        <v>1954</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="386" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B386" s="11" t="s">
-        <v>2455</v>
+        <v>2147</v>
       </c>
       <c r="C386" s="12" t="s">
-        <v>1955</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="387" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B387" s="11" t="s">
-        <v>2167</v>
+        <v>2054</v>
       </c>
       <c r="C387" s="12" t="s">
-        <v>1956</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="388" spans="2:3" x14ac:dyDescent="0.2">
@@ -50232,395 +49794,395 @@
       <c r="B419" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="B3:B419">
-    <sortCondition ref="B3:B419"/>
+  <sortState ref="B3:C387">
+    <sortCondition ref="C3:C387"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B160" r:id="rId1" tooltip="iShares China Large-Cap" display="https://es.investing.com/etfs/ishares-ftse-xinhua-china-25"/>
-    <hyperlink ref="B210" r:id="rId2" tooltip="iShares MSCI China" display="https://es.investing.com/etfs/ishares-msci-china"/>
-    <hyperlink ref="B40" r:id="rId3" tooltip="Deutsche X-trackers Harvest CSI 300 China A-Shares" display="https://es.investing.com/etfs/db-x-trackers-harvest-china"/>
-    <hyperlink ref="B241" r:id="rId4" tooltip="KraneShares Bosera MSCI China A Share" display="https://es.investing.com/etfs/kraneshares-bosera-msci-china-a"/>
-    <hyperlink ref="B138" r:id="rId5" tooltip="Guggenheim Invest China Technology" display="https://es.investing.com/etfs/guggenheim-china-technology"/>
-    <hyperlink ref="B50" r:id="rId6" tooltip="Direxion Daily CSI 300 China A Share Bull 2X Shares" display="https://es.investing.com/etfs/direxion-daily-csi-300-china-a-shar"/>
-    <hyperlink ref="B107" r:id="rId7" tooltip="Global X China Consumer" display="https://es.investing.com/etfs/global-x-china-consumer"/>
-    <hyperlink ref="B318" r:id="rId8" tooltip="SPDR S&amp;P China" display="https://es.investing.com/etfs/spdr-s-p-china"/>
-    <hyperlink ref="B245" r:id="rId9" tooltip="KraneShares MSCI All China Health Care" display="https://es.investing.com/etfs/kraneshares-msci-china-hlth-cr-indx"/>
-    <hyperlink ref="B211" r:id="rId10" tooltip="iShares MSCI China A" display="https://es.investing.com/etfs/ishares-msci-china-a"/>
-    <hyperlink ref="B109" r:id="rId11" tooltip="Global X China Financials" display="https://es.investing.com/etfs/global-x-china-financials"/>
-    <hyperlink ref="B274" r:id="rId12" tooltip="PowerShares Golden Dragon China Port" display="https://es.investing.com/etfs/golden-dragon-halter-usx-china"/>
-    <hyperlink ref="B97" r:id="rId13" tooltip="Franklin FTSE China" display="https://es.investing.com/etfs/franklin-ftse-china"/>
-    <hyperlink ref="B78" r:id="rId14" tooltip="First Trust ISE Chindia" display="https://es.investing.com/etfs/firsttrust-ise-chindia"/>
-    <hyperlink ref="B137" r:id="rId15" tooltip="Guggenheim Invest China Small Cap" display="https://es.investing.com/etfs/guggenheim-china-smlcap"/>
-    <hyperlink ref="B334" r:id="rId16" tooltip="VanEck Vectors ChinaAMC A-Share" display="https://es.investing.com/etfs/marketvectors-china"/>
-    <hyperlink ref="B122" r:id="rId17" tooltip="Global X NASDAQ China Technology" display="https://es.investing.com/etfs/global-x-nasdaq-china-technology"/>
-    <hyperlink ref="B335" r:id="rId18" tooltip="VanEck Vectors ChinaAMC SME-ChiNext" display="https://es.investing.com/etfs/market-vectors-chinaamc-sme-chinext"/>
-    <hyperlink ref="B43" r:id="rId19" tooltip="Deutsche X-trackers MSCI All China Equity" display="https://es.investing.com/etfs/deutsche-xtrackers-msci-all-china"/>
-    <hyperlink ref="B212" r:id="rId20" tooltip="iShares MSCI China Small-Cap" display="https://es.investing.com/etfs/ishares-msci-china-small-cap"/>
-    <hyperlink ref="B41" r:id="rId21" tooltip="Deutsche X-trackers Harvest CSI 500 China A Shares Small Cap" display="https://es.investing.com/etfs/deutsche-x-trackers-harvest-csi-500"/>
-    <hyperlink ref="B62" r:id="rId22" tooltip="First Trust China AlphaDEX" display="https://es.investing.com/etfs/firsttrust-china-alphadex-fund"/>
-    <hyperlink ref="B380" r:id="rId23" tooltip="WisdomTree ICBCCS S&amp;P China 500" display="https://es.investing.com/etfs/wisdomtree-icbccs-sp-china-500"/>
-    <hyperlink ref="B31" r:id="rId24" tooltip="CSOP FTSE China A50" display="https://es.investing.com/etfs/csop-ftse-china-a50-us"/>
-    <hyperlink ref="B49" r:id="rId25" tooltip="Direxion Daily CSI 300 China A Share Bear 1X" display="https://es.investing.com/etfs/direxion-daily-csi-300-china"/>
-    <hyperlink ref="B136" r:id="rId26" tooltip="Guggenheim Invest China All-Cap" display="https://es.investing.com/etfs/guggenheim-china-all-cap"/>
-    <hyperlink ref="B108" r:id="rId27" tooltip="Global X China Energy" display="https://es.investing.com/etfs/global-x-china-energy"/>
-    <hyperlink ref="B312" r:id="rId28" tooltip="SPDR MSCI China A Shares IMI" display="https://es.investing.com/etfs/spdr-msci-china-a-shares-imi"/>
-    <hyperlink ref="B110" r:id="rId29" tooltip="Global X China Industrials" display="https://es.investing.com/etfs/global-x-china-industrials"/>
-    <hyperlink ref="B111" r:id="rId30" tooltip="Global X China Materials" display="https://es.investing.com/etfs/global-x-china-materials"/>
-    <hyperlink ref="B30" r:id="rId31" tooltip="CSOP China CSI 300 A-H Dynamic" display="https://es.investing.com/etfs/csop-china-csi-300-a-h-dynamic"/>
-    <hyperlink ref="B32" r:id="rId32" tooltip="CSOP MSCI China A International Hedged" display="https://es.investing.com/etfs/csop-msci-china-a-intl-hedged"/>
-    <hyperlink ref="B38" r:id="rId33" tooltip="Deutsche X-trackers CSI 300 China A-Shares Hedged" display="https://es.investing.com/etfs/deutsche-xtrackers-csi-300-china-a"/>
-    <hyperlink ref="B220" r:id="rId34" tooltip="iShares MSCI Emerging Markets" display="https://es.investing.com/etfs/ishares-msci-emg-markets"/>
-    <hyperlink ref="B341" r:id="rId35" tooltip="VanEck Vectors Gold Miners" display="https://es.investing.com/etfs/market-vectors-gold-miners"/>
-    <hyperlink ref="B213" r:id="rId36" tooltip="iShares MSCI EAFE" display="https://es.investing.com/etfs/ishares-msci-eafe-index"/>
-    <hyperlink ref="B353" r:id="rId37" tooltip="Vanguard FTSE Emerging Markets" display="https://es.investing.com/etfs/vanguard-ftse-emerging-markets"/>
-    <hyperlink ref="B352" r:id="rId38" tooltip="Vanguard FTSE Developed Markets" display="https://es.investing.com/etfs/vanguard-europe-pacific"/>
-    <hyperlink ref="B342" r:id="rId39" tooltip="VanEck Vectors Junior Gold Miners" display="https://es.investing.com/etfs/market-vectors-junior-gold-miners"/>
-    <hyperlink ref="B162" r:id="rId40" tooltip="iShares Core MSCI Emerging Markets" display="https://es.investing.com/etfs/ishares-core-msci-emerging-markets"/>
-    <hyperlink ref="B217" r:id="rId41" tooltip="iShares MSCI EAFE Value" display="https://es.investing.com/etfs/ishares-msci-value"/>
-    <hyperlink ref="B205" r:id="rId42" tooltip="iShares MSCI ACWI" display="https://es.investing.com/etfs/ishares-msci-acwi-index-fund"/>
-    <hyperlink ref="B161" r:id="rId43" tooltip="iShares Core MSCI EAFE" display="https://es.investing.com/etfs/ishares-core-msci-eafe"/>
-    <hyperlink ref="B215" r:id="rId44" tooltip="iShares MSCI EAFE Growth" display="https://es.investing.com/etfs/ishares-msci-growth"/>
-    <hyperlink ref="B349" r:id="rId45" tooltip="Vanguard FTSE All World ex US" display="https://es.investing.com/etfs/vanguard-ftse-all-world-x-us"/>
-    <hyperlink ref="B304" r:id="rId46" tooltip="Schwab International Equity" display="https://es.investing.com/etfs/schwab-international-equity"/>
-    <hyperlink ref="B120" r:id="rId47" tooltip="Global X MLP" display="https://es.investing.com/etfs/global-x-mlp"/>
-    <hyperlink ref="B376" r:id="rId48" tooltip="WisdomTree Europe Hedged Equity" display="https://es.investing.com/etfs/wisdomtree-intl-hedged-equity-fund"/>
-    <hyperlink ref="B204" r:id="rId49" tooltip="iShares International Select Dividend" display="https://es.investing.com/etfs/dow-jones-epac-select-dividend"/>
-    <hyperlink ref="B46" r:id="rId50" tooltip="Deutsche X-trackers MSCI EAFE Hedged Equity" display="https://es.investing.com/etfs/db-x-msci-eafe-currency-hedged-eq"/>
-    <hyperlink ref="B357" r:id="rId51" tooltip="Vanguard Total International Stock" display="https://es.investing.com/etfs/vanguard-total-intl-stock"/>
-    <hyperlink ref="B130" r:id="rId52" tooltip="Global X Uranium" display="https://es.investing.com/etfs/global-x-uranium"/>
-    <hyperlink ref="B216" r:id="rId53" tooltip="iShares MSCI EAFE Small-Cap" display="https://es.investing.com/etfs/ishares-msci-eafe-small-cap"/>
-    <hyperlink ref="B164" r:id="rId54" tooltip="iShares Core MSCI Total International Stock" display="https://es.investing.com/etfs/ishares-core-msci-total-intl-stock"/>
-    <hyperlink ref="B303" r:id="rId55" tooltip="Schwab Emerging Markets Equity" display="https://es.investing.com/etfs/schwab-emerging-markets-equity"/>
-    <hyperlink ref="B124" r:id="rId56" tooltip="Global X Robotics &amp; Artificial Intelligence Thematic" display="https://es.investing.com/etfs/global-x-robotics---ai-usd"/>
-    <hyperlink ref="B175" r:id="rId57" tooltip="iShares Edge MSCI Minimum Volatility EAFE" display="https://es.investing.com/etfs/ishares-msci-eafe-min-volatility"/>
-    <hyperlink ref="B145" r:id="rId58" tooltip="Guggenheim Solar" display="https://es.investing.com/etfs/claymore-mac-global-solar-energy-in"/>
-    <hyperlink ref="B105" r:id="rId59" tooltip="Global Robotics and Automation" display="https://es.investing.com/etfs/global-robotics-and-automation"/>
-    <hyperlink ref="B319" r:id="rId60" tooltip="SPDR S&amp;P Emerging Markets" display="https://es.investing.com/etfs/spdr-s-p-emerging-markets"/>
-    <hyperlink ref="B307" r:id="rId61" tooltip="SPDR Dow Jones International Real Estate" display="https://es.investing.com/etfs/spdr-dj-wilshire-intl-real-estate"/>
-    <hyperlink ref="B326" r:id="rId62" tooltip="SPDR S&amp;P World ex US" display="https://es.investing.com/etfs/spdr-s-p-world-ex-us"/>
-    <hyperlink ref="B295" r:id="rId63" tooltip="PureFunds ISE Cyber Security" display="https://es.investing.com/etfs/purefunds-ise-cyber-security"/>
-    <hyperlink ref="B206" r:id="rId64" tooltip="iShares MSCI ACWI ex US" display="https://es.investing.com/etfs/ishares-msci-acwi-x-us"/>
-    <hyperlink ref="B253" r:id="rId65" tooltip="MSCI Frontier 100" display="https://es.investing.com/etfs/msci-frontier-100"/>
-    <hyperlink ref="B358" r:id="rId66" tooltip="Vanguard Total World Stock" display="https://es.investing.com/etfs/vanguard-total-world-stock-index"/>
-    <hyperlink ref="B167" r:id="rId67" tooltip="iShares Currency Hedged MSCI EAFE" display="https://es.investing.com/etfs/ishares-currency-hedged-msci-eafe"/>
-    <hyperlink ref="B79" r:id="rId68" tooltip="First Trust ISE Cloud Computing" display="https://es.investing.com/etfs/ise-cloud-computing"/>
-    <hyperlink ref="B88" r:id="rId69" tooltip="First Trust SSI Strategic Convertible Securities" display="https://es.investing.com/etfs/first-trust-ssi-strtgconvert-sec"/>
-    <hyperlink ref="B190" r:id="rId70" tooltip="iShares Global Energy" display="https://es.investing.com/etfs/ishares-s-p-global-energy"/>
-    <hyperlink ref="B153" r:id="rId71" tooltip="Innovator IBD 50" display="https://es.investing.com/etfs/innovator-ibd-50"/>
-    <hyperlink ref="B177" r:id="rId72" tooltip="iShares Edge MSCI Minimum Volatility Emerging Markets" display="https://es.investing.com/etfs/ishares-msci-em-min-volatility"/>
-    <hyperlink ref="B119" r:id="rId73" tooltip="Global X Lithium" display="https://es.investing.com/etfs/global-x-lithium"/>
-    <hyperlink ref="B354" r:id="rId74" tooltip="Vanguard Global ex-US Real Estate" display="https://es.investing.com/etfs/vanguard-global-ex-su-real-estate"/>
-    <hyperlink ref="B132" r:id="rId75" tooltip="Goldman Sachs ActiveBeta Emerging Markets Equity" display="https://es.investing.com/etfs/goldman-sachs-activebeta-em"/>
-    <hyperlink ref="B94" r:id="rId76" tooltip="FlexShares Morningstar Global Upstream Natural Resources" display="https://es.investing.com/etfs/morningstar-g.-upstream-nat.-res."/>
-    <hyperlink ref="B42" r:id="rId77" tooltip="Deutsche X-trackers High Yield Corporate Bond" display="https://es.investing.com/etfs/deutsche-x-track-hgh-yld-corp"/>
+    <hyperlink ref="B171" r:id="rId1" tooltip="iShares China Large-Cap" display="https://es.investing.com/etfs/ishares-ftse-xinhua-china-25"/>
+    <hyperlink ref="B180" r:id="rId2" tooltip="iShares MSCI China" display="https://es.investing.com/etfs/ishares-msci-china"/>
+    <hyperlink ref="B33" r:id="rId3" tooltip="Deutsche X-trackers Harvest CSI 300 China A-Shares" display="https://es.investing.com/etfs/db-x-trackers-harvest-china"/>
+    <hyperlink ref="B227" r:id="rId4" tooltip="KraneShares Bosera MSCI China A Share" display="https://es.investing.com/etfs/kraneshares-bosera-msci-china-a"/>
+    <hyperlink ref="B131" r:id="rId5" tooltip="Guggenheim Invest China Technology" display="https://es.investing.com/etfs/guggenheim-china-technology"/>
+    <hyperlink ref="B43" r:id="rId6" tooltip="Direxion Daily CSI 300 China A Share Bull 2X Shares" display="https://es.investing.com/etfs/direxion-daily-csi-300-china-a-shar"/>
+    <hyperlink ref="B100" r:id="rId7" tooltip="Global X China Consumer" display="https://es.investing.com/etfs/global-x-china-consumer"/>
+    <hyperlink ref="B329" r:id="rId8" tooltip="SPDR S&amp;P China" display="https://es.investing.com/etfs/spdr-s-p-china"/>
+    <hyperlink ref="B231" r:id="rId9" tooltip="KraneShares MSCI All China Health Care" display="https://es.investing.com/etfs/kraneshares-msci-china-hlth-cr-indx"/>
+    <hyperlink ref="B181" r:id="rId10" tooltip="iShares MSCI China A" display="https://es.investing.com/etfs/ishares-msci-china-a"/>
+    <hyperlink ref="B102" r:id="rId11" tooltip="Global X China Financials" display="https://es.investing.com/etfs/global-x-china-financials"/>
+    <hyperlink ref="B124" r:id="rId12" tooltip="PowerShares Golden Dragon China Port" display="https://es.investing.com/etfs/golden-dragon-halter-usx-china"/>
+    <hyperlink ref="B90" r:id="rId13" tooltip="Franklin FTSE China" display="https://es.investing.com/etfs/franklin-ftse-china"/>
+    <hyperlink ref="B75" r:id="rId14" tooltip="First Trust ISE Chindia" display="https://es.investing.com/etfs/firsttrust-ise-chindia"/>
+    <hyperlink ref="B130" r:id="rId15" tooltip="Guggenheim Invest China Small Cap" display="https://es.investing.com/etfs/guggenheim-china-smlcap"/>
+    <hyperlink ref="B241" r:id="rId16" tooltip="VanEck Vectors ChinaAMC A-Share" display="https://es.investing.com/etfs/marketvectors-china"/>
+    <hyperlink ref="B114" r:id="rId17" tooltip="Global X NASDAQ China Technology" display="https://es.investing.com/etfs/global-x-nasdaq-china-technology"/>
+    <hyperlink ref="B242" r:id="rId18" tooltip="VanEck Vectors ChinaAMC SME-ChiNext" display="https://es.investing.com/etfs/market-vectors-chinaamc-sme-chinext"/>
+    <hyperlink ref="B37" r:id="rId19" tooltip="Deutsche X-trackers MSCI All China Equity" display="https://es.investing.com/etfs/deutsche-xtrackers-msci-all-china"/>
+    <hyperlink ref="B182" r:id="rId20" tooltip="iShares MSCI China Small-Cap" display="https://es.investing.com/etfs/ishares-msci-china-small-cap"/>
+    <hyperlink ref="B36" r:id="rId21" tooltip="Deutsche X-trackers Harvest CSI 500 China A Shares Small Cap" display="https://es.investing.com/etfs/deutsche-x-trackers-harvest-csi-500"/>
+    <hyperlink ref="B61" r:id="rId22" tooltip="First Trust China AlphaDEX" display="https://es.investing.com/etfs/firsttrust-china-alphadex-fund"/>
+    <hyperlink ref="B376" r:id="rId23" tooltip="WisdomTree ICBCCS S&amp;P China 500" display="https://es.investing.com/etfs/wisdomtree-icbccs-sp-china-500"/>
+    <hyperlink ref="B26" r:id="rId24" tooltip="CSOP FTSE China A50" display="https://es.investing.com/etfs/csop-ftse-china-a50-us"/>
+    <hyperlink ref="B42" r:id="rId25" tooltip="Direxion Daily CSI 300 China A Share Bear 1X" display="https://es.investing.com/etfs/direxion-daily-csi-300-china"/>
+    <hyperlink ref="B129" r:id="rId26" tooltip="Guggenheim Invest China All-Cap" display="https://es.investing.com/etfs/guggenheim-china-all-cap"/>
+    <hyperlink ref="B101" r:id="rId27" tooltip="Global X China Energy" display="https://es.investing.com/etfs/global-x-china-energy"/>
+    <hyperlink ref="B323" r:id="rId28" tooltip="SPDR MSCI China A Shares IMI" display="https://es.investing.com/etfs/spdr-msci-china-a-shares-imi"/>
+    <hyperlink ref="B103" r:id="rId29" tooltip="Global X China Industrials" display="https://es.investing.com/etfs/global-x-china-industrials"/>
+    <hyperlink ref="B104" r:id="rId30" tooltip="Global X China Materials" display="https://es.investing.com/etfs/global-x-china-materials"/>
+    <hyperlink ref="B25" r:id="rId31" tooltip="CSOP China CSI 300 A-H Dynamic" display="https://es.investing.com/etfs/csop-china-csi-300-a-h-dynamic"/>
+    <hyperlink ref="B27" r:id="rId32" tooltip="CSOP MSCI China A International Hedged" display="https://es.investing.com/etfs/csop-msci-china-a-intl-hedged"/>
+    <hyperlink ref="B34" r:id="rId33" tooltip="Deutsche X-trackers CSI 300 China A-Shares Hedged" display="https://es.investing.com/etfs/deutsche-xtrackers-csi-300-china-a"/>
+    <hyperlink ref="B189" r:id="rId34" tooltip="iShares MSCI Emerging Markets" display="https://es.investing.com/etfs/ishares-msci-emg-markets"/>
+    <hyperlink ref="B247" r:id="rId35" tooltip="VanEck Vectors Gold Miners" display="https://es.investing.com/etfs/market-vectors-gold-miners"/>
+    <hyperlink ref="B184" r:id="rId36" tooltip="iShares MSCI EAFE" display="https://es.investing.com/etfs/ishares-msci-eafe-index"/>
+    <hyperlink ref="B351" r:id="rId37" tooltip="Vanguard FTSE Emerging Markets" display="https://es.investing.com/etfs/vanguard-ftse-emerging-markets"/>
+    <hyperlink ref="B347" r:id="rId38" tooltip="Vanguard FTSE Developed Markets" display="https://es.investing.com/etfs/vanguard-europe-pacific"/>
+    <hyperlink ref="B249" r:id="rId39" tooltip="VanEck Vectors Junior Gold Miners" display="https://es.investing.com/etfs/market-vectors-junior-gold-miners"/>
+    <hyperlink ref="B153" r:id="rId40" tooltip="iShares Core MSCI Emerging Markets" display="https://es.investing.com/etfs/ishares-core-msci-emerging-markets"/>
+    <hyperlink ref="B199" r:id="rId41" tooltip="iShares MSCI EAFE Value" display="https://es.investing.com/etfs/ishares-msci-value"/>
+    <hyperlink ref="B174" r:id="rId42" tooltip="iShares MSCI ACWI" display="https://es.investing.com/etfs/ishares-msci-acwi-index-fund"/>
+    <hyperlink ref="B152" r:id="rId43" tooltip="iShares Core MSCI EAFE" display="https://es.investing.com/etfs/ishares-core-msci-eafe"/>
+    <hyperlink ref="B194" r:id="rId44" tooltip="iShares MSCI EAFE Growth" display="https://es.investing.com/etfs/ishares-msci-growth"/>
+    <hyperlink ref="B350" r:id="rId45" tooltip="Vanguard FTSE All World ex US" display="https://es.investing.com/etfs/vanguard-ftse-all-world-x-us"/>
+    <hyperlink ref="B314" r:id="rId46" tooltip="Schwab International Equity" display="https://es.investing.com/etfs/schwab-international-equity"/>
+    <hyperlink ref="B112" r:id="rId47" tooltip="Global X MLP" display="https://es.investing.com/etfs/global-x-mlp"/>
+    <hyperlink ref="B379" r:id="rId48" tooltip="WisdomTree Europe Hedged Equity" display="https://es.investing.com/etfs/wisdomtree-intl-hedged-equity-fund"/>
+    <hyperlink ref="B45" r:id="rId49" tooltip="iShares International Select Dividend" display="https://es.investing.com/etfs/dow-jones-epac-select-dividend"/>
+    <hyperlink ref="B31" r:id="rId50" tooltip="Deutsche X-trackers MSCI EAFE Hedged Equity" display="https://es.investing.com/etfs/db-x-msci-eafe-currency-hedged-eq"/>
+    <hyperlink ref="B355" r:id="rId51" tooltip="Vanguard Total International Stock" display="https://es.investing.com/etfs/vanguard-total-intl-stock"/>
+    <hyperlink ref="B122" r:id="rId52" tooltip="Global X Uranium" display="https://es.investing.com/etfs/global-x-uranium"/>
+    <hyperlink ref="B186" r:id="rId53" tooltip="iShares MSCI EAFE Small-Cap" display="https://es.investing.com/etfs/ishares-msci-eafe-small-cap"/>
+    <hyperlink ref="B155" r:id="rId54" tooltip="iShares Core MSCI Total International Stock" display="https://es.investing.com/etfs/ishares-core-msci-total-intl-stock"/>
+    <hyperlink ref="B313" r:id="rId55" tooltip="Schwab Emerging Markets Equity" display="https://es.investing.com/etfs/schwab-emerging-markets-equity"/>
+    <hyperlink ref="B116" r:id="rId56" tooltip="Global X Robotics &amp; Artificial Intelligence Thematic" display="https://es.investing.com/etfs/global-x-robotics---ai-usd"/>
+    <hyperlink ref="B185" r:id="rId57" tooltip="iShares Edge MSCI Minimum Volatility EAFE" display="https://es.investing.com/etfs/ishares-msci-eafe-min-volatility"/>
+    <hyperlink ref="B21" r:id="rId58" tooltip="Guggenheim Solar" display="https://es.investing.com/etfs/claymore-mac-global-solar-energy-in"/>
+    <hyperlink ref="B98" r:id="rId59" tooltip="Global Robotics and Automation" display="https://es.investing.com/etfs/global-robotics-and-automation"/>
+    <hyperlink ref="B330" r:id="rId60" tooltip="SPDR S&amp;P Emerging Markets" display="https://es.investing.com/etfs/spdr-s-p-emerging-markets"/>
+    <hyperlink ref="B318" r:id="rId61" tooltip="SPDR Dow Jones International Real Estate" display="https://es.investing.com/etfs/spdr-dj-wilshire-intl-real-estate"/>
+    <hyperlink ref="B336" r:id="rId62" tooltip="SPDR S&amp;P World ex US" display="https://es.investing.com/etfs/spdr-s-p-world-ex-us"/>
+    <hyperlink ref="B303" r:id="rId63" tooltip="PureFunds ISE Cyber Security" display="https://es.investing.com/etfs/purefunds-ise-cyber-security"/>
+    <hyperlink ref="B176" r:id="rId64" tooltip="iShares MSCI ACWI ex US" display="https://es.investing.com/etfs/ishares-msci-acwi-x-us"/>
+    <hyperlink ref="B259" r:id="rId65" tooltip="MSCI Frontier 100" display="https://es.investing.com/etfs/msci-frontier-100"/>
+    <hyperlink ref="B356" r:id="rId66" tooltip="Vanguard Total World Stock" display="https://es.investing.com/etfs/vanguard-total-world-stock-index"/>
+    <hyperlink ref="B160" r:id="rId67" tooltip="iShares Currency Hedged MSCI EAFE" display="https://es.investing.com/etfs/ishares-currency-hedged-msci-eafe"/>
+    <hyperlink ref="B148" r:id="rId68" tooltip="First Trust ISE Cloud Computing" display="https://es.investing.com/etfs/ise-cloud-computing"/>
+    <hyperlink ref="B84" r:id="rId69" tooltip="First Trust SSI Strategic Convertible Securities" display="https://es.investing.com/etfs/first-trust-ssi-strtgconvert-sec"/>
+    <hyperlink ref="B206" r:id="rId70" tooltip="iShares Global Energy" display="https://es.investing.com/etfs/ishares-s-p-global-energy"/>
+    <hyperlink ref="B141" r:id="rId71" tooltip="Innovator IBD 50" display="https://es.investing.com/etfs/innovator-ibd-50"/>
+    <hyperlink ref="B190" r:id="rId72" tooltip="iShares Edge MSCI Minimum Volatility Emerging Markets" display="https://es.investing.com/etfs/ishares-msci-em-min-volatility"/>
+    <hyperlink ref="B111" r:id="rId73" tooltip="Global X Lithium" display="https://es.investing.com/etfs/global-x-lithium"/>
+    <hyperlink ref="B352" r:id="rId74" tooltip="Vanguard Global ex-US Real Estate" display="https://es.investing.com/etfs/vanguard-global-ex-su-real-estate"/>
+    <hyperlink ref="B125" r:id="rId75" tooltip="Goldman Sachs ActiveBeta Emerging Markets Equity" display="https://es.investing.com/etfs/goldman-sachs-activebeta-em"/>
+    <hyperlink ref="B257" r:id="rId76" tooltip="FlexShares Morningstar Global Upstream Natural Resources" display="https://es.investing.com/etfs/morningstar-g.-upstream-nat.-res."/>
+    <hyperlink ref="B40" r:id="rId77" tooltip="Deutsche X-trackers High Yield Corporate Bond" display="https://es.investing.com/etfs/deutsche-x-track-hgh-yld-corp"/>
     <hyperlink ref="B66" r:id="rId78" tooltip="First Trust Dorsey Wright International Focus 5" display="https://es.investing.com/etfs/first-trust-dorsey-wright-internati"/>
-    <hyperlink ref="B323" r:id="rId79" tooltip="SPDR S&amp;P Global Natural Resources" display="https://es.investing.com/etfs/spdr-s-p-global-natural-resources"/>
-    <hyperlink ref="B114" r:id="rId80" tooltip="Global X FinTech Thematic" display="https://es.investing.com/etfs/global-x-fintech-thematic"/>
-    <hyperlink ref="B276" r:id="rId81" tooltip="PowerShares International Dividend Achievers Portfolio" display="https://es.investing.com/etfs/powersh.-intl-dividend-achievers"/>
-    <hyperlink ref="B127" r:id="rId82" tooltip="Global X SuperDividend" display="https://es.investing.com/etfs/global-x-superdividend"/>
-    <hyperlink ref="B269" r:id="rId83" tooltip="PowerShares FTSE RAFI Emerging Markets" display="https://es.investing.com/etfs/powershares-ft-rafi-emerging-mrkt"/>
-    <hyperlink ref="B194" r:id="rId84" tooltip="iShares Global Infrastructure" display="https://es.investing.com/etfs/ishares-s-p-global-infrastructure"/>
-    <hyperlink ref="B374" r:id="rId85" tooltip="WisdomTree Emerging Markets High Dividend" display="https://es.investing.com/etfs/wisdomtree-eme-income-fund"/>
-    <hyperlink ref="B185" r:id="rId86" tooltip="iShares Exponential Technologies" display="https://es.investing.com/etfs/ishares-exponential-tech-mu?cid=1043100"/>
-    <hyperlink ref="B305" r:id="rId87" tooltip="Schwab International Small-Cap Equity" display="https://es.investing.com/etfs/schwab-intl-small-cap-equity"/>
-    <hyperlink ref="B346" r:id="rId88" tooltip="VanEck Vectors Steel" display="https://es.investing.com/etfs/salix-pharmaceuticals-ltd."/>
-    <hyperlink ref="B325" r:id="rId89" tooltip="SPDR S&amp;P International Small Cap" display="https://es.investing.com/etfs/spdr-s-p-intl-smallcap"/>
+    <hyperlink ref="B333" r:id="rId79" tooltip="SPDR S&amp;P Global Natural Resources" display="https://es.investing.com/etfs/spdr-s-p-global-natural-resources"/>
+    <hyperlink ref="B107" r:id="rId80" tooltip="Global X FinTech Thematic" display="https://es.investing.com/etfs/global-x-fintech-thematic"/>
+    <hyperlink ref="B272" r:id="rId81" tooltip="PowerShares International Dividend Achievers Portfolio" display="https://es.investing.com/etfs/powersh.-intl-dividend-achievers"/>
+    <hyperlink ref="B118" r:id="rId82" tooltip="Global X SuperDividend" display="https://es.investing.com/etfs/global-x-superdividend"/>
+    <hyperlink ref="B277" r:id="rId83" tooltip="PowerShares FTSE RAFI Emerging Markets" display="https://es.investing.com/etfs/powershares-ft-rafi-emerging-mrkt"/>
+    <hyperlink ref="B210" r:id="rId84" tooltip="iShares Global Infrastructure" display="https://es.investing.com/etfs/ishares-s-p-global-infrastructure"/>
+    <hyperlink ref="B371" r:id="rId85" tooltip="WisdomTree Emerging Markets High Dividend" display="https://es.investing.com/etfs/wisdomtree-eme-income-fund"/>
+    <hyperlink ref="B166" r:id="rId86" tooltip="iShares Exponential Technologies" display="https://es.investing.com/etfs/ishares-exponential-tech-mu?cid=1043100"/>
+    <hyperlink ref="B315" r:id="rId87" tooltip="Schwab International Small-Cap Equity" display="https://es.investing.com/etfs/schwab-intl-small-cap-equity"/>
+    <hyperlink ref="B311" r:id="rId88" tooltip="VanEck Vectors Steel" display="https://es.investing.com/etfs/salix-pharmaceuticals-ltd."/>
+    <hyperlink ref="B335" r:id="rId89" tooltip="SPDR S&amp;P International Small Cap" display="https://es.investing.com/etfs/spdr-s-p-intl-smallcap"/>
     <hyperlink ref="B68" r:id="rId90" tooltip="First Trust Emerging Markets AlphaDEX" display="https://es.investing.com/etfs/firsttrust-emerging-mrkt-alphadex"/>
-    <hyperlink ref="B321" r:id="rId91" tooltip="SPDR S&amp;P Emerging Markets Small Cap" display="https://es.investing.com/etfs/spdr-s-p-emerging-markets-smallcap"/>
-    <hyperlink ref="B174" r:id="rId92" tooltip="iShares Edge MSCI International Value Factor" display="https://es.investing.com/etfs/ishares-msci-intl-dev-value"/>
-    <hyperlink ref="B142" r:id="rId93" tooltip="Guggenheim Invest Shipping" display="https://es.investing.com/etfs/guggenheim-global-shipping"/>
-    <hyperlink ref="B300" r:id="rId94" tooltip="RiverFront Dynamic Unconstrained Income" display="https://es.investing.com/etfs/riverfront-dynamic-unconstr-inc"/>
+    <hyperlink ref="B332" r:id="rId91" tooltip="SPDR S&amp;P Emerging Markets Small Cap" display="https://es.investing.com/etfs/spdr-s-p-emerging-markets-smallcap"/>
+    <hyperlink ref="B197" r:id="rId92" tooltip="iShares Edge MSCI International Value Factor" display="https://es.investing.com/etfs/ishares-msci-intl-dev-value"/>
+    <hyperlink ref="B132" r:id="rId93" tooltip="Guggenheim Invest Shipping" display="https://es.investing.com/etfs/guggenheim-global-shipping"/>
+    <hyperlink ref="B308" r:id="rId94" tooltip="RiverFront Dynamic Unconstrained Income" display="https://es.investing.com/etfs/riverfront-dynamic-unconstr-inc"/>
     <hyperlink ref="B10" r:id="rId95" tooltip="Amplify Online Retail" display="https://es.investing.com/etfs/amplify-online-retail"/>
     <hyperlink ref="B64" r:id="rId96" tooltip="First Trust Developed Markets Ex-US AlphaDEX" display="https://es.investing.com/etfs/firsttrust-dm-x-us-alphadex-fund"/>
-    <hyperlink ref="B53" r:id="rId97" tooltip="EMQQ Emerging Markets Internet and Ecommerce" display="https://es.investing.com/etfs/emqq-em-internet-and-ecommerce"/>
-    <hyperlink ref="B182" r:id="rId98" tooltip="iShares Edge MSCI Multifactor International" display="https://es.investing.com/etfs/ishares-factorselect-msci-int"/>
-    <hyperlink ref="B147" r:id="rId99" tooltip="Hartford Multifactor Developed Markets ex US" display="https://es.investing.com/etfs/lattice-developed-markets-ex-us-str"/>
-    <hyperlink ref="B306" r:id="rId100" tooltip="SPDR Dow Jones Global Real Estate" display="https://es.investing.com/etfs/spdr-wilshire-global-real-estate"/>
-    <hyperlink ref="B324" r:id="rId101" tooltip="SPDR S&amp;P International Dividend" display="https://es.investing.com/etfs/spdr-s-p-intl-dividend"/>
-    <hyperlink ref="B299" r:id="rId102" tooltip="RiverFront Dynamic Core Income" display="https://es.investing.com/etfs/riverfront-dynamic-core-income"/>
-    <hyperlink ref="B309" r:id="rId103" tooltip="SPDR MSCI ACWI ex-US" display="https://es.investing.com/etfs/spdr-msci-acwi-ex-us"/>
-    <hyperlink ref="B133" r:id="rId104" tooltip="Goldman Sachs ActiveBeta International Equity" display="https://es.investing.com/etfs/goldman-sachs-activebeta-inteqt"/>
-    <hyperlink ref="B125" r:id="rId105" tooltip="Global X Silver Miners" display="https://es.investing.com/etfs/silver-miners"/>
-    <hyperlink ref="B350" r:id="rId106" tooltip="Vanguard FTSE All-World ex-US Small-Cap" display="https://es.investing.com/etfs/vanguard-ftse-all-wld-x-us-smcp"/>
-    <hyperlink ref="B24" r:id="rId107" tooltip="Columbia Emerging Markets Consumer" display="https://es.investing.com/etfs/egshares-emerging-markets-consumer"/>
-    <hyperlink ref="B356" r:id="rId108" tooltip="Vanguard International High Dividend Yield" display="https://es.investing.com/etfs/vanguard-int-high-div-yld"/>
-    <hyperlink ref="B375" r:id="rId109" tooltip="WisdomTree Emerging Markets SmallCap Dividend" display="https://es.investing.com/etfs/wisdomtree-emerging-mrkt-smallcap"/>
-    <hyperlink ref="B112" r:id="rId110" tooltip="Global X Copper Miners" display="https://es.investing.com/etfs/global-x-copper-miners"/>
-    <hyperlink ref="B281" r:id="rId111" tooltip="PowerShares S&amp;P Emerging Markets Low Volatility" display="https://es.investing.com/etfs/powershares-s-p-em-low-volatility"/>
-    <hyperlink ref="B44" r:id="rId112" tooltip="Deutsche X-trackers MSCI All World ex US Hedged Equity" display="https://es.investing.com/etfs/xtrackers-msci-all-world"/>
-    <hyperlink ref="B187" r:id="rId113" tooltip="iShares Global Clean Energy" display="https://es.investing.com/etfs/ishares-s-p-global-clean-energy"/>
-    <hyperlink ref="B85" r:id="rId114" tooltip="First Trust NASDAQ Technology Dividend" display="https://es.investing.com/etfs/firsttrust-nq-technology-dividend"/>
-    <hyperlink ref="B179" r:id="rId115" tooltip="iShares Edge MSCI Minimum Volatility Global" display="https://es.investing.com/etfs/ishares-msci-all-country-min.-vol."/>
-    <hyperlink ref="B239" r:id="rId116" tooltip="JPMorgan Diversified Return International Equity" display="https://es.investing.com/etfs/jpmorgan-diversi"/>
-    <hyperlink ref="B263" r:id="rId117" tooltip="PowerShares DWA Emerging Markets Momentum" display="https://es.investing.com/etfs/powershr-dwa-em-mom"/>
-    <hyperlink ref="B236" r:id="rId118" tooltip="JPMorgan Diversified Return Emerging Markets Equity" display="https://es.investing.com/etfs/jpmorgan-diversified-return-emergin"/>
-    <hyperlink ref="B67" r:id="rId119" tooltip="First Trust Dow Jones Global Select Dividend" display="https://es.investing.com/etfs/firsttrust-dj-global-select-div."/>
-    <hyperlink ref="B126" r:id="rId120" tooltip="Global X Social Media" display="https://es.investing.com/etfs/global-x-social-media-index"/>
-    <hyperlink ref="B336" r:id="rId121" tooltip="VanEck Vectors Coal" display="https://es.investing.com/etfs/market-vectors-coal"/>
-    <hyperlink ref="B17" r:id="rId122" tooltip="Barclays ETN Plus Select MLP" display="https://es.investing.com/etfs/barclays-etn-plus-select-mlp"/>
-    <hyperlink ref="B184" r:id="rId123" tooltip="iShares Emerging Markets Dividend" display="https://es.investing.com/etfs/ishares-emerging-markets-dividend"/>
-    <hyperlink ref="B191" r:id="rId124" tooltip="iShares Global Financials" display="https://es.investing.com/etfs/ishares-s-p-global-financial"/>
-    <hyperlink ref="B264" r:id="rId125" tooltip="PowerShares DWA Momentum &amp; Low Volatility Rotation Portfolio" display="https://es.investing.com/etfs/powershares-dwa-momlowvol-rotation"/>
-    <hyperlink ref="B209" r:id="rId126" tooltip="iShares MSCI BRIC" display="https://es.investing.com/etfs/ishares-msci-birc"/>
-    <hyperlink ref="B286" r:id="rId127" tooltip="PowerShares Variable Rate Investment Grade Portfolio" display="https://es.investing.com/etfs/powershares-varrate-invest-grade"/>
-    <hyperlink ref="B330" r:id="rId128" tooltip="UBS AG FI Enhanced Global High Yield" display="https://es.investing.com/etfs/ubs-ag-fi-enhanced-glbl-hgh-yld"/>
-    <hyperlink ref="B70" r:id="rId129" tooltip="First Trust Emerging Markets Small Cap AlphaDEX" display="https://es.investing.com/etfs/firsttrust-em-small-cap-alphadex"/>
-    <hyperlink ref="B180" r:id="rId130" tooltip="iShares Edge MSCI Multifactor Emerging Markets" display="https://es.investing.com/etfs/ishares-edge-msci-multifactor-emerg"/>
-    <hyperlink ref="B333" r:id="rId131" tooltip="VanEck Vectors Agribusiness" display="https://es.investing.com/etfs/marketvectors-agribusiness"/>
-    <hyperlink ref="B355" r:id="rId132" tooltip="Vanguard International Dividend Appreciation " display="https://es.investing.com/etfs/vanguard-int-div-appreciation"/>
-    <hyperlink ref="B195" r:id="rId133" tooltip="iShares Global Materials" display="https://es.investing.com/etfs/ishares-s-p-global-materials"/>
-    <hyperlink ref="B76" r:id="rId134" tooltip="First Trust Institutional Preferred Securities and Income" display="https://es.investing.com/etfs/first-trust-inst-pref-secs-and-inc"/>
-    <hyperlink ref="B366" r:id="rId135" tooltip="WCM/BNY Mellon Focused Growth ADR" display="https://es.investing.com/etfs/wcm-bny-mellon-focused-growth-adr"/>
-    <hyperlink ref="B359" r:id="rId136" tooltip="Victory CEMP International High Dividend Volatility Weighted" display="https://es.investing.com/etfs/victory-cemp-international-high-div"/>
-    <hyperlink ref="B181" r:id="rId137" tooltip="iShares Edge MSCI Multifactor Global" display="https://es.investing.com/etfs/ishares-factorselect-msci-global"/>
-    <hyperlink ref="B267" r:id="rId138" tooltip="PowerShares FTSE RAFI Developed Markets ex-US" display="https://es.investing.com/etfs/powershares-ftse-rafi-dm-x-us"/>
-    <hyperlink ref="B302" r:id="rId139" tooltip="Schwab 1000" display="https://es.investing.com/etfs/schwab-1000"/>
-    <hyperlink ref="B387" r:id="rId140" tooltip="WisdomTree International SmallCap Dividend" display="https://es.investing.com/etfs/wisdomtree-intl-smallcap-fund"/>
+    <hyperlink ref="B52" r:id="rId97" tooltip="EMQQ Emerging Markets Internet and Ecommerce" display="https://es.investing.com/etfs/emqq-em-internet-and-ecommerce"/>
+    <hyperlink ref="B168" r:id="rId98" tooltip="iShares Edge MSCI Multifactor International" display="https://es.investing.com/etfs/ishares-factorselect-msci-int"/>
+    <hyperlink ref="B233" r:id="rId99" tooltip="Hartford Multifactor Developed Markets ex US" display="https://es.investing.com/etfs/lattice-developed-markets-ex-us-str"/>
+    <hyperlink ref="B337" r:id="rId100" tooltip="SPDR Dow Jones Global Real Estate" display="https://es.investing.com/etfs/spdr-wilshire-global-real-estate"/>
+    <hyperlink ref="B334" r:id="rId101" tooltip="SPDR S&amp;P International Dividend" display="https://es.investing.com/etfs/spdr-s-p-intl-dividend"/>
+    <hyperlink ref="B307" r:id="rId102" tooltip="RiverFront Dynamic Core Income" display="https://es.investing.com/etfs/riverfront-dynamic-core-income"/>
+    <hyperlink ref="B320" r:id="rId103" tooltip="SPDR MSCI ACWI ex-US" display="https://es.investing.com/etfs/spdr-msci-acwi-ex-us"/>
+    <hyperlink ref="B126" r:id="rId104" tooltip="Goldman Sachs ActiveBeta International Equity" display="https://es.investing.com/etfs/goldman-sachs-activebeta-inteqt"/>
+    <hyperlink ref="B316" r:id="rId105" tooltip="Global X Silver Miners" display="https://es.investing.com/etfs/silver-miners"/>
+    <hyperlink ref="B348" r:id="rId106" tooltip="Vanguard FTSE All-World ex-US Small-Cap" display="https://es.investing.com/etfs/vanguard-ftse-all-wld-x-us-smcp"/>
+    <hyperlink ref="B50" r:id="rId107" tooltip="Columbia Emerging Markets Consumer" display="https://es.investing.com/etfs/egshares-emerging-markets-consumer"/>
+    <hyperlink ref="B354" r:id="rId108" tooltip="Vanguard International High Dividend Yield" display="https://es.investing.com/etfs/vanguard-int-high-div-yld"/>
+    <hyperlink ref="B372" r:id="rId109" tooltip="WisdomTree Emerging Markets SmallCap Dividend" display="https://es.investing.com/etfs/wisdomtree-emerging-mrkt-smallcap"/>
+    <hyperlink ref="B105" r:id="rId110" tooltip="Global X Copper Miners" display="https://es.investing.com/etfs/global-x-copper-miners"/>
+    <hyperlink ref="B288" r:id="rId111" tooltip="PowerShares S&amp;P Emerging Markets Low Volatility" display="https://es.investing.com/etfs/powershares-s-p-em-low-volatility"/>
+    <hyperlink ref="B386" r:id="rId112" tooltip="Deutsche X-trackers MSCI All World ex US Hedged Equity" display="https://es.investing.com/etfs/xtrackers-msci-all-world"/>
+    <hyperlink ref="B203" r:id="rId113" tooltip="iShares Global Clean Energy" display="https://es.investing.com/etfs/ishares-s-p-global-clean-energy"/>
+    <hyperlink ref="B81" r:id="rId114" tooltip="First Trust NASDAQ Technology Dividend" display="https://es.investing.com/etfs/firsttrust-nq-technology-dividend"/>
+    <hyperlink ref="B177" r:id="rId115" tooltip="iShares Edge MSCI Minimum Volatility Global" display="https://es.investing.com/etfs/ishares-msci-all-country-min.-vol."/>
+    <hyperlink ref="B222" r:id="rId116" tooltip="JPMorgan Diversified Return International Equity" display="https://es.investing.com/etfs/jpmorgan-diversi"/>
+    <hyperlink ref="B291" r:id="rId117" tooltip="PowerShares DWA Emerging Markets Momentum" display="https://es.investing.com/etfs/powershr-dwa-em-mom"/>
+    <hyperlink ref="B224" r:id="rId118" tooltip="JPMorgan Diversified Return Emerging Markets Equity" display="https://es.investing.com/etfs/jpmorgan-diversified-return-emergin"/>
+    <hyperlink ref="B63" r:id="rId119" tooltip="First Trust Dow Jones Global Select Dividend" display="https://es.investing.com/etfs/firsttrust-dj-global-select-div."/>
+    <hyperlink ref="B117" r:id="rId120" tooltip="Global X Social Media" display="https://es.investing.com/etfs/global-x-social-media-index"/>
+    <hyperlink ref="B243" r:id="rId121" tooltip="VanEck Vectors Coal" display="https://es.investing.com/etfs/market-vectors-coal"/>
+    <hyperlink ref="B16" r:id="rId122" tooltip="Barclays ETN Plus Select MLP" display="https://es.investing.com/etfs/barclays-etn-plus-select-mlp"/>
+    <hyperlink ref="B165" r:id="rId123" tooltip="iShares Emerging Markets Dividend" display="https://es.investing.com/etfs/ishares-emerging-markets-dividend"/>
+    <hyperlink ref="B207" r:id="rId124" tooltip="iShares Global Financials" display="https://es.investing.com/etfs/ishares-s-p-global-financial"/>
+    <hyperlink ref="B275" r:id="rId125" tooltip="PowerShares DWA Momentum &amp; Low Volatility Rotation Portfolio" display="https://es.investing.com/etfs/powershares-dwa-momlowvol-rotation"/>
+    <hyperlink ref="B179" r:id="rId126" tooltip="iShares MSCI BRIC" display="https://es.investing.com/etfs/ishares-msci-birc"/>
+    <hyperlink ref="B290" r:id="rId127" tooltip="PowerShares Variable Rate Investment Grade Portfolio" display="https://es.investing.com/etfs/powershares-varrate-invest-grade"/>
+    <hyperlink ref="B343" r:id="rId128" tooltip="UBS AG FI Enhanced Global High Yield" display="https://es.investing.com/etfs/ubs-ag-fi-enhanced-glbl-hgh-yld"/>
+    <hyperlink ref="B69" r:id="rId129" tooltip="First Trust Emerging Markets Small Cap AlphaDEX" display="https://es.investing.com/etfs/firsttrust-em-small-cap-alphadex"/>
+    <hyperlink ref="B164" r:id="rId130" tooltip="iShares Edge MSCI Multifactor Emerging Markets" display="https://es.investing.com/etfs/ishares-edge-msci-multifactor-emerg"/>
+    <hyperlink ref="B240" r:id="rId131" tooltip="VanEck Vectors Agribusiness" display="https://es.investing.com/etfs/marketvectors-agribusiness"/>
+    <hyperlink ref="B353" r:id="rId132" tooltip="Vanguard International Dividend Appreciation " display="https://es.investing.com/etfs/vanguard-int-div-appreciation"/>
+    <hyperlink ref="B211" r:id="rId133" tooltip="iShares Global Materials" display="https://es.investing.com/etfs/ishares-s-p-global-materials"/>
+    <hyperlink ref="B73" r:id="rId134" tooltip="First Trust Institutional Preferred Securities and Income" display="https://es.investing.com/etfs/first-trust-inst-pref-secs-and-inc"/>
+    <hyperlink ref="B364" r:id="rId135" tooltip="WCM/BNY Mellon Focused Growth ADR" display="https://es.investing.com/etfs/wcm-bny-mellon-focused-growth-adr"/>
+    <hyperlink ref="B357" r:id="rId136" tooltip="Victory CEMP International High Dividend Volatility Weighted" display="https://es.investing.com/etfs/victory-cemp-international-high-div"/>
+    <hyperlink ref="B167" r:id="rId137" tooltip="iShares Edge MSCI Multifactor Global" display="https://es.investing.com/etfs/ishares-factorselect-msci-global"/>
+    <hyperlink ref="B279" r:id="rId138" tooltip="PowerShares FTSE RAFI Developed Markets ex-US" display="https://es.investing.com/etfs/powershares-ftse-rafi-dm-x-us"/>
+    <hyperlink ref="B312" r:id="rId139" tooltip="Schwab 1000" display="https://es.investing.com/etfs/schwab-1000"/>
+    <hyperlink ref="B383" r:id="rId140" tooltip="WisdomTree International SmallCap Dividend" display="https://es.investing.com/etfs/wisdomtree-intl-smallcap-fund"/>
     <hyperlink ref="B11" r:id="rId141" tooltip="Amplify Transformational Data Sharing" display="https://es.investing.com/etfs/amplify-transform-data-sharing"/>
-    <hyperlink ref="B20" r:id="rId142" tooltip="BLDRS Developed Markets 100 ADR" display="https://es.investing.com/etfs/pshares-bldrs-dm-100-adr"/>
-    <hyperlink ref="B345" r:id="rId143" tooltip="VanEck Vectors Oil Refiners" display="https://es.investing.com/etfs/market-vectors-oil-refiners"/>
-    <hyperlink ref="B296" r:id="rId144" tooltip="PureFunds Video Game Tech" display="https://es.investing.com/etfs/purefunds-video-game-tech"/>
-    <hyperlink ref="B225" r:id="rId145" tooltip="iShares MSCI Global Gold Miners" display="https://es.investing.com/etfs/ishares-msci-global-gold-miners-be?cid=44703"/>
-    <hyperlink ref="B320" r:id="rId146" tooltip="SPDR S&amp;P Emerging Markets Dividend" display="https://es.investing.com/etfs/spdr-s-p-emerging-markets-dividend"/>
-    <hyperlink ref="B383" r:id="rId147" tooltip="WisdomTree International Hedged Quality Dividend Growth" display="https://es.investing.com/etfs/wisdomtree-intl-hdg-quality-div"/>
-    <hyperlink ref="B87" r:id="rId148" tooltip="First Trust RiverFront Dynamic Emerging Markets" display="https://es.investing.com/etfs/first-trust-riverfront-dynamic-em"/>
-    <hyperlink ref="B203" r:id="rId149" tooltip="iShares International Preferred Stock" display="https://es.investing.com/etfs/ishares-s-p-intl-preferred-stock"/>
-    <hyperlink ref="B227" r:id="rId150" tooltip="iShares MSCI Global Metals &amp; Mining Producers" display="https://es.investing.com/etfs/msci-global-metals-mining-prod."/>
-    <hyperlink ref="B382" r:id="rId151" tooltip="WisdomTree International Equity" display="https://es.investing.com/etfs/wisdomtree-defa-fund"/>
-    <hyperlink ref="B275" r:id="rId152" tooltip="PowerShares International BuyBack Achievers" display="https://es.investing.com/etfs/powershares-international-buyback-a"/>
-    <hyperlink ref="B158" r:id="rId153" tooltip="IQ Merger Arbitrage" display="https://es.investing.com/etfs/iq-arb-merger-arbitrage"/>
-    <hyperlink ref="B196" r:id="rId154" tooltip="iShares Global Tech" display="https://es.investing.com/etfs/ishares-s-p-global-technology"/>
-    <hyperlink ref="B34" r:id="rId155" tooltip="Davis Select International" display="https://es.investing.com/etfs/davis-select-international"/>
-    <hyperlink ref="B322" r:id="rId156" tooltip="SPDR S&amp;P Global Infrastructure" display="https://es.investing.com/etfs/spdr-ftse-macquarie-gi-100"/>
-    <hyperlink ref="B218" r:id="rId157" tooltip="iShares MSCI EM ESG Optimized" display="https://es.investing.com/etfs/ishares-msci-em-esg-optimized"/>
-    <hyperlink ref="B284" r:id="rId158" tooltip="PowerShares S&amp;P Intl Developed Low Volatility Portfolio" display="https://es.investing.com/etfs/invesco-s-p-intl-dev-low-vol."/>
-    <hyperlink ref="B154" r:id="rId159" tooltip="Inspire Global Hope" display="https://es.investing.com/etfs/inspire-global-hope"/>
-    <hyperlink ref="B362" r:id="rId160" tooltip="Vident International Equity" display="https://es.investing.com/etfs/vident-international-equity"/>
-    <hyperlink ref="B363" r:id="rId161" tooltip="Vident International Equity" display="https://es.investing.com/etfs/vident-international-equity?cid=1072337"/>
-    <hyperlink ref="B268" r:id="rId162" tooltip="PowerShares FTSE RAFI Developed Markets ex-US Small-Mid Portfolio" display="https://es.investing.com/etfs/pshares-ftse-rafi-dm-x-us-sml-mid"/>
-    <hyperlink ref="B141" r:id="rId163" tooltip="Guggenheim Invest S&amp;P Global Water" display="https://es.investing.com/etfs/guggenheim-s-p-global-water"/>
-    <hyperlink ref="B192" r:id="rId164" tooltip="iShares Global Healthcare" display="https://es.investing.com/etfs/ishares-s-p-global-healthcare"/>
-    <hyperlink ref="B21" r:id="rId165" tooltip="BLDRS Emerging Markets 50 ADR" display="https://es.investing.com/etfs/powershares-bldrs-em-50-adr"/>
-    <hyperlink ref="B92" r:id="rId166" tooltip="FlexShares Morningstar Dev Mkts exUS Factors Tilt" display="https://es.investing.com/etfs/morningstar-dm-x-us-factor-tilt"/>
-    <hyperlink ref="B297" r:id="rId167" tooltip="Reality Shares Nasdaq NexGen Economy" display="https://es.investing.com/etfs/reality-shares-nasdaq-nexgen-econ"/>
-    <hyperlink ref="B384" r:id="rId168" tooltip="WisdomTree International High Dividend" display="https://es.investing.com/etfs/wisdomtree-defa-high-yielding-eq"/>
-    <hyperlink ref="B117" r:id="rId169" tooltip="Global X Internet of Things Thematic" display="https://es.investing.com/etfs/global-x-internet-things-them-usd"/>
-    <hyperlink ref="B235" r:id="rId170" tooltip="JPMorgan Diversified Alternative" display="https://es.investing.com/etfs/jpmorgan-diversified-alternative"/>
-    <hyperlink ref="B93" r:id="rId171" tooltip="FlexShares Morningstar Emerging Markets Factors Tilt" display="https://es.investing.com/etfs/morningstar-em-factor-tilt"/>
-    <hyperlink ref="B104" r:id="rId172" tooltip="GaveKal Knowledge Leaders Developed World" display="https://es.investing.com/etfs/gavekal-knowledge-leaders-developed"/>
-    <hyperlink ref="B35" r:id="rId173" tooltip="Davis Select Worldwide" display="https://es.investing.com/etfs/davis-select-worldwide"/>
-    <hyperlink ref="B221" r:id="rId174" tooltip="iShares MSCI Emerging Markets Small-Cap" display="https://es.investing.com/etfs/msci-emerging-markets-smlcp-fund"/>
-    <hyperlink ref="B75" r:id="rId175" tooltip="First Trust Indxx Innovative Transaction &amp; Process" display="https://es.investing.com/etfs/first-trust-indx-innvtv-trnsctnprc"/>
-    <hyperlink ref="B243" r:id="rId176" tooltip="KraneShares Emerging Markets Consumer Technology" display="https://es.investing.com/etfs/kraneshares-em-consumer-tech"/>
-    <hyperlink ref="B4" r:id="rId177" tooltip="AdvisorShares New Tech and Media" display="https://es.investing.com/etfs/advisorshrs-new-tech-media"/>
-    <hyperlink ref="B228" r:id="rId178" tooltip="iShares MSCI Global Silver Miners" display="https://es.investing.com/etfs/msci-global-silver-miners-fund"/>
-    <hyperlink ref="B81" r:id="rId179" tooltip="First Trust ISE Global Wind Energy" display="https://es.investing.com/etfs/firsttrust-ise-global-wind-energy"/>
-    <hyperlink ref="B381" r:id="rId180" tooltip="WisdomTree Intenational LargeCap Dividend" display="https://es.investing.com/etfs/wisdomtree-intl-largecap-dividend"/>
-    <hyperlink ref="B367" r:id="rId181" tooltip="Wisdom Tree International Dividend Ex-Financials" display="https://es.investing.com/etfs/wisdomtree-intl-dividend-top-100"/>
-    <hyperlink ref="B310" r:id="rId182" tooltip="SPDR MSCI ACWI IMI" display="https://es.investing.com/etfs/spdr-msci-acwi-imi"/>
-    <hyperlink ref="B131" r:id="rId183" tooltip="Global X Yieldco" display="https://es.investing.com/etfs/global-x-yieldco"/>
-    <hyperlink ref="B199" r:id="rId184" tooltip="iShares Global Utilities" display="https://es.investing.com/etfs/ishares-s-p-global-utilities"/>
-    <hyperlink ref="B86" r:id="rId185" tooltip="First Trust RiverFront Dynamic Developed International" display="https://es.investing.com/etfs/first-trust-riverfront-dynamic-dm"/>
-    <hyperlink ref="B144" r:id="rId186" tooltip="Guggenheim MSCI Global Timber" display="https://es.investing.com/etfs/guggenheim-global-timber"/>
-    <hyperlink ref="B343" r:id="rId187" tooltip="VanEck Vectors Morningstar International Moat" display="https://es.investing.com/etfs/market-vectors-morningstar-intl-moa"/>
-    <hyperlink ref="B198" r:id="rId188" tooltip="iShares Global Timber &amp; Forestry" display="https://es.investing.com/etfs/ishares-s-p-global-timber---for."/>
-    <hyperlink ref="B48" r:id="rId189" tooltip="Deutsche X-trackers MSCI Emerging Markets Hedged Equity" display="https://es.investing.com/etfs/db-x-msci-em-currency-hedged-eq"/>
-    <hyperlink ref="B100" r:id="rId190" tooltip="Franklin LibertyQ Emerging Markets" display="https://es.investing.com/etfs/franklin-libertyq-emerging-markets"/>
-    <hyperlink ref="B171" r:id="rId191" tooltip="iShares Edge MSCI International Momentum Factor" display="https://es.investing.com/etfs/ishares-msci-international-develope"/>
-    <hyperlink ref="B214" r:id="rId192" tooltip="iShares MSCI EAFE ESG Optimized" display="https://es.investing.com/etfs/ishares-msci-eafe-esg-optimized"/>
-    <hyperlink ref="B287" r:id="rId193" tooltip="PowerShares WilderHill Clean Energy" display="https://es.investing.com/etfs/powersh-wilderhill-clean-energy"/>
-    <hyperlink ref="B197" r:id="rId194" tooltip="iShares Global Telecom" display="https://es.investing.com/etfs/ishares-s-p-global-telecom."/>
-    <hyperlink ref="B328" r:id="rId195" tooltip="The 3D Printing" display="https://es.investing.com/etfs/the-3d-printing"/>
-    <hyperlink ref="B230" r:id="rId196" tooltip="iShares MSCI World" display="https://es.investing.com/etfs/ishares-msci-world"/>
-    <hyperlink ref="B292" r:id="rId197" tooltip="ProShares MSCI EAFE Dividend Growers" display="https://es.investing.com/etfs/proshares-msci-eafe-dividend-grower"/>
-    <hyperlink ref="B200" r:id="rId198" tooltip="iShares iBonds Dec 2026 Term Corporate" display="https://es.investing.com/etfs/ishares-ibonds-dec-2026-term-corp"/>
-    <hyperlink ref="B189" r:id="rId199" tooltip="iShares Global Consumer Staples" display="https://es.investing.com/etfs/ishares-s-p-global-con.-stap."/>
-    <hyperlink ref="B368" r:id="rId200" tooltip="WisdomTree Dynamic Currency Hedged International Equity Fund" display="https://es.investing.com/etfs/wisdomtree-dyn-currhgd-intl"/>
-    <hyperlink ref="B201" r:id="rId201" tooltip="iShares International Dividend Growth" display="https://es.investing.com/etfs/ishares-int-div-grwth"/>
-    <hyperlink ref="B224" r:id="rId202" tooltip="iShares MSCI Global Energy Producers" display="https://es.investing.com/etfs/ishares-msci-global-energy-prod."/>
-    <hyperlink ref="B82" r:id="rId203" tooltip="First Trust ISE Water" display="https://es.investing.com/etfs/firsttrust-ise-water"/>
-    <hyperlink ref="B273" r:id="rId204" tooltip="PowerShares Global Water Portfolio" display="https://es.investing.com/etfs/powershares-global-water"/>
-    <hyperlink ref="B280" r:id="rId205" tooltip="PowerShares S&amp;P Emerging Markets Momentum Portfolio" display="https://es.investing.com/etfs/s-p-emerging-markets-high-beta"/>
-    <hyperlink ref="B259" r:id="rId206" tooltip="PIMCO RAFI Dynamic Multi-Factor International Equity" display="https://es.investing.com/etfs/pimco-rafi-dyn-multifactor-intl"/>
-    <hyperlink ref="B8" r:id="rId207" tooltip="ALPS Disruptive Technologies" display="https://es.investing.com/etfs/dtec-alps-disruptive-tech"/>
-    <hyperlink ref="B83" r:id="rId208" tooltip="First Trust Nasdaq Artificial Intelligence and Robotics" display="https://es.investing.com/etfs/firsttrustnasdaqartfclintlrobotics"/>
-    <hyperlink ref="B172" r:id="rId209" tooltip="iShares Edge MSCI International Quality Factor" display="https://es.investing.com/etfs/ishares-msci-intl-dev-quality"/>
-    <hyperlink ref="B135" r:id="rId210" tooltip="Guggenheim Invest BRIC" display="https://es.investing.com/etfs/guggenheim-birc"/>
-    <hyperlink ref="B262" r:id="rId211" tooltip="PowerShares Cleantech" display="https://es.investing.com/etfs/powershares-cleantech-portfolio"/>
-    <hyperlink ref="B278" r:id="rId212" tooltip="PowerShares PureBeta FTSE Emerging Markets Portfolio" display="https://es.investing.com/etfs/powershares-purebeta-ftse-em"/>
-    <hyperlink ref="B186" r:id="rId213" tooltip="iShares Global 100" display="https://es.investing.com/etfs/ishares-s-p---global-100"/>
+    <hyperlink ref="B300" r:id="rId142" tooltip="BLDRS Developed Markets 100 ADR" display="https://es.investing.com/etfs/pshares-bldrs-dm-100-adr"/>
+    <hyperlink ref="B252" r:id="rId143" tooltip="VanEck Vectors Oil Refiners" display="https://es.investing.com/etfs/market-vectors-oil-refiners"/>
+    <hyperlink ref="B304" r:id="rId144" tooltip="PureFunds Video Game Tech" display="https://es.investing.com/etfs/purefunds-video-game-tech"/>
+    <hyperlink ref="B192" r:id="rId145" tooltip="iShares MSCI Global Gold Miners" display="https://es.investing.com/etfs/ishares-msci-global-gold-miners-be?cid=44703"/>
+    <hyperlink ref="B331" r:id="rId146" tooltip="SPDR S&amp;P Emerging Markets Dividend" display="https://es.investing.com/etfs/spdr-s-p-emerging-markets-dividend"/>
+    <hyperlink ref="B378" r:id="rId147" tooltip="WisdomTree International Hedged Quality Dividend Growth" display="https://es.investing.com/etfs/wisdomtree-intl-hdg-quality-div"/>
+    <hyperlink ref="B83" r:id="rId148" tooltip="First Trust RiverFront Dynamic Emerging Markets" display="https://es.investing.com/etfs/first-trust-riverfront-dynamic-em"/>
+    <hyperlink ref="B216" r:id="rId149" tooltip="iShares International Preferred Stock" display="https://es.investing.com/etfs/ishares-s-p-intl-preferred-stock"/>
+    <hyperlink ref="B261" r:id="rId150" tooltip="iShares MSCI Global Metals &amp; Mining Producers" display="https://es.investing.com/etfs/msci-global-metals-mining-prod."/>
+    <hyperlink ref="B365" r:id="rId151" tooltip="WisdomTree International Equity" display="https://es.investing.com/etfs/wisdomtree-defa-fund"/>
+    <hyperlink ref="B284" r:id="rId152" tooltip="PowerShares International BuyBack Achievers" display="https://es.investing.com/etfs/powershares-international-buyback-a"/>
+    <hyperlink ref="B146" r:id="rId153" tooltip="IQ Merger Arbitrage" display="https://es.investing.com/etfs/iq-arb-merger-arbitrage"/>
+    <hyperlink ref="B212" r:id="rId154" tooltip="iShares Global Tech" display="https://es.investing.com/etfs/ishares-s-p-global-technology"/>
+    <hyperlink ref="B29" r:id="rId155" tooltip="Davis Select International" display="https://es.investing.com/etfs/davis-select-international"/>
+    <hyperlink ref="B319" r:id="rId156" tooltip="SPDR S&amp;P Global Infrastructure" display="https://es.investing.com/etfs/spdr-ftse-macquarie-gi-100"/>
+    <hyperlink ref="B187" r:id="rId157" tooltip="iShares MSCI EM ESG Optimized" display="https://es.investing.com/etfs/ishares-msci-em-esg-optimized"/>
+    <hyperlink ref="B143" r:id="rId158" tooltip="PowerShares S&amp;P Intl Developed Low Volatility Portfolio" display="https://es.investing.com/etfs/invesco-s-p-intl-dev-low-vol."/>
+    <hyperlink ref="B142" r:id="rId159" tooltip="Inspire Global Hope" display="https://es.investing.com/etfs/inspire-global-hope"/>
+    <hyperlink ref="B360" r:id="rId160" tooltip="Vident International Equity" display="https://es.investing.com/etfs/vident-international-equity"/>
+    <hyperlink ref="B361" r:id="rId161" tooltip="Vident International Equity" display="https://es.investing.com/etfs/vident-international-equity?cid=1072337"/>
+    <hyperlink ref="B301" r:id="rId162" tooltip="PowerShares FTSE RAFI Developed Markets ex-US Small-Mid Portfolio" display="https://es.investing.com/etfs/pshares-ftse-rafi-dm-x-us-sml-mid"/>
+    <hyperlink ref="B136" r:id="rId163" tooltip="Guggenheim Invest S&amp;P Global Water" display="https://es.investing.com/etfs/guggenheim-s-p-global-water"/>
+    <hyperlink ref="B208" r:id="rId164" tooltip="iShares Global Healthcare" display="https://es.investing.com/etfs/ishares-s-p-global-healthcare"/>
+    <hyperlink ref="B273" r:id="rId165" tooltip="BLDRS Emerging Markets 50 ADR" display="https://es.investing.com/etfs/powershares-bldrs-em-50-adr"/>
+    <hyperlink ref="B255" r:id="rId166" tooltip="FlexShares Morningstar Dev Mkts exUS Factors Tilt" display="https://es.investing.com/etfs/morningstar-dm-x-us-factor-tilt"/>
+    <hyperlink ref="B305" r:id="rId167" tooltip="Reality Shares Nasdaq NexGen Economy" display="https://es.investing.com/etfs/reality-shares-nasdaq-nexgen-econ"/>
+    <hyperlink ref="B366" r:id="rId168" tooltip="WisdomTree International High Dividend" display="https://es.investing.com/etfs/wisdomtree-defa-high-yielding-eq"/>
+    <hyperlink ref="B109" r:id="rId169" tooltip="Global X Internet of Things Thematic" display="https://es.investing.com/etfs/global-x-internet-things-them-usd"/>
+    <hyperlink ref="B223" r:id="rId170" tooltip="JPMorgan Diversified Alternative" display="https://es.investing.com/etfs/jpmorgan-diversified-alternative"/>
+    <hyperlink ref="B256" r:id="rId171" tooltip="FlexShares Morningstar Emerging Markets Factors Tilt" display="https://es.investing.com/etfs/morningstar-em-factor-tilt"/>
+    <hyperlink ref="B97" r:id="rId172" tooltip="GaveKal Knowledge Leaders Developed World" display="https://es.investing.com/etfs/gavekal-knowledge-leaders-developed"/>
+    <hyperlink ref="B30" r:id="rId173" tooltip="Davis Select Worldwide" display="https://es.investing.com/etfs/davis-select-worldwide"/>
+    <hyperlink ref="B258" r:id="rId174" tooltip="iShares MSCI Emerging Markets Small-Cap" display="https://es.investing.com/etfs/msci-emerging-markets-smlcp-fund"/>
+    <hyperlink ref="B72" r:id="rId175" tooltip="First Trust Indxx Innovative Transaction &amp; Process" display="https://es.investing.com/etfs/first-trust-indx-innvtv-trnsctnprc"/>
+    <hyperlink ref="B229" r:id="rId176" tooltip="KraneShares Emerging Markets Consumer Technology" display="https://es.investing.com/etfs/kraneshares-em-consumer-tech"/>
+    <hyperlink ref="B5" r:id="rId177" tooltip="AdvisorShares New Tech and Media" display="https://es.investing.com/etfs/advisorshrs-new-tech-media"/>
+    <hyperlink ref="B262" r:id="rId178" tooltip="iShares MSCI Global Silver Miners" display="https://es.investing.com/etfs/msci-global-silver-miners-fund"/>
+    <hyperlink ref="B77" r:id="rId179" tooltip="First Trust ISE Global Wind Energy" display="https://es.investing.com/etfs/firsttrust-ise-global-wind-energy"/>
+    <hyperlink ref="B380" r:id="rId180" tooltip="WisdomTree Intenational LargeCap Dividend" display="https://es.investing.com/etfs/wisdomtree-intl-largecap-dividend"/>
+    <hyperlink ref="B377" r:id="rId181" tooltip="Wisdom Tree International Dividend Ex-Financials" display="https://es.investing.com/etfs/wisdomtree-intl-dividend-top-100"/>
+    <hyperlink ref="B321" r:id="rId182" tooltip="SPDR MSCI ACWI IMI" display="https://es.investing.com/etfs/spdr-msci-acwi-imi"/>
+    <hyperlink ref="B123" r:id="rId183" tooltip="Global X Yieldco" display="https://es.investing.com/etfs/global-x-yieldco"/>
+    <hyperlink ref="B215" r:id="rId184" tooltip="iShares Global Utilities" display="https://es.investing.com/etfs/ishares-s-p-global-utilities"/>
+    <hyperlink ref="B82" r:id="rId185" tooltip="First Trust RiverFront Dynamic Developed International" display="https://es.investing.com/etfs/first-trust-riverfront-dynamic-dm"/>
+    <hyperlink ref="B133" r:id="rId186" tooltip="Guggenheim MSCI Global Timber" display="https://es.investing.com/etfs/guggenheim-global-timber"/>
+    <hyperlink ref="B250" r:id="rId187" tooltip="VanEck Vectors Morningstar International Moat" display="https://es.investing.com/etfs/market-vectors-morningstar-intl-moa"/>
+    <hyperlink ref="B214" r:id="rId188" tooltip="iShares Global Timber &amp; Forestry" display="https://es.investing.com/etfs/ishares-s-p-global-timber---for."/>
+    <hyperlink ref="B32" r:id="rId189" tooltip="Deutsche X-trackers MSCI Emerging Markets Hedged Equity" display="https://es.investing.com/etfs/db-x-msci-em-currency-hedged-eq"/>
+    <hyperlink ref="B93" r:id="rId190" tooltip="Franklin LibertyQ Emerging Markets" display="https://es.investing.com/etfs/franklin-libertyq-emerging-markets"/>
+    <hyperlink ref="B195" r:id="rId191" tooltip="iShares Edge MSCI International Momentum Factor" display="https://es.investing.com/etfs/ishares-msci-international-develope"/>
+    <hyperlink ref="B183" r:id="rId192" tooltip="iShares MSCI EAFE ESG Optimized" display="https://es.investing.com/etfs/ishares-msci-eafe-esg-optimized"/>
+    <hyperlink ref="B293" r:id="rId193" tooltip="PowerShares WilderHill Clean Energy" display="https://es.investing.com/etfs/powersh-wilderhill-clean-energy"/>
+    <hyperlink ref="B213" r:id="rId194" tooltip="iShares Global Telecom" display="https://es.investing.com/etfs/ishares-s-p-global-telecom."/>
+    <hyperlink ref="B341" r:id="rId195" tooltip="The 3D Printing" display="https://es.investing.com/etfs/the-3d-printing"/>
+    <hyperlink ref="B200" r:id="rId196" tooltip="iShares MSCI World" display="https://es.investing.com/etfs/ishares-msci-world"/>
+    <hyperlink ref="B298" r:id="rId197" tooltip="ProShares MSCI EAFE Dividend Growers" display="https://es.investing.com/etfs/proshares-msci-eafe-dividend-grower"/>
+    <hyperlink ref="B172" r:id="rId198" tooltip="iShares iBonds Dec 2026 Term Corporate" display="https://es.investing.com/etfs/ishares-ibonds-dec-2026-term-corp"/>
+    <hyperlink ref="B204" r:id="rId199" tooltip="iShares Global Consumer Staples" display="https://es.investing.com/etfs/ishares-s-p-global-con.-stap."/>
+    <hyperlink ref="B367" r:id="rId200" tooltip="WisdomTree Dynamic Currency Hedged International Equity Fund" display="https://es.investing.com/etfs/wisdomtree-dyn-currhgd-intl"/>
+    <hyperlink ref="B173" r:id="rId201" tooltip="iShares International Dividend Growth" display="https://es.investing.com/etfs/ishares-int-div-grwth"/>
+    <hyperlink ref="B191" r:id="rId202" tooltip="iShares MSCI Global Energy Producers" display="https://es.investing.com/etfs/ishares-msci-global-energy-prod."/>
+    <hyperlink ref="B78" r:id="rId203" tooltip="First Trust ISE Water" display="https://es.investing.com/etfs/firsttrust-ise-water"/>
+    <hyperlink ref="B283" r:id="rId204" tooltip="PowerShares Global Water Portfolio" display="https://es.investing.com/etfs/powershares-global-water"/>
+    <hyperlink ref="B338" r:id="rId205" tooltip="PowerShares S&amp;P Emerging Markets Momentum Portfolio" display="https://es.investing.com/etfs/s-p-emerging-markets-high-beta"/>
+    <hyperlink ref="B268" r:id="rId206" tooltip="PIMCO RAFI Dynamic Multi-Factor International Equity" display="https://es.investing.com/etfs/pimco-rafi-dyn-multifactor-intl"/>
+    <hyperlink ref="B46" r:id="rId207" tooltip="ALPS Disruptive Technologies" display="https://es.investing.com/etfs/dtec-alps-disruptive-tech"/>
+    <hyperlink ref="B79" r:id="rId208" tooltip="First Trust Nasdaq Artificial Intelligence and Robotics" display="https://es.investing.com/etfs/firsttrustnasdaqartfclintlrobotics"/>
+    <hyperlink ref="B196" r:id="rId209" tooltip="iShares Edge MSCI International Quality Factor" display="https://es.investing.com/etfs/ishares-msci-intl-dev-quality"/>
+    <hyperlink ref="B128" r:id="rId210" tooltip="Guggenheim Invest BRIC" display="https://es.investing.com/etfs/guggenheim-birc"/>
+    <hyperlink ref="B274" r:id="rId211" tooltip="PowerShares Cleantech" display="https://es.investing.com/etfs/powershares-cleantech-portfolio"/>
+    <hyperlink ref="B286" r:id="rId212" tooltip="PowerShares PureBeta FTSE Emerging Markets Portfolio" display="https://es.investing.com/etfs/powershares-purebeta-ftse-em"/>
+    <hyperlink ref="B202" r:id="rId213" tooltip="iShares Global 100" display="https://es.investing.com/etfs/ishares-s-p---global-100"/>
     <hyperlink ref="B373" r:id="rId214" tooltip="WisdomTree Emerging Markets ex-State-Owned Enterprises" display="https://es.investing.com/etfs/wisdomtree-em-ex-state-owned-ent"/>
-    <hyperlink ref="B47" r:id="rId215" tooltip="Deutsche X-trackers MSCI EAFE High Dividend Yield Hedged Equity" display="https://es.investing.com/etfs/deutsche-xtrackers-msci-eafe-high"/>
-    <hyperlink ref="B128" r:id="rId216" tooltip="Global X SuperDividend Alternatives" display="https://es.investing.com/etfs/global-x-superdividend-alternatives"/>
-    <hyperlink ref="B272" r:id="rId217" tooltip="PowerShares Global Gold &amp; Precious Metals" display="https://es.investing.com/etfs/powersh.-global-gold---pr.-metals"/>
-    <hyperlink ref="B169" r:id="rId218" tooltip="iShares Currency Hedged MSCI Emerging Markets" display="https://es.investing.com/etfs/ishares-currency-hdg-msci-em"/>
-    <hyperlink ref="B149" r:id="rId219" tooltip="Hartford Multifactor Global Small Cap" display="https://es.investing.com/etfs/lattice-global-small-cap-strategy"/>
-    <hyperlink ref="B314" r:id="rId220" tooltip="SPDR MSCI EAFE StrategicFactors" display="https://es.investing.com/etfs/spdr-msci-eafe-quality-mix"/>
-    <hyperlink ref="B246" r:id="rId221" tooltip="KraneShares MSCI One Belt One Road" display="https://es.investing.com/etfs/kraneshares-msci-one-belt-one-road"/>
-    <hyperlink ref="B371" r:id="rId222" tooltip="WisdomTree Emerging Markets Dividend Fund" display="https://es.investing.com/etfs/wisdomtree-em-dividend-fund"/>
-    <hyperlink ref="B157" r:id="rId223" tooltip="IQ Global Resources" display="https://es.investing.com/etfs/iq-arb-global-resources-etf"/>
-    <hyperlink ref="B188" r:id="rId224" tooltip="iShares Global Consumer Discretionary" display="https://es.investing.com/etfs/ishares-s-p-global-cons.discr."/>
-    <hyperlink ref="B89" r:id="rId225" tooltip="FlexShares Core Select Bond Fund" display="https://es.investing.com/etfs/flexshares-core-select"/>
-    <hyperlink ref="B155" r:id="rId226" tooltip="IQ 50 Percent Hedged FTSE International" display="https://es.investing.com/etfs/iq-50-percent-hedged-ftse-intl"/>
-    <hyperlink ref="B222" r:id="rId227" tooltip="iShares MSCI Europe Small-Cap" display="https://es.investing.com/etfs/ishares-ft-dev.-smlcap-x-north-am."/>
-    <hyperlink ref="B385" r:id="rId228" tooltip="WisdomTree International MidCap Dividend" display="https://es.investing.com/etfs/wisdomtree-intl-midcap-dividend"/>
+    <hyperlink ref="B38" r:id="rId215" tooltip="Deutsche X-trackers MSCI EAFE High Dividend Yield Hedged Equity" display="https://es.investing.com/etfs/deutsche-xtrackers-msci-eafe-high"/>
+    <hyperlink ref="B119" r:id="rId216" tooltip="Global X SuperDividend Alternatives" display="https://es.investing.com/etfs/global-x-superdividend-alternatives"/>
+    <hyperlink ref="B271" r:id="rId217" tooltip="PowerShares Global Gold &amp; Precious Metals" display="https://es.investing.com/etfs/powersh.-global-gold---pr.-metals"/>
+    <hyperlink ref="B158" r:id="rId218" tooltip="iShares Currency Hedged MSCI Emerging Markets" display="https://es.investing.com/etfs/ishares-currency-hdg-msci-em"/>
+    <hyperlink ref="B235" r:id="rId219" tooltip="Hartford Multifactor Global Small Cap" display="https://es.investing.com/etfs/lattice-global-small-cap-strategy"/>
+    <hyperlink ref="B325" r:id="rId220" tooltip="SPDR MSCI EAFE StrategicFactors" display="https://es.investing.com/etfs/spdr-msci-eafe-quality-mix"/>
+    <hyperlink ref="B232" r:id="rId221" tooltip="KraneShares MSCI One Belt One Road" display="https://es.investing.com/etfs/kraneshares-msci-one-belt-one-road"/>
+    <hyperlink ref="B370" r:id="rId222" tooltip="WisdomTree Emerging Markets Dividend Fund" display="https://es.investing.com/etfs/wisdomtree-em-dividend-fund"/>
+    <hyperlink ref="B145" r:id="rId223" tooltip="IQ Global Resources" display="https://es.investing.com/etfs/iq-arb-global-resources-etf"/>
+    <hyperlink ref="B205" r:id="rId224" tooltip="iShares Global Consumer Discretionary" display="https://es.investing.com/etfs/ishares-s-p-global-cons.discr."/>
+    <hyperlink ref="B85" r:id="rId225" tooltip="FlexShares Core Select Bond Fund" display="https://es.investing.com/etfs/flexshares-core-select"/>
+    <hyperlink ref="B144" r:id="rId226" tooltip="IQ 50 Percent Hedged FTSE International" display="https://es.investing.com/etfs/iq-50-percent-hedged-ftse-intl"/>
+    <hyperlink ref="B170" r:id="rId227" tooltip="iShares MSCI Europe Small-Cap" display="https://es.investing.com/etfs/ishares-ft-dev.-smlcap-x-north-am."/>
+    <hyperlink ref="B381" r:id="rId228" tooltip="WisdomTree International MidCap Dividend" display="https://es.investing.com/etfs/wisdomtree-intl-midcap-dividend"/>
     <hyperlink ref="B9" r:id="rId229" tooltip="ALPS Emerging Sector Dividend Dogs" display="https://es.investing.com/etfs/alps-emerging-sector-dividend-dogs"/>
-    <hyperlink ref="B152" r:id="rId230" tooltip="Innovation Shares NextGen Vehicles and Technology" display="https://es.investing.com/etfs/innovation-shares-nextgen-vhclstch"/>
-    <hyperlink ref="B294" r:id="rId231" tooltip="PureFunds Drone Economy Strategy Tech" display="https://es.investing.com/etfs/purefunds-drone-economy-strategy"/>
-    <hyperlink ref="B234" r:id="rId232" tooltip="JPMorgan Disciplined High Yield" display="https://es.investing.com/etfs/jpmorgan-disciplined-high-yield"/>
-    <hyperlink ref="B6" r:id="rId233" tooltip="Alpha Architect Value Momentum Trend" display="https://es.investing.com/etfs/alpha-architect-value-mom-trend"/>
-    <hyperlink ref="B134" r:id="rId234" tooltip="GraniteShares Gold Trust" display="https://es.investing.com/etfs/graniteshares-gold-trust"/>
-    <hyperlink ref="B56" r:id="rId235" tooltip="Fidelity International High Dividend" display="https://es.investing.com/etfs/fidelity-international-high-div"/>
-    <hyperlink ref="B115" r:id="rId236" tooltip="Global X Gold Explorers" display="https://es.investing.com/etfs/global-x-gold-explorers"/>
-    <hyperlink ref="B327" r:id="rId237" tooltip="Spirited Funds/ETFMG Whiskey &amp; Spirits" display="https://es.investing.com/etfs/spirited-funds-etfmg-whiskey"/>
-    <hyperlink ref="B331" r:id="rId238" tooltip="USAA MSCI Emerging Markets Value Momentum Blend" display="https://es.investing.com/etfs/usaa-msci-em-value-mom-blend"/>
-    <hyperlink ref="B298" r:id="rId239" tooltip="REX BKCM" display="https://es.investing.com/etfs/rex-bkcm"/>
-    <hyperlink ref="B173" r:id="rId240" tooltip="iShares Edge MSCI International Size Factor" display="https://es.investing.com/etfs/ishares-factorselect-msci-intl"/>
-    <hyperlink ref="B361" r:id="rId241" tooltip="VictoryShares Emerging Market High Div Volatility Wtd" display="https://es.investing.com/etfs/victoryshares-em-hidiv-vol-wtd"/>
-    <hyperlink ref="B232" r:id="rId242" tooltip="Janus Organics" display="https://es.investing.com/etfs/janus-organics"/>
-    <hyperlink ref="B148" r:id="rId243" tooltip="Hartford Multifactor Emerging Markets" display="https://es.investing.com/etfs/lattice-emerging-markets-strategy"/>
-    <hyperlink ref="B316" r:id="rId244" tooltip="SPDR MSCI Emerging Markets StrategicFactors" display="https://es.investing.com/etfs/spdr-msci-emerging-markets-quality"/>
-    <hyperlink ref="B337" r:id="rId245" tooltip="VanEck Vectors Gaming" display="https://es.investing.com/etfs/marketvectors-gaming"/>
-    <hyperlink ref="B163" r:id="rId246" tooltip="iShares Core MSCI International Developed Market" display="https://es.investing.com/etfs/ishares-core-msci-intern-dev-market"/>
-    <hyperlink ref="B242" r:id="rId247" tooltip="KraneShares Electric Vehicles and Future Mobility Index" display="https://es.investing.com/etfs/kraneshares-elctrcvhcls-fturemblty"/>
-    <hyperlink ref="B223" r:id="rId248" tooltip="iShares MSCI Global Agriculture Producers" display="https://es.investing.com/etfs/msci-global-agri.-producers-fund"/>
-    <hyperlink ref="B106" r:id="rId249" tooltip="Global X Autonomous &amp; Electric Vehicles" display="https://es.investing.com/etfs/global-x-auto-electric-vehicles"/>
-    <hyperlink ref="B347" r:id="rId250" tooltip="VanEck Vectors Unconventional Oil &amp; Gas" display="https://es.investing.com/etfs/marketvectors-unconv.-oil---gas"/>
-    <hyperlink ref="B98" r:id="rId251" tooltip="Franklin Liberty International Opportunities" display="https://es.investing.com/etfs/franklin-liberty-interopp"/>
-    <hyperlink ref="B36" r:id="rId252" tooltip="Deutsche X-trackers FTSE Developed ex US Comprehensive Factor" display="https://es.investing.com/etfs/deutsche-x-trackers-ftse-developed"/>
-    <hyperlink ref="B301" r:id="rId253" tooltip="Saba Interest Rate Hedged CEF" display="https://es.investing.com/etfs/saba-interest-rate-hedged-cef"/>
-    <hyperlink ref="B113" r:id="rId254" tooltip="Global X Fertilizers/Potash" display="https://es.investing.com/etfs/global-x-fertilizers-potash"/>
-    <hyperlink ref="B293" r:id="rId255" tooltip="ProShares MSCI Emerging Markets Dividend Growers" display="https://es.investing.com/etfs/proshares-msci-em-div-gr"/>
+    <hyperlink ref="B140" r:id="rId230" tooltip="Innovation Shares NextGen Vehicles and Technology" display="https://es.investing.com/etfs/innovation-shares-nextgen-vhclstch"/>
+    <hyperlink ref="B302" r:id="rId231" tooltip="PureFunds Drone Economy Strategy Tech" display="https://es.investing.com/etfs/purefunds-drone-economy-strategy"/>
+    <hyperlink ref="B220" r:id="rId232" tooltip="JPMorgan Disciplined High Yield" display="https://es.investing.com/etfs/jpmorgan-disciplined-high-yield"/>
+    <hyperlink ref="B7" r:id="rId233" tooltip="Alpha Architect Value Momentum Trend" display="https://es.investing.com/etfs/alpha-architect-value-mom-trend"/>
+    <hyperlink ref="B127" r:id="rId234" tooltip="GraniteShares Gold Trust" display="https://es.investing.com/etfs/graniteshares-gold-trust"/>
+    <hyperlink ref="B55" r:id="rId235" tooltip="Fidelity International High Dividend" display="https://es.investing.com/etfs/fidelity-international-high-div"/>
+    <hyperlink ref="B108" r:id="rId236" tooltip="Global X Gold Explorers" display="https://es.investing.com/etfs/global-x-gold-explorers"/>
+    <hyperlink ref="B340" r:id="rId237" tooltip="Spirited Funds/ETFMG Whiskey &amp; Spirits" display="https://es.investing.com/etfs/spirited-funds-etfmg-whiskey"/>
+    <hyperlink ref="B344" r:id="rId238" tooltip="USAA MSCI Emerging Markets Value Momentum Blend" display="https://es.investing.com/etfs/usaa-msci-em-value-mom-blend"/>
+    <hyperlink ref="B306" r:id="rId239" tooltip="REX BKCM" display="https://es.investing.com/etfs/rex-bkcm"/>
+    <hyperlink ref="B169" r:id="rId240" tooltip="iShares Edge MSCI International Size Factor" display="https://es.investing.com/etfs/ishares-factorselect-msci-intl"/>
+    <hyperlink ref="B359" r:id="rId241" tooltip="VictoryShares Emerging Market High Div Volatility Wtd" display="https://es.investing.com/etfs/victoryshares-em-hidiv-vol-wtd"/>
+    <hyperlink ref="B218" r:id="rId242" tooltip="Janus Organics" display="https://es.investing.com/etfs/janus-organics"/>
+    <hyperlink ref="B234" r:id="rId243" tooltip="Hartford Multifactor Emerging Markets" display="https://es.investing.com/etfs/lattice-emerging-markets-strategy"/>
+    <hyperlink ref="B326" r:id="rId244" tooltip="SPDR MSCI Emerging Markets StrategicFactors" display="https://es.investing.com/etfs/spdr-msci-emerging-markets-quality"/>
+    <hyperlink ref="B244" r:id="rId245" tooltip="VanEck Vectors Gaming" display="https://es.investing.com/etfs/marketvectors-gaming"/>
+    <hyperlink ref="B154" r:id="rId246" tooltip="iShares Core MSCI International Developed Market" display="https://es.investing.com/etfs/ishares-core-msci-intern-dev-market"/>
+    <hyperlink ref="B228" r:id="rId247" tooltip="KraneShares Electric Vehicles and Future Mobility Index" display="https://es.investing.com/etfs/kraneshares-elctrcvhcls-fturemblty"/>
+    <hyperlink ref="B260" r:id="rId248" tooltip="iShares MSCI Global Agriculture Producers" display="https://es.investing.com/etfs/msci-global-agri.-producers-fund"/>
+    <hyperlink ref="B99" r:id="rId249" tooltip="Global X Autonomous &amp; Electric Vehicles" display="https://es.investing.com/etfs/global-x-auto-electric-vehicles"/>
+    <hyperlink ref="B253" r:id="rId250" tooltip="VanEck Vectors Unconventional Oil &amp; Gas" display="https://es.investing.com/etfs/marketvectors-unconv.-oil---gas"/>
+    <hyperlink ref="B91" r:id="rId251" tooltip="Franklin Liberty International Opportunities" display="https://es.investing.com/etfs/franklin-liberty-interopp"/>
+    <hyperlink ref="B35" r:id="rId252" tooltip="Deutsche X-trackers FTSE Developed ex US Comprehensive Factor" display="https://es.investing.com/etfs/deutsche-x-trackers-ftse-developed"/>
+    <hyperlink ref="B310" r:id="rId253" tooltip="Saba Interest Rate Hedged CEF" display="https://es.investing.com/etfs/saba-interest-rate-hedged-cef"/>
+    <hyperlink ref="B106" r:id="rId254" tooltip="Global X Fertilizers/Potash" display="https://es.investing.com/etfs/global-x-fertilizers-potash"/>
+    <hyperlink ref="B299" r:id="rId255" tooltip="ProShares MSCI Emerging Markets Dividend Growers" display="https://es.investing.com/etfs/proshares-msci-em-div-gr"/>
     <hyperlink ref="B12" r:id="rId256" tooltip="Anfield Capital Diversified Alternatives" display="https://es.investing.com/etfs/anfield-capital-divers-alter"/>
-    <hyperlink ref="B116" r:id="rId257" tooltip="Global X Guru" display="https://es.investing.com/etfs/global-x-top-guru-holdings"/>
-    <hyperlink ref="B140" r:id="rId258" tooltip="Guggenheim Invest S&amp;P Global Dividend Opptys" display="https://es.investing.com/etfs/guggenheim-s-p-global-div.-opp."/>
-    <hyperlink ref="B332" r:id="rId259" tooltip="USAA MSCI International Value Momentum Blend" display="https://es.investing.com/etfs/usaa-msci-intl-value-mom-blend"/>
-    <hyperlink ref="B202" r:id="rId260" tooltip="iShares International Developed Property" display="https://es.investing.com/etfs/ishares-s-p-developed-x-us-prop."/>
-    <hyperlink ref="B151" r:id="rId261" tooltip="Innovation Shares NextGen Protocol" display="https://es.investing.com/etfs/innovation-shares-nextgen-protocol"/>
-    <hyperlink ref="B193" r:id="rId262" tooltip="iShares Global Industrials" display="https://es.investing.com/etfs/ishares-s-p-global-industrials"/>
-    <hyperlink ref="B207" r:id="rId263" tooltip="iShares MSCI ACWI Low Carbon Target" display="https://es.investing.com/etfs/ishares-msci-acwi-low-carbon-target"/>
-    <hyperlink ref="B165" r:id="rId264" tooltip="iShares Currency Hedged MSCI ACWI" display="https://es.investing.com/etfs/ishares-currency-hedged-msci-acwi"/>
-    <hyperlink ref="B289" r:id="rId265" tooltip="Principal Active Global Dividend Income" display="https://es.investing.com/etfs/principal-active-global-div-inc"/>
-    <hyperlink ref="B63" r:id="rId266" tooltip="First Trust Developed International Equity Select" display="https://es.investing.com/etfs/first-trust-developed-intl"/>
-    <hyperlink ref="B23" r:id="rId267" tooltip="Columbia Beyond BRICs" display="https://es.investing.com/etfs/beyond-bircs"/>
-    <hyperlink ref="B258" r:id="rId268" tooltip="PIMCO RAFI Dynamic Multi-Factor Emerging Markets Equity" display="https://es.investing.com/etfs/pimco-rafi-dyn-multifactor-em"/>
-    <hyperlink ref="B372" r:id="rId269" tooltip="WisdomTree Emerging Markets Consumer Growth" display="https://es.investing.com/etfs/wisdomtree-em-consumer-growth"/>
-    <hyperlink ref="B95" r:id="rId270" tooltip="FlexShares Real Assets Allocation Index" display="https://es.investing.com/etfs/flexshares-real-assets-allocation"/>
-    <hyperlink ref="B74" r:id="rId271" tooltip="First Trust Horizon Managed Volatility Developed International" display="https://es.investing.com/etfs/first-trust-horizon-mng-vol-dm"/>
-    <hyperlink ref="B311" r:id="rId272" tooltip="SPDR MSCI ACWI Low Carbon Target" display="https://es.investing.com/etfs/spdr-msci-acwi-low-carbon-target"/>
-    <hyperlink ref="B51" r:id="rId273" tooltip="Direxion Daily Robotics Artificial Intelligence &amp; Automation Bull 3X Shares" display="https://es.investing.com/etfs/direxiondrobartfclintlautobull3shrs"/>
-    <hyperlink ref="B27" r:id="rId274" tooltip="Columbia Sustainable Global Equity Income" display="https://es.investing.com/etfs/columbia-sust-glbl-equity-inc"/>
-    <hyperlink ref="B121" r:id="rId275" tooltip="Global X MSCI SuperDividend EAFE" display="https://es.investing.com/etfs/global-x-msci-superdividend-eafe"/>
-    <hyperlink ref="B22" r:id="rId276" tooltip="Cambria Emerging Shareholder Yield" display="https://es.investing.com/etfs/cambria-emerg-shareholder-yield"/>
-    <hyperlink ref="B386" r:id="rId277" tooltip="WisdomTree International Quality Dividend Growth" display="https://es.investing.com/etfs/wisdomtree-intl-quality-div-gr"/>
-    <hyperlink ref="B233" r:id="rId278" tooltip="John Hancock Multifactor Developed International" display="https://es.investing.com/etfs/john-hancock-multifactor-dm"/>
-    <hyperlink ref="B60" r:id="rId279" tooltip="First Trust Alternative Absolute Return Strategy" display="https://es.investing.com/etfs/first-trust-alter-abso-rtrn-strtg"/>
-    <hyperlink ref="B57" r:id="rId280" tooltip="Fidelity International Value Factor" display="https://es.investing.com/etfs/fidelity-international-value-factor"/>
-    <hyperlink ref="B231" r:id="rId281" tooltip="Janus Obesity" display="https://es.investing.com/etfs/janus-obesity"/>
-    <hyperlink ref="B344" r:id="rId282" tooltip="VanEck Vectors Natural Resources" display="https://es.investing.com/etfs/marketvectors-hard-assets-prod."/>
-    <hyperlink ref="B61" r:id="rId283" tooltip="First Trust BICK" display="https://es.investing.com/etfs/first-trust-bick"/>
-    <hyperlink ref="B237" r:id="rId284" tooltip="JPMorgan Diversified Return Global Equity" display="https://es.investing.com/etfs/jpmorgan-diversified-return-global"/>
-    <hyperlink ref="B291" r:id="rId285" tooltip="ProShares DJ Brookfield Global Infrastructure" display="https://es.investing.com/etfs/proshares-dj-brookfield-global-infr"/>
-    <hyperlink ref="B146" r:id="rId286" tooltip="Guggenheim S&amp;P High Income Infrastructure" display="https://es.investing.com/etfs/guggenheim-sp-high-income-infrastr"/>
-    <hyperlink ref="B143" r:id="rId287" tooltip="Guggenheim MSCI EM Equal Country Weight" display="https://es.investing.com/etfs/rydex-msci-em-eq-weight"/>
-    <hyperlink ref="B252" r:id="rId288" tooltip="MomentumShares International Quantitative Momentum" display="https://es.investing.com/etfs/momentumshares-intl-quant-mom"/>
-    <hyperlink ref="B271" r:id="rId289" tooltip="PowerShares Global Clean Energy" display="https://es.investing.com/etfs/powershares---global-clean-energy"/>
-    <hyperlink ref="B255" r:id="rId290" tooltip="Natixis Seeyond International Minimum Volatility" display="https://es.investing.com/etfs/natixis-seeyond-intl-minvol"/>
-    <hyperlink ref="B84" r:id="rId291" tooltip="First Trust NASDAQ Global Auto" display="https://es.investing.com/etfs/firsttrust-nasdaq-global-auto"/>
-    <hyperlink ref="B339" r:id="rId292" tooltip="VanEck Vectors Global Alternative Energy" display="https://es.investing.com/etfs/marketvectors-global-alt.-energy"/>
-    <hyperlink ref="B69" r:id="rId293" tooltip="First Trust Emerging Markets Equity Select" display="https://es.investing.com/etfs/first-trust-emerging-markets"/>
-    <hyperlink ref="B288" r:id="rId294" tooltip="Premise Capital Frontier Advantage Diversified Tactical" display="https://es.investing.com/etfs/premise-cap-frnt-advant-divrs-tact"/>
-    <hyperlink ref="B25" r:id="rId295" tooltip="Columbia Emerging Markets Core ex-China" display="https://es.investing.com/etfs/egshares-em-core-ex-china"/>
-    <hyperlink ref="B265" r:id="rId296" tooltip="PowerShares Emerging Market Infra Portfolio" display="https://es.investing.com/etfs/powershares-global-em-infr."/>
-    <hyperlink ref="B266" r:id="rId297" tooltip="PowerShares FTSE International Low Beta Equal Weight Portfolio" display="https://es.investing.com/etfs/powershares-ftse-int-lowbeta-eqlwgt"/>
-    <hyperlink ref="B26" r:id="rId298" tooltip="Columbia Emerging Markets Quality Dividend" display="https://es.investing.com/etfs/egshares-low-volatility-em-div."/>
-    <hyperlink ref="B247" r:id="rId299" tooltip="Legg Mason Developed ex-US Diversified Core" display="https://es.investing.com/etfs/legg-mason-dm-exus-diversifcore"/>
-    <hyperlink ref="B5" r:id="rId300" tooltip="Affinity World Leaders Equity" display="https://es.investing.com/etfs/affinity-world-leaders-equity"/>
-    <hyperlink ref="B348" r:id="rId301" tooltip="VanEck Vectors Uranium+Nuclear Energy" display="https://es.investing.com/etfs/marketvectors-nuclear-energy"/>
-    <hyperlink ref="B226" r:id="rId302" tooltip="iShares MSCI Global Impact" display="https://es.investing.com/etfs/ishares-msci-global-impact"/>
-    <hyperlink ref="B256" r:id="rId303" tooltip="O Shares FTSE Russell International Quality Dividend" display="https://es.investing.com/etfs/oshares-ftse-rusl-intl-qual-div"/>
-    <hyperlink ref="B129" r:id="rId304" tooltip="Global X SuperDividend Emerging Markets" display="https://es.investing.com/etfs/global-x-superdividend-emerging-mar"/>
-    <hyperlink ref="B219" r:id="rId305" tooltip="iShares MSCI Emerging Markets ex China" display="https://es.investing.com/etfs/ishares-msci-em-ex-china"/>
-    <hyperlink ref="B183" r:id="rId306" tooltip="iShares Emerg Markets Infrastructure" display="https://es.investing.com/etfs/s-p-emerging-mrkt-infrastructure"/>
-    <hyperlink ref="B96" r:id="rId307" tooltip="FlexShares STOXX Global ESG Impact Index" display="https://es.investing.com/etfs/flexshares-stoxx-global-esg-impact"/>
-    <hyperlink ref="B208" r:id="rId308" tooltip="iShares MSCI Argentina and Global Exposure" display="https://es.investing.com/etfs/ishares-msci-argentina-glbl-exp"/>
-    <hyperlink ref="B360" r:id="rId309" tooltip="Victory CEMP International Volatility Weighted" display="https://es.investing.com/etfs/victory-cemp-international-vol"/>
-    <hyperlink ref="B123" r:id="rId310" tooltip="Global X Next Emerging &amp; Frontier" display="https://es.investing.com/etfs/global-x-next-emer---frontier"/>
-    <hyperlink ref="B249" r:id="rId311" tooltip="Legg Mason Emerging Markets Low Volatility High Dividend" display="https://es.investing.com/etfs/legg-mason-em-lowvol-hidiv"/>
-    <hyperlink ref="B377" r:id="rId312" tooltip="WisdomTree Global ex US Quality Dividend Growth" display="https://es.investing.com/etfs/wisdomtree-world-ex-su-growth-fund"/>
-    <hyperlink ref="B248" r:id="rId313" tooltip="Legg Mason Emerging Markets Diversified Core ETF" display="https://es.investing.com/etfs/legg-mason-em-diversified-core-etf"/>
-    <hyperlink ref="B315" r:id="rId314" tooltip="SPDR MSCI Emerging Markets Fossil Fuel Free" display="https://es.investing.com/etfs/spdr-msci-em-fossil-fuel-free"/>
-    <hyperlink ref="B7" r:id="rId315" tooltip="AlphaClone International" display="https://es.investing.com/etfs/alphaclone-international"/>
-    <hyperlink ref="B370" r:id="rId316" tooltip="WisdomTree Dynamic Currency Hedged International SmallCap Equity Fund" display="https://es.investing.com/etfs/wsdmtree-dyncurr-hgd-intl-smllcap"/>
-    <hyperlink ref="B364" r:id="rId317" tooltip="Virtus Glovista Emerging Markets" display="https://es.investing.com/etfs/virtus-glovista-em"/>
-    <hyperlink ref="B91" r:id="rId318" tooltip="FlexShares Currency Hedged Morningstar EM Factor Tilt Index" display="https://es.investing.com/etfs/flexshares-currhdgd-morningstar-em"/>
-    <hyperlink ref="B45" r:id="rId319" tooltip="Deutsche X-trackers MSCI All World ex US High Dividend Yield Hedged Equity" display="https://es.investing.com/etfs/xtrackers-msci-all-world-high-div"/>
-    <hyperlink ref="B101" r:id="rId320" tooltip="Franklin LibertyQ Global Dividend" display="https://es.investing.com/etfs/franklin-libertyq-global-dividend"/>
-    <hyperlink ref="B365" r:id="rId321" tooltip="WBI Tactical Rotation Shares" display="https://es.investing.com/etfs/wbi-tactical-rotation-shares"/>
-    <hyperlink ref="B39" r:id="rId322" tooltip="Deutsche X-trackers FTSE Emerging Comprehensive Factor" display="https://es.investing.com/etfs/de-xtrack-ftse-emerging-comp-k"/>
-    <hyperlink ref="B313" r:id="rId323" tooltip="SPDR MSCI EAFE Fossil Fuel Reserves Free" display="https://es.investing.com/etfs/spdr-msci-eafe-fossil-fuel-rsrvfree"/>
-    <hyperlink ref="B168" r:id="rId324" tooltip="iShares Currency Hedged MSCI EAFE Small Cap" display="https://es.investing.com/etfs/ishares-currency-hdg-msci-eafe"/>
-    <hyperlink ref="B290" r:id="rId325" tooltip="Principal Millennials Index" display="https://es.investing.com/etfs/principal-millennials"/>
-    <hyperlink ref="B166" r:id="rId326" tooltip="iShares Currency Hedged MSCI ACWI ex US" display="https://es.investing.com/etfs/ishares-currency-hdg-msci-acwi"/>
-    <hyperlink ref="B77" r:id="rId327" tooltip="First Trust International IPO" display="https://es.investing.com/etfs/first-trust-international-ipo"/>
-    <hyperlink ref="B251" r:id="rId328" tooltip="Madrona International" display="https://es.investing.com/etfs/advisorshares-madrona-intl"/>
-    <hyperlink ref="B73" r:id="rId329" tooltip="First Trust Heitman Global Prime Real Estate" display="https://es.investing.com/etfs/first-trust-heitman-glbl-prime-re"/>
-    <hyperlink ref="B58" r:id="rId330" tooltip="Fieldstone Merlin Dynamic Large Cap Growth" display="https://es.investing.com/etfs/fieldstone-merlin-dyn-large-cap"/>
-    <hyperlink ref="B139" r:id="rId331" tooltip="Guggenheim Invest International Mlti-Asset Income" display="https://es.investing.com/etfs/guggenheim-intl-mul.-asset-income"/>
-    <hyperlink ref="B156" r:id="rId332" tooltip="IQ Global Agribusiness Small Cap" display="https://es.investing.com/etfs/iq-global-agribusiness-small-cap"/>
-    <hyperlink ref="B14" r:id="rId333" tooltip="Arrow DWA Country Rotation" display="https://es.investing.com/etfs/dwcr-arrow-dwa-country-rotation"/>
-    <hyperlink ref="B270" r:id="rId334" tooltip="PowerShares Global Agriculture" display="https://es.investing.com/etfs/powershares-global-agriculture"/>
-    <hyperlink ref="B16" r:id="rId335" tooltip="Barclays Bank iPath S&amp;P MLP" display="https://es.investing.com/etfs/barclays-bank-ipath-sp-mlp"/>
-    <hyperlink ref="B90" r:id="rId336" tooltip="FlexShares Currency Hedged Morningstar DM ex-US Factor Tilt Index" display="https://es.investing.com/etfs/flexshares-currhdgd-morng-dm-exus"/>
-    <hyperlink ref="B80" r:id="rId337" tooltip="First Trust ISE Global Engineering &amp; Construction" display="https://es.investing.com/etfs/firsttrust-ise-glb-engnrg---const"/>
-    <hyperlink ref="B150" r:id="rId338" tooltip="Hartford Multifactor Low Volatility International Equity" display="https://es.investing.com/etfs/hartford-multi-lowvol-intern-equity"/>
-    <hyperlink ref="B308" r:id="rId339" tooltip="SPDR Global Dow" display="https://es.investing.com/etfs/spdr-dj-global-titans"/>
-    <hyperlink ref="B229" r:id="rId340" tooltip="iShares MSCI Kokusai" display="https://es.investing.com/etfs/ishares-msci---kokusai"/>
-    <hyperlink ref="B240" r:id="rId341" tooltip="JPMorgan Managed Futures Strategy" display="https://es.investing.com/etfs/jpmorgan-managed-futures-strategy"/>
-    <hyperlink ref="B102" r:id="rId342" tooltip="Franklin LibertyQ Global Equity" display="https://es.investing.com/etfs/franklin-libertyq-global-equity"/>
-    <hyperlink ref="B178" r:id="rId343" tooltip="iShares Edge MSCI Minimum Volatility Emerging Markets Currency Hedged" display="https://es.investing.com/etfs/ishares-edge-msci-min-vol-em-cur-hd"/>
-    <hyperlink ref="B378" r:id="rId344" tooltip="WisdomTree Global Hedged SmallCap Dividend" display="https://es.investing.com/etfs/wisdomtree-glbl-hgd-smallcap-div"/>
-    <hyperlink ref="B257" r:id="rId345" tooltip="Oppenheimer Global ESG Revenue" display="https://es.investing.com/etfs/oppenheimer-global-esg-revenue"/>
-    <hyperlink ref="B340" r:id="rId346" tooltip="VanEck Vectors Global Spin-Off" display="https://es.investing.com/etfs/market-vectors-global-spin-off"/>
-    <hyperlink ref="B279" r:id="rId347" tooltip="PowerShares S&amp;P 500 Value With Momentum Portfolio" display="https://es.investing.com/etfs/powershares-sp500-val-with-mom-port"/>
-    <hyperlink ref="B59" r:id="rId348" tooltip="Fieldstone UVA Unconstrained Medium-Term Fixed Income" display="https://es.investing.com/etfs/fieldstone-uva-unconst-medterm"/>
-    <hyperlink ref="B277" r:id="rId349" tooltip="PowerShares PureBeta FTSE Developed ex-North America Portfolio" display="https://es.investing.com/etfs/powershares-purebeta-ftse-dev"/>
-    <hyperlink ref="B285" r:id="rId350" tooltip="PowerShares S&amp;P SmallCap Quality Portfolio" display="https://es.investing.com/etfs/powershares-sp-smallcap-qual-port"/>
-    <hyperlink ref="B369" r:id="rId351" tooltip="WisdomTree Dynamic Currency Hedged International Quality Dividend Growth Fund" display="https://es.investing.com/etfs/wisdomtree-dyn-curr-hgd-intl-div-gr"/>
+    <hyperlink ref="B121" r:id="rId257" tooltip="Global X Guru" display="https://es.investing.com/etfs/global-x-top-guru-holdings"/>
+    <hyperlink ref="B135" r:id="rId258" tooltip="Guggenheim Invest S&amp;P Global Dividend Opptys" display="https://es.investing.com/etfs/guggenheim-s-p-global-div.-opp."/>
+    <hyperlink ref="B345" r:id="rId259" tooltip="USAA MSCI International Value Momentum Blend" display="https://es.investing.com/etfs/usaa-msci-intl-value-mom-blend"/>
+    <hyperlink ref="B201" r:id="rId260" tooltip="iShares International Developed Property" display="https://es.investing.com/etfs/ishares-s-p-developed-x-us-prop."/>
+    <hyperlink ref="B139" r:id="rId261" tooltip="Innovation Shares NextGen Protocol" display="https://es.investing.com/etfs/innovation-shares-nextgen-protocol"/>
+    <hyperlink ref="B209" r:id="rId262" tooltip="iShares Global Industrials" display="https://es.investing.com/etfs/ishares-s-p-global-industrials"/>
+    <hyperlink ref="B175" r:id="rId263" tooltip="iShares MSCI ACWI Low Carbon Target" display="https://es.investing.com/etfs/ishares-msci-acwi-low-carbon-target"/>
+    <hyperlink ref="B159" r:id="rId264" tooltip="iShares Currency Hedged MSCI ACWI" display="https://es.investing.com/etfs/ishares-currency-hedged-msci-acwi"/>
+    <hyperlink ref="B295" r:id="rId265" tooltip="Principal Active Global Dividend Income" display="https://es.investing.com/etfs/principal-active-global-div-inc"/>
+    <hyperlink ref="B62" r:id="rId266" tooltip="First Trust Developed International Equity Select" display="https://es.investing.com/etfs/first-trust-developed-intl"/>
+    <hyperlink ref="B19" r:id="rId267" tooltip="Columbia Beyond BRICs" display="https://es.investing.com/etfs/beyond-bircs"/>
+    <hyperlink ref="B267" r:id="rId268" tooltip="PIMCO RAFI Dynamic Multi-Factor Emerging Markets Equity" display="https://es.investing.com/etfs/pimco-rafi-dyn-multifactor-em"/>
+    <hyperlink ref="B369" r:id="rId269" tooltip="WisdomTree Emerging Markets Consumer Growth" display="https://es.investing.com/etfs/wisdomtree-em-consumer-growth"/>
+    <hyperlink ref="B88" r:id="rId270" tooltip="FlexShares Real Assets Allocation Index" display="https://es.investing.com/etfs/flexshares-real-assets-allocation"/>
+    <hyperlink ref="B71" r:id="rId271" tooltip="First Trust Horizon Managed Volatility Developed International" display="https://es.investing.com/etfs/first-trust-horizon-mng-vol-dm"/>
+    <hyperlink ref="B322" r:id="rId272" tooltip="SPDR MSCI ACWI Low Carbon Target" display="https://es.investing.com/etfs/spdr-msci-acwi-low-carbon-target"/>
+    <hyperlink ref="B44" r:id="rId273" tooltip="Direxion Daily Robotics Artificial Intelligence &amp; Automation Bull 3X Shares" display="https://es.investing.com/etfs/direxiondrobartfclintlautobull3shrs"/>
+    <hyperlink ref="B22" r:id="rId274" tooltip="Columbia Sustainable Global Equity Income" display="https://es.investing.com/etfs/columbia-sust-glbl-equity-inc"/>
+    <hyperlink ref="B113" r:id="rId275" tooltip="Global X MSCI SuperDividend EAFE" display="https://es.investing.com/etfs/global-x-msci-superdividend-eafe"/>
+    <hyperlink ref="B20" r:id="rId276" tooltip="Cambria Emerging Shareholder Yield" display="https://es.investing.com/etfs/cambria-emerg-shareholder-yield"/>
+    <hyperlink ref="B382" r:id="rId277" tooltip="WisdomTree International Quality Dividend Growth" display="https://es.investing.com/etfs/wisdomtree-intl-quality-div-gr"/>
+    <hyperlink ref="B219" r:id="rId278" tooltip="John Hancock Multifactor Developed International" display="https://es.investing.com/etfs/john-hancock-multifactor-dm"/>
+    <hyperlink ref="B59" r:id="rId279" tooltip="First Trust Alternative Absolute Return Strategy" display="https://es.investing.com/etfs/first-trust-alter-abso-rtrn-strtg"/>
+    <hyperlink ref="B56" r:id="rId280" tooltip="Fidelity International Value Factor" display="https://es.investing.com/etfs/fidelity-international-value-factor"/>
+    <hyperlink ref="B217" r:id="rId281" tooltip="Janus Obesity" display="https://es.investing.com/etfs/janus-obesity"/>
+    <hyperlink ref="B248" r:id="rId282" tooltip="VanEck Vectors Natural Resources" display="https://es.investing.com/etfs/marketvectors-hard-assets-prod."/>
+    <hyperlink ref="B60" r:id="rId283" tooltip="First Trust BICK" display="https://es.investing.com/etfs/first-trust-bick"/>
+    <hyperlink ref="B225" r:id="rId284" tooltip="JPMorgan Diversified Return Global Equity" display="https://es.investing.com/etfs/jpmorgan-diversified-return-global"/>
+    <hyperlink ref="B297" r:id="rId285" tooltip="ProShares DJ Brookfield Global Infrastructure" display="https://es.investing.com/etfs/proshares-dj-brookfield-global-infr"/>
+    <hyperlink ref="B137" r:id="rId286" tooltip="Guggenheim S&amp;P High Income Infrastructure" display="https://es.investing.com/etfs/guggenheim-sp-high-income-infrastr"/>
+    <hyperlink ref="B309" r:id="rId287" tooltip="Guggenheim MSCI EM Equal Country Weight" display="https://es.investing.com/etfs/rydex-msci-em-eq-weight"/>
+    <hyperlink ref="B254" r:id="rId288" tooltip="MomentumShares International Quantitative Momentum" display="https://es.investing.com/etfs/momentumshares-intl-quant-mom"/>
+    <hyperlink ref="B281" r:id="rId289" tooltip="PowerShares Global Clean Energy" display="https://es.investing.com/etfs/powershares---global-clean-energy"/>
+    <hyperlink ref="B264" r:id="rId290" tooltip="Natixis Seeyond International Minimum Volatility" display="https://es.investing.com/etfs/natixis-seeyond-intl-minvol"/>
+    <hyperlink ref="B80" r:id="rId291" tooltip="First Trust NASDAQ Global Auto" display="https://es.investing.com/etfs/firsttrust-nasdaq-global-auto"/>
+    <hyperlink ref="B245" r:id="rId292" tooltip="VanEck Vectors Global Alternative Energy" display="https://es.investing.com/etfs/marketvectors-global-alt.-energy"/>
+    <hyperlink ref="B67" r:id="rId293" tooltip="First Trust Emerging Markets Equity Select" display="https://es.investing.com/etfs/first-trust-emerging-markets"/>
+    <hyperlink ref="B294" r:id="rId294" tooltip="Premise Capital Frontier Advantage Diversified Tactical" display="https://es.investing.com/etfs/premise-cap-frnt-advant-divrs-tact"/>
+    <hyperlink ref="B49" r:id="rId295" tooltip="Columbia Emerging Markets Core ex-China" display="https://es.investing.com/etfs/egshares-em-core-ex-china"/>
+    <hyperlink ref="B282" r:id="rId296" tooltip="PowerShares Emerging Market Infra Portfolio" display="https://es.investing.com/etfs/powershares-global-em-infr."/>
+    <hyperlink ref="B278" r:id="rId297" tooltip="PowerShares FTSE International Low Beta Equal Weight Portfolio" display="https://es.investing.com/etfs/powershares-ftse-int-lowbeta-eqlwgt"/>
+    <hyperlink ref="B51" r:id="rId298" tooltip="Columbia Emerging Markets Quality Dividend" display="https://es.investing.com/etfs/egshares-low-volatility-em-div."/>
+    <hyperlink ref="B236" r:id="rId299" tooltip="Legg Mason Developed ex-US Diversified Core" display="https://es.investing.com/etfs/legg-mason-dm-exus-diversifcore"/>
+    <hyperlink ref="B6" r:id="rId300" tooltip="Affinity World Leaders Equity" display="https://es.investing.com/etfs/affinity-world-leaders-equity"/>
+    <hyperlink ref="B251" r:id="rId301" tooltip="VanEck Vectors Uranium+Nuclear Energy" display="https://es.investing.com/etfs/marketvectors-nuclear-energy"/>
+    <hyperlink ref="B193" r:id="rId302" tooltip="iShares MSCI Global Impact" display="https://es.investing.com/etfs/ishares-msci-global-impact"/>
+    <hyperlink ref="B266" r:id="rId303" tooltip="O Shares FTSE Russell International Quality Dividend" display="https://es.investing.com/etfs/oshares-ftse-rusl-intl-qual-div"/>
+    <hyperlink ref="B120" r:id="rId304" tooltip="Global X SuperDividend Emerging Markets" display="https://es.investing.com/etfs/global-x-superdividend-emerging-mar"/>
+    <hyperlink ref="B188" r:id="rId305" tooltip="iShares MSCI Emerging Markets ex China" display="https://es.investing.com/etfs/ishares-msci-em-ex-china"/>
+    <hyperlink ref="B339" r:id="rId306" tooltip="iShares Emerg Markets Infrastructure" display="https://es.investing.com/etfs/s-p-emerging-mrkt-infrastructure"/>
+    <hyperlink ref="B89" r:id="rId307" tooltip="FlexShares STOXX Global ESG Impact Index" display="https://es.investing.com/etfs/flexshares-stoxx-global-esg-impact"/>
+    <hyperlink ref="B178" r:id="rId308" tooltip="iShares MSCI Argentina and Global Exposure" display="https://es.investing.com/etfs/ishares-msci-argentina-glbl-exp"/>
+    <hyperlink ref="B358" r:id="rId309" tooltip="Victory CEMP International Volatility Weighted" display="https://es.investing.com/etfs/victory-cemp-international-vol"/>
+    <hyperlink ref="B115" r:id="rId310" tooltip="Global X Next Emerging &amp; Frontier" display="https://es.investing.com/etfs/global-x-next-emer---frontier"/>
+    <hyperlink ref="B238" r:id="rId311" tooltip="Legg Mason Emerging Markets Low Volatility High Dividend" display="https://es.investing.com/etfs/legg-mason-em-lowvol-hidiv"/>
+    <hyperlink ref="B384" r:id="rId312" tooltip="WisdomTree Global ex US Quality Dividend Growth" display="https://es.investing.com/etfs/wisdomtree-world-ex-su-growth-fund"/>
+    <hyperlink ref="B237" r:id="rId313" tooltip="Legg Mason Emerging Markets Diversified Core ETF" display="https://es.investing.com/etfs/legg-mason-em-diversified-core-etf"/>
+    <hyperlink ref="B327" r:id="rId314" tooltip="SPDR MSCI Emerging Markets Fossil Fuel Free" display="https://es.investing.com/etfs/spdr-msci-em-fossil-fuel-free"/>
+    <hyperlink ref="B8" r:id="rId315" tooltip="AlphaClone International" display="https://es.investing.com/etfs/alphaclone-international"/>
+    <hyperlink ref="B385" r:id="rId316" tooltip="WisdomTree Dynamic Currency Hedged International SmallCap Equity Fund" display="https://es.investing.com/etfs/wsdmtree-dyncurr-hgd-intl-smllcap"/>
+    <hyperlink ref="B362" r:id="rId317" tooltip="Virtus Glovista Emerging Markets" display="https://es.investing.com/etfs/virtus-glovista-em"/>
+    <hyperlink ref="B87" r:id="rId318" tooltip="FlexShares Currency Hedged Morningstar EM Factor Tilt Index" display="https://es.investing.com/etfs/flexshares-currhdgd-morningstar-em"/>
+    <hyperlink ref="B387" r:id="rId319" tooltip="Deutsche X-trackers MSCI All World ex US High Dividend Yield Hedged Equity" display="https://es.investing.com/etfs/xtrackers-msci-all-world-high-div"/>
+    <hyperlink ref="B94" r:id="rId320" tooltip="Franklin LibertyQ Global Dividend" display="https://es.investing.com/etfs/franklin-libertyq-global-dividend"/>
+    <hyperlink ref="B363" r:id="rId321" tooltip="WBI Tactical Rotation Shares" display="https://es.investing.com/etfs/wbi-tactical-rotation-shares"/>
+    <hyperlink ref="B41" r:id="rId322" tooltip="Deutsche X-trackers FTSE Emerging Comprehensive Factor" display="https://es.investing.com/etfs/de-xtrack-ftse-emerging-comp-k"/>
+    <hyperlink ref="B324" r:id="rId323" tooltip="SPDR MSCI EAFE Fossil Fuel Reserves Free" display="https://es.investing.com/etfs/spdr-msci-eafe-fossil-fuel-rsrvfree"/>
+    <hyperlink ref="B157" r:id="rId324" tooltip="iShares Currency Hedged MSCI EAFE Small Cap" display="https://es.investing.com/etfs/ishares-currency-hdg-msci-eafe"/>
+    <hyperlink ref="B296" r:id="rId325" tooltip="Principal Millennials Index" display="https://es.investing.com/etfs/principal-millennials"/>
+    <hyperlink ref="B156" r:id="rId326" tooltip="iShares Currency Hedged MSCI ACWI ex US" display="https://es.investing.com/etfs/ishares-currency-hdg-msci-acwi"/>
+    <hyperlink ref="B74" r:id="rId327" tooltip="First Trust International IPO" display="https://es.investing.com/etfs/first-trust-international-ipo"/>
+    <hyperlink ref="B4" r:id="rId328" tooltip="Madrona International" display="https://es.investing.com/etfs/advisorshares-madrona-intl"/>
+    <hyperlink ref="B70" r:id="rId329" tooltip="First Trust Heitman Global Prime Real Estate" display="https://es.investing.com/etfs/first-trust-heitman-glbl-prime-re"/>
+    <hyperlink ref="B57" r:id="rId330" tooltip="Fieldstone Merlin Dynamic Large Cap Growth" display="https://es.investing.com/etfs/fieldstone-merlin-dyn-large-cap"/>
+    <hyperlink ref="B134" r:id="rId331" tooltip="Guggenheim Invest International Mlti-Asset Income" display="https://es.investing.com/etfs/guggenheim-intl-mul.-asset-income"/>
+    <hyperlink ref="B147" r:id="rId332" tooltip="IQ Global Agribusiness Small Cap" display="https://es.investing.com/etfs/iq-global-agribusiness-small-cap"/>
+    <hyperlink ref="B47" r:id="rId333" tooltip="Arrow DWA Country Rotation" display="https://es.investing.com/etfs/dwcr-arrow-dwa-country-rotation"/>
+    <hyperlink ref="B280" r:id="rId334" tooltip="PowerShares Global Agriculture" display="https://es.investing.com/etfs/powershares-global-agriculture"/>
+    <hyperlink ref="B15" r:id="rId335" tooltip="Barclays Bank iPath S&amp;P MLP" display="https://es.investing.com/etfs/barclays-bank-ipath-sp-mlp"/>
+    <hyperlink ref="B86" r:id="rId336" tooltip="FlexShares Currency Hedged Morningstar DM ex-US Factor Tilt Index" display="https://es.investing.com/etfs/flexshares-currhdgd-morng-dm-exus"/>
+    <hyperlink ref="B76" r:id="rId337" tooltip="First Trust ISE Global Engineering &amp; Construction" display="https://es.investing.com/etfs/firsttrust-ise-glb-engnrg---const"/>
+    <hyperlink ref="B138" r:id="rId338" tooltip="Hartford Multifactor Low Volatility International Equity" display="https://es.investing.com/etfs/hartford-multi-lowvol-intern-equity"/>
+    <hyperlink ref="B317" r:id="rId339" tooltip="SPDR Global Dow" display="https://es.investing.com/etfs/spdr-dj-global-titans"/>
+    <hyperlink ref="B198" r:id="rId340" tooltip="iShares MSCI Kokusai" display="https://es.investing.com/etfs/ishares-msci---kokusai"/>
+    <hyperlink ref="B226" r:id="rId341" tooltip="JPMorgan Managed Futures Strategy" display="https://es.investing.com/etfs/jpmorgan-managed-futures-strategy"/>
+    <hyperlink ref="B95" r:id="rId342" tooltip="Franklin LibertyQ Global Equity" display="https://es.investing.com/etfs/franklin-libertyq-global-equity"/>
+    <hyperlink ref="B163" r:id="rId343" tooltip="iShares Edge MSCI Minimum Volatility Emerging Markets Currency Hedged" display="https://es.investing.com/etfs/ishares-edge-msci-min-vol-em-cur-hd"/>
+    <hyperlink ref="B374" r:id="rId344" tooltip="WisdomTree Global Hedged SmallCap Dividend" display="https://es.investing.com/etfs/wisdomtree-glbl-hgd-smallcap-div"/>
+    <hyperlink ref="B265" r:id="rId345" tooltip="Oppenheimer Global ESG Revenue" display="https://es.investing.com/etfs/oppenheimer-global-esg-revenue"/>
+    <hyperlink ref="B246" r:id="rId346" tooltip="VanEck Vectors Global Spin-Off" display="https://es.investing.com/etfs/market-vectors-global-spin-off"/>
+    <hyperlink ref="B287" r:id="rId347" tooltip="PowerShares S&amp;P 500 Value With Momentum Portfolio" display="https://es.investing.com/etfs/powershares-sp500-val-with-mom-port"/>
+    <hyperlink ref="B58" r:id="rId348" tooltip="Fieldstone UVA Unconstrained Medium-Term Fixed Income" display="https://es.investing.com/etfs/fieldstone-uva-unconst-medterm"/>
+    <hyperlink ref="B285" r:id="rId349" tooltip="PowerShares PureBeta FTSE Developed ex-North America Portfolio" display="https://es.investing.com/etfs/powershares-purebeta-ftse-dev"/>
+    <hyperlink ref="B289" r:id="rId350" tooltip="PowerShares S&amp;P SmallCap Quality Portfolio" display="https://es.investing.com/etfs/powershares-sp-smallcap-qual-port"/>
+    <hyperlink ref="B368" r:id="rId351" tooltip="WisdomTree Dynamic Currency Hedged International Quality Dividend Growth Fund" display="https://es.investing.com/etfs/wisdomtree-dyn-curr-hgd-intl-div-gr"/>
     <hyperlink ref="B65" r:id="rId352" tooltip="First Trust Developed Markets ex-US Small Cap AlphaDEX" display="https://es.investing.com/etfs/firsttrust-dm-x-us-smlcap-alphadex"/>
-    <hyperlink ref="B329" r:id="rId353" tooltip="The WEAR" display="https://es.investing.com/etfs/the-wear"/>
-    <hyperlink ref="B283" r:id="rId354" tooltip="PowerShares S&amp;P International Developed High Dividend Low Volatility Portfolio" display="https://es.investing.com/etfs/powershrs-sp-intl-dvl-hidiv-lowvol"/>
-    <hyperlink ref="B159" r:id="rId355" tooltip="iShares Adaptive Currency Hedged MSCI EAFE" display="https://es.investing.com/etfs/ishares-adapt-cur-hdg-msci-eafe"/>
-    <hyperlink ref="B379" r:id="rId356" tooltip="WisdomTree Global SmallCap Dividend" display="https://es.investing.com/etfs/wisdomtree-global-smallcap-div"/>
-    <hyperlink ref="B55" r:id="rId357" tooltip="Evolve Marijuana" display="https://es.investing.com/etfs/evolve-marijuana?cid=1075596"/>
-    <hyperlink ref="B351" r:id="rId358" tooltip="Vanguard FTSE All World UCITS" display="https://es.investing.com/etfs/vanguard-ftse-all-world?cid=1065342"/>
-    <hyperlink ref="B282" r:id="rId359" tooltip="PowerShares S&amp;P International Developed Quality Portfolio" display="https://es.investing.com/etfs/powershares-dynamic-dev-int-opp"/>
-    <hyperlink ref="B52" r:id="rId360" tooltip="Eaton Vance Stock NextShares" display="https://es.investing.com/etfs/eaton-vance-stock-nextshares"/>
-    <hyperlink ref="B261" r:id="rId361" tooltip="Portfolio+ Emerging Markets" display="https://es.investing.com/etfs/portfolioplus-emerging-markets"/>
-    <hyperlink ref="B170" r:id="rId362" tooltip="iShares Edge MSCI International Size Factor" display="https://es.investing.com/etfs/ishares-edge-msci-international-siz"/>
-    <hyperlink ref="B103" r:id="rId363" tooltip="Franklin LibertyQ International Equity Hedged" display="https://es.investing.com/etfs/franklin-libertyq-int-equity-hdg"/>
-    <hyperlink ref="B254" r:id="rId364" tooltip="Nationwide Risk-Based International Equity" display="https://es.investing.com/etfs/nationwide-risk-based-intl"/>
-    <hyperlink ref="B37" r:id="rId365" tooltip="Deutsche X-trackers MSCI EAFE Small Cap Hedged Equity" display="https://es.investing.com/etfs/deutsche-x-trackers-msci-eafe-sc"/>
-    <hyperlink ref="B54" r:id="rId366" tooltip="ETFis Virtus WMC Global Factor Opportunities" display="https://es.investing.com/etfs/etfis-virtus-wmc-global-factor-opp"/>
-    <hyperlink ref="B250" r:id="rId367" tooltip="Legg Mason International Low Volatility High Dividend" display="https://es.investing.com/etfs/legg-mason-intl-lowvol-hidi"/>
-    <hyperlink ref="B33" r:id="rId368" tooltip="CWA Income" display="https://es.investing.com/etfs/cwa-income"/>
-    <hyperlink ref="B238" r:id="rId369" tooltip="JPMorgan Diversified Return International Currency Hedged" display="https://es.investing.com/etfs/jpmorgan-diverrtrn-intcurrhdgd"/>
-    <hyperlink ref="B99" r:id="rId370" tooltip="Franklin Liberty Investment Grade Corporate" display="https://es.investing.com/etfs/franklin-liberty-invest-grade-corp"/>
-    <hyperlink ref="B28" r:id="rId371" tooltip="Columbia Sustainable International Equity Income" display="https://es.investing.com/etfs/columbia-sust-int-eqty-income"/>
-    <hyperlink ref="B176" r:id="rId372" tooltip="iShares Edge MSCI Min Vol EAFE Currency Hedged" display="https://es.investing.com/etfs/ishares-edge-msci-min-vol-eafe-cur"/>
-    <hyperlink ref="B18" r:id="rId373" tooltip="Barclays Women in Leadership" display="https://es.investing.com/etfs/barclays-women-in-leadership"/>
-    <hyperlink ref="B19" r:id="rId374" tooltip="Bernstein Global Research Fund" display="https://es.investing.com/etfs/bernstein-global-research-fund"/>
-    <hyperlink ref="B15" r:id="rId375" tooltip="Barclays Bank FI Enhanced Global High Yield" display="https://es.investing.com/etfs/barclays-bank-fi-enhanced-global"/>
-    <hyperlink ref="B244" r:id="rId376" tooltip="KraneShares FTSE Emerging Markets Plus" display="https://es.investing.com/etfs/kraneshares-ftse-emerging-markets"/>
-    <hyperlink ref="B72" r:id="rId377" tooltip="First Trust Global Natural Resources Income" display="https://es.investing.com/etfs/ise-global-copper"/>
-    <hyperlink ref="B71" r:id="rId378" tooltip="First Trust Global Agriculture" display="https://es.investing.com/etfs/ise-global-platinum"/>
-    <hyperlink ref="B29" r:id="rId379" tooltip="Credit Suisse X Links Multi Asset High Income" display="https://es.investing.com/etfs/credit-suisse-x-links-multi-asset"/>
-    <hyperlink ref="B118" r:id="rId380" tooltip="Global X JPMorgan Efficiente" display="https://es.investing.com/etfs/global-x-jpmorgan-efficiente"/>
+    <hyperlink ref="B342" r:id="rId353" tooltip="The WEAR" display="https://es.investing.com/etfs/the-wear"/>
+    <hyperlink ref="B292" r:id="rId354" tooltip="PowerShares S&amp;P International Developed High Dividend Low Volatility Portfolio" display="https://es.investing.com/etfs/powershrs-sp-intl-dvl-hidiv-lowvol"/>
+    <hyperlink ref="B151" r:id="rId355" tooltip="iShares Adaptive Currency Hedged MSCI EAFE" display="https://es.investing.com/etfs/ishares-adapt-cur-hdg-msci-eafe"/>
+    <hyperlink ref="B375" r:id="rId356" tooltip="WisdomTree Global SmallCap Dividend" display="https://es.investing.com/etfs/wisdomtree-global-smallcap-div"/>
+    <hyperlink ref="B54" r:id="rId357" tooltip="Evolve Marijuana" display="https://es.investing.com/etfs/evolve-marijuana?cid=1075596"/>
+    <hyperlink ref="B349" r:id="rId358" tooltip="Vanguard FTSE All World UCITS" display="https://es.investing.com/etfs/vanguard-ftse-all-world?cid=1065342"/>
+    <hyperlink ref="B276" r:id="rId359" tooltip="PowerShares S&amp;P International Developed Quality Portfolio" display="https://es.investing.com/etfs/powershares-dynamic-dev-int-opp"/>
+    <hyperlink ref="B48" r:id="rId360" tooltip="Eaton Vance Stock NextShares" display="https://es.investing.com/etfs/eaton-vance-stock-nextshares"/>
+    <hyperlink ref="B270" r:id="rId361" tooltip="Portfolio+ Emerging Markets" display="https://es.investing.com/etfs/portfolioplus-emerging-markets"/>
+    <hyperlink ref="B161" r:id="rId362" tooltip="iShares Edge MSCI International Size Factor" display="https://es.investing.com/etfs/ishares-edge-msci-international-siz"/>
+    <hyperlink ref="B96" r:id="rId363" tooltip="Franklin LibertyQ International Equity Hedged" display="https://es.investing.com/etfs/franklin-libertyq-int-equity-hdg"/>
+    <hyperlink ref="B263" r:id="rId364" tooltip="Nationwide Risk-Based International Equity" display="https://es.investing.com/etfs/nationwide-risk-based-intl"/>
+    <hyperlink ref="B39" r:id="rId365" tooltip="Deutsche X-trackers MSCI EAFE Small Cap Hedged Equity" display="https://es.investing.com/etfs/deutsche-x-trackers-msci-eafe-sc"/>
+    <hyperlink ref="B53" r:id="rId366" tooltip="ETFis Virtus WMC Global Factor Opportunities" display="https://es.investing.com/etfs/etfis-virtus-wmc-global-factor-opp"/>
+    <hyperlink ref="B239" r:id="rId367" tooltip="Legg Mason International Low Volatility High Dividend" display="https://es.investing.com/etfs/legg-mason-intl-lowvol-hidi"/>
+    <hyperlink ref="B28" r:id="rId368" tooltip="CWA Income" display="https://es.investing.com/etfs/cwa-income"/>
+    <hyperlink ref="B221" r:id="rId369" tooltip="JPMorgan Diversified Return International Currency Hedged" display="https://es.investing.com/etfs/jpmorgan-diverrtrn-intcurrhdgd"/>
+    <hyperlink ref="B92" r:id="rId370" tooltip="Franklin Liberty Investment Grade Corporate" display="https://es.investing.com/etfs/franklin-liberty-invest-grade-corp"/>
+    <hyperlink ref="B23" r:id="rId371" tooltip="Columbia Sustainable International Equity Income" display="https://es.investing.com/etfs/columbia-sust-int-eqty-income"/>
+    <hyperlink ref="B162" r:id="rId372" tooltip="iShares Edge MSCI Min Vol EAFE Currency Hedged" display="https://es.investing.com/etfs/ishares-edge-msci-min-vol-eafe-cur"/>
+    <hyperlink ref="B17" r:id="rId373" tooltip="Barclays Women in Leadership" display="https://es.investing.com/etfs/barclays-women-in-leadership"/>
+    <hyperlink ref="B18" r:id="rId374" tooltip="Bernstein Global Research Fund" display="https://es.investing.com/etfs/bernstein-global-research-fund"/>
+    <hyperlink ref="B14" r:id="rId375" tooltip="Barclays Bank FI Enhanced Global High Yield" display="https://es.investing.com/etfs/barclays-bank-fi-enhanced-global"/>
+    <hyperlink ref="B230" r:id="rId376" tooltip="KraneShares FTSE Emerging Markets Plus" display="https://es.investing.com/etfs/kraneshares-ftse-emerging-markets"/>
+    <hyperlink ref="B149" r:id="rId377" tooltip="First Trust Global Natural Resources Income" display="https://es.investing.com/etfs/ise-global-copper"/>
+    <hyperlink ref="B150" r:id="rId378" tooltip="First Trust Global Agriculture" display="https://es.investing.com/etfs/ise-global-platinum"/>
+    <hyperlink ref="B24" r:id="rId379" tooltip="Credit Suisse X Links Multi Asset High Income" display="https://es.investing.com/etfs/credit-suisse-x-links-multi-asset"/>
+    <hyperlink ref="B110" r:id="rId380" tooltip="Global X JPMorgan Efficiente" display="https://es.investing.com/etfs/global-x-jpmorgan-efficiente"/>
     <hyperlink ref="B13" r:id="rId381" tooltip="Arrow Dogs of the World" display="https://es.investing.com/etfs/arrow-dogs-of-the-world"/>
     <hyperlink ref="B3" r:id="rId382" tooltip="AAM S&amp;P Emerging Markets Sector High Dividend " display="https://es.investing.com/etfs/aam-sp-em-sector-high-dividend"/>
-    <hyperlink ref="B317" r:id="rId383" tooltip="SPDR MSCI World StrategicFactors" display="https://es.investing.com/etfs/spdr-msci-world-quality-mix"/>
-    <hyperlink ref="B260" r:id="rId384" tooltip="Portfolio+ Developed Markets" display="https://es.investing.com/etfs/portfolioplus-developed-markets"/>
-    <hyperlink ref="B338" r:id="rId385" tooltip="VanEck Vectors Generic Drugs" display="https://es.investing.com/etfs/vaneck-vectors-generic-drugs"/>
+    <hyperlink ref="B328" r:id="rId383" tooltip="SPDR MSCI World StrategicFactors" display="https://es.investing.com/etfs/spdr-msci-world-quality-mix"/>
+    <hyperlink ref="B269" r:id="rId384" tooltip="Portfolio+ Developed Markets" display="https://es.investing.com/etfs/portfolioplus-developed-markets"/>
+    <hyperlink ref="B346" r:id="rId385" tooltip="VanEck Vectors Generic Drugs" display="https://es.investing.com/etfs/vaneck-vectors-generic-drugs"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
